--- a/FabriLife_Test-Case-Report.xlsx
+++ b/FabriLife_Test-Case-Report.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="p4g6AllfGxswt1YRgjIREmekyPqaG0lv6iiaWtI/Kns="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Tq/2J29rJ4yr5kJ8xc/2PjGUEo26Ozsl5gP55g3qhRE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Product Name</t>
   </si>
@@ -90,6 +90,189 @@
   </si>
   <si>
     <t>Total Test Case</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Types Of Testing</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Reproducing Steps</t>
+  </si>
+  <si>
+    <t>Bug Screen Shot</t>
+  </si>
+  <si>
+    <t>Developer Comments</t>
+  </si>
+  <si>
+    <t>Final Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Browser Compatibility Testing</t>
+  </si>
+  <si>
+    <t>Running the site in different browser</t>
+  </si>
+  <si>
+    <t>Should be run in different browser</t>
+  </si>
+  <si>
+    <t>Found as per expectation</t>
+  </si>
+  <si>
+    <t>Google Chrome, Mozila FireFox
+Internet Explorer, Opera Mini</t>
+  </si>
+  <si>
+    <t>1. Go to different browser
+2. Search "Fabrilife"</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>UI Testing</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Spelling and grammertical mistakes</t>
+  </si>
+  <si>
+    <t>Should not any spelling and grammertical mistakes</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" button/link and click on the "Register" button/link
+3. Check the spelling and grammer of this 'Register Page' UI</t>
+    </r>
+  </si>
+  <si>
+    <t>Register page UI Design</t>
+  </si>
+  <si>
+    <t>Should be as per the requirement</t>
+  </si>
+  <si>
+    <t>Found as per expectation and meets requirements</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Check the '"Register Page"  UI  as per design requirement</t>
+    </r>
+  </si>
+  <si>
+    <t>Ensuring the website logo is correct</t>
+  </si>
+  <si>
+    <t>Logo must be correct and as per the design requirement</t>
+  </si>
+  <si>
+    <t>Website Logo found as per the design requirement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF000000"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Check the logo in the header at top left side</t>
+    </r>
+  </si>
+  <si>
+    <t>Veryfying the Register UI fonts, text colors and styles</t>
   </si>
 </sst>
 </file>
@@ -99,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -144,8 +327,20 @@
       <color rgb="FFFFFFFF"/>
       <name val="PT Serif"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +401,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -239,11 +440,63 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,7 +511,7 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -272,9 +525,6 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -302,11 +552,97 @@
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00AE00"/>
+          <bgColor rgb="FF00AE00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE6AD00"/>
+          <bgColor rgb="FFE6AD00"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDA6300"/>
+          <bgColor rgb="FFDA6300"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -528,7 +864,9 @@
   <cols>
     <col customWidth="1" min="1" max="9" width="8.71"/>
     <col customWidth="1" min="10" max="10" width="11.71"/>
-    <col customWidth="1" min="11" max="31" width="8.71"/>
+    <col customWidth="1" min="11" max="40" width="8.71"/>
+    <col customWidth="1" min="41" max="41" width="10.57"/>
+    <col customWidth="1" min="42" max="63" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="34.5" customHeight="1">
@@ -563,6 +901,9 @@
       <c r="S1" s="6">
         <v>45324.0</v>
       </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
       <c r="W1" s="7" t="s">
         <v>4</v>
       </c>
@@ -599,6 +940,9 @@
       <c r="S2" s="6">
         <v>45324.0</v>
       </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="3"/>
       <c r="W2" s="9" t="s">
         <v>9</v>
       </c>
@@ -635,10 +979,13 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="X3" s="2"/>
@@ -648,7 +995,7 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" ht="30.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2"/>
@@ -662,7 +1009,7 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="3"/>
@@ -672,10 +1019,13 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="16" t="s">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="X4" s="2"/>
@@ -685,12 +1035,12 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" ht="30.0" customHeight="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2"/>
@@ -711,7 +1061,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="2"/>
@@ -721,7 +1071,7 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" ht="30.75" customHeight="1">
-      <c r="W6" s="20" t="s">
+      <c r="W6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="X6" s="2"/>
@@ -731,43 +1081,911 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="20"/>
+      <c r="AV8" s="20"/>
+      <c r="AW8" s="20"/>
+      <c r="AX8" s="20"/>
+      <c r="AY8" s="20"/>
+      <c r="AZ8" s="20"/>
+      <c r="BA8" s="20"/>
+      <c r="BB8" s="20"/>
+      <c r="BC8" s="20"/>
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
+      <c r="BK8" s="20"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="22"/>
+      <c r="AY9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="22"/>
+      <c r="BC9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23"/>
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23"/>
+      <c r="BK9" s="22"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="24"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="26"/>
+      <c r="AM10" s="26"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="26"/>
+      <c r="AR10" s="26"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="24"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="26"/>
+      <c r="AW10" s="26"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="26"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="26"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="26"/>
+      <c r="BG10" s="26"/>
+      <c r="BH10" s="26"/>
+      <c r="BI10" s="26"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="25"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="22"/>
+      <c r="AI11" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="23"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="28"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="22"/>
+      <c r="AT11" s="28"/>
+      <c r="AU11" s="23"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ11" s="23"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="28"/>
+      <c r="BD11" s="23"/>
+      <c r="BE11" s="23"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="23"/>
+      <c r="BJ11" s="23"/>
+      <c r="BK11" s="22"/>
+    </row>
+    <row r="12" ht="39.75" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="24"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="26"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="26"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="26"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="26"/>
+      <c r="AW12" s="26"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="26"/>
+      <c r="BA12" s="26"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="26"/>
+      <c r="BE12" s="26"/>
+      <c r="BF12" s="26"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="26"/>
+      <c r="BI12" s="26"/>
+      <c r="BJ12" s="26"/>
+      <c r="BK12" s="25"/>
+    </row>
+    <row r="13" ht="7.5" customHeight="1">
+      <c r="A13" s="32"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="23"/>
+      <c r="AL14" s="23"/>
+      <c r="AM14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="22"/>
+      <c r="AP14" s="28"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="23"/>
+      <c r="BK14" s="22"/>
+    </row>
+    <row r="15" ht="51.75" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="26"/>
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="26"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="24"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="25"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="23"/>
+      <c r="AL16" s="23"/>
+      <c r="AM16" s="23"/>
+      <c r="AN16" s="23"/>
+      <c r="AO16" s="22"/>
+      <c r="AP16" s="28"/>
+      <c r="AQ16" s="23"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="22"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="23"/>
+      <c r="AV16" s="23"/>
+      <c r="AW16" s="23"/>
+      <c r="AX16" s="22"/>
+      <c r="AY16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ16" s="23"/>
+      <c r="BA16" s="23"/>
+      <c r="BB16" s="22"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="23"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="23"/>
+      <c r="BG16" s="23"/>
+      <c r="BH16" s="23"/>
+      <c r="BI16" s="23"/>
+      <c r="BJ16" s="23"/>
+      <c r="BK16" s="22"/>
+    </row>
+    <row r="17" ht="42.0" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="26"/>
+      <c r="AK17" s="26"/>
+      <c r="AL17" s="26"/>
+      <c r="AM17" s="26"/>
+      <c r="AN17" s="26"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="24"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="26"/>
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26"/>
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="25"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="27">
+        <v>4.0</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="23"/>
+      <c r="AL18" s="23"/>
+      <c r="AM18" s="23"/>
+      <c r="AN18" s="23"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="23"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="22"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="22"/>
+      <c r="AY18" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="22"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="23"/>
+      <c r="BE18" s="23"/>
+      <c r="BF18" s="23"/>
+      <c r="BG18" s="23"/>
+      <c r="BH18" s="23"/>
+      <c r="BI18" s="23"/>
+      <c r="BJ18" s="23"/>
+      <c r="BK18" s="22"/>
+    </row>
+    <row r="19" ht="35.25" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
+      <c r="AA19" s="26"/>
+      <c r="AB19" s="26"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="26"/>
+      <c r="AF19" s="26"/>
+      <c r="AG19" s="26"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="24"/>
+      <c r="AJ19" s="26"/>
+      <c r="AK19" s="26"/>
+      <c r="AL19" s="26"/>
+      <c r="AM19" s="26"/>
+      <c r="AN19" s="26"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="24"/>
+      <c r="AQ19" s="26"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="24"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="24"/>
+      <c r="AZ19" s="26"/>
+      <c r="BA19" s="26"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="26"/>
+      <c r="BE19" s="26"/>
+      <c r="BF19" s="26"/>
+      <c r="BG19" s="26"/>
+      <c r="BH19" s="26"/>
+      <c r="BI19" s="26"/>
+      <c r="BJ19" s="26"/>
+      <c r="BK19" s="25"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="25"/>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -1744,7 +2962,19 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="100">
+    <mergeCell ref="AY11:BB12"/>
+    <mergeCell ref="BC11:BK12"/>
+    <mergeCell ref="AT9:AX10"/>
+    <mergeCell ref="AY9:BB10"/>
+    <mergeCell ref="BC9:BK10"/>
+    <mergeCell ref="AD11:AH12"/>
+    <mergeCell ref="AI11:AO12"/>
+    <mergeCell ref="AT11:AX12"/>
+    <mergeCell ref="X14:AC15"/>
+    <mergeCell ref="AD14:AH15"/>
+    <mergeCell ref="AI14:AO15"/>
+    <mergeCell ref="AP14:AS15"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
@@ -1782,14 +3012,93 @@
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="W6:Y6"/>
     <mergeCell ref="D5:V5"/>
+    <mergeCell ref="AD9:AH10"/>
+    <mergeCell ref="AI9:AO10"/>
+    <mergeCell ref="AP9:AS10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="AP11:AS12"/>
+    <mergeCell ref="L18:Q19"/>
+    <mergeCell ref="R18:W19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C14:E21"/>
+    <mergeCell ref="F14:I21"/>
+    <mergeCell ref="J14:K21"/>
+    <mergeCell ref="L20:Q21"/>
+    <mergeCell ref="R20:W21"/>
+    <mergeCell ref="X18:AC19"/>
+    <mergeCell ref="AD18:AH19"/>
+    <mergeCell ref="AI18:AO19"/>
+    <mergeCell ref="AP18:AS19"/>
+    <mergeCell ref="AT18:AX19"/>
+    <mergeCell ref="AY18:BB19"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="L11:Q12"/>
+    <mergeCell ref="R11:W12"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="X11:AC12"/>
+    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="R14:W15"/>
+    <mergeCell ref="AY14:BB15"/>
+    <mergeCell ref="BC18:BK19"/>
+    <mergeCell ref="AT14:AX15"/>
+    <mergeCell ref="BC14:BK15"/>
+    <mergeCell ref="L14:Q15"/>
+    <mergeCell ref="L16:Q17"/>
+    <mergeCell ref="R16:W17"/>
+    <mergeCell ref="X16:AC17"/>
+    <mergeCell ref="AD16:AH17"/>
+    <mergeCell ref="AI16:AO17"/>
+    <mergeCell ref="AP16:AS17"/>
+    <mergeCell ref="AT16:AX17"/>
+    <mergeCell ref="AY16:BB17"/>
+    <mergeCell ref="BC16:BK17"/>
   </mergeCells>
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Out Of Scope"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18">
+      <formula1>"Passed,Failed,Not Executed,Out Of Scope"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D1"/>
+    <hyperlink r:id="rId2" ref="AI14"/>
+    <hyperlink r:id="rId3" ref="AI16"/>
+    <hyperlink r:id="rId4" ref="AI18"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/FabriLife_Test-Case-Report.xlsx
+++ b/FabriLife_Test-Case-Report.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="Tq/2J29rJ4yr5kJ8xc/2PjGUEo26Ozsl5gP55g3qhRE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6R7yBYf0MXzUXdSKERxAz93J2Vqr8fXaaxWoyqTeHBM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
   <si>
     <t>Product Name</t>
   </si>
@@ -195,7 +195,7 @@
       </rPr>
       <t xml:space="preserve">
 2. Hover on the "Login" button/link and click on the "Register" button/link
-3. Check the spelling and grammer of this 'Register Page' UI</t>
+3. Check the spelling and grammer of this website</t>
     </r>
   </si>
   <si>
@@ -272,7 +272,966 @@
     </r>
   </si>
   <si>
-    <t>Veryfying the Register UI fonts, text colors and styles</t>
+    <t>Veryfying  fonts, text colors and styles</t>
+  </si>
+  <si>
+    <t>Should must be as per the requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Found as per expectation and meets requiement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://fabrilife.com/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>2. Check the fonts, text-colors and styles</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking the alignment of the input fields</t>
+  </si>
+  <si>
+    <t>Need to proper aligned the input fields</t>
+  </si>
+  <si>
+    <t>Input fields found with proper alignment</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3.  Check the input fields alignment</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking the mandatory field lavel is marked with a asterisk</t>
+  </si>
+  <si>
+    <t>Asterisk should be present with mandatory field level</t>
+  </si>
+  <si>
+    <t>Asterisk is not found with mandatory field level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3.  Check the input fields level text</t>
+    </r>
+  </si>
+  <si>
+    <t>Asterisk(*) Sign Bug</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Keep blank all the input fields</t>
+  </si>
+  <si>
+    <t>Doesn't allow to user to register and display a warning message</t>
+  </si>
+  <si>
+    <t>It executed with displaying a warning message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Keep blank all the input fields
+4. Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking all fields are disabled or not</t>
+  </si>
+  <si>
+    <t>All the fields should be enabled by default</t>
+  </si>
+  <si>
+    <t>Found all the fields are enable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Check all the input fields is enable or not</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Name field is taken number or not</t>
+  </si>
+  <si>
+    <t>Should not allowe to take number as Name</t>
+  </si>
+  <si>
+    <t>Not Found as per expectation</t>
+  </si>
+  <si>
+    <t>12345 6789</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Give numerical number in name input field as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Input Take Number-Bug</t>
+  </si>
+  <si>
+    <t>Checking name input field is case sensitive</t>
+  </si>
+  <si>
+    <t>Accept the provided input</t>
+  </si>
+  <si>
+    <t>abc DEF</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "abc DEF" as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Name Input is taken mixing of characters &amp; numbers</t>
+  </si>
+  <si>
+    <t>Should not take mixer of number and characters as name</t>
+  </si>
+  <si>
+    <t>Abc123d Efgh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "Abc123d Efgh" as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Input Take Mixer of Numbers &amp; Characters-Bug</t>
+  </si>
+  <si>
+    <t>Veryfying Name input is starts with number or not</t>
+  </si>
+  <si>
+    <t>Name should not start with number</t>
+  </si>
+  <si>
+    <t>Not Foun as per expectation</t>
+  </si>
+  <si>
+    <t>123MD. Nayeem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "123MD. Nayeem" as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Input Start With Number-Bug</t>
+  </si>
+  <si>
+    <t>Veryfying Name input is Ends with number or not</t>
+  </si>
+  <si>
+    <t>Name should not ends with number</t>
+  </si>
+  <si>
+    <t>MD. Nayeem123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "MD. Nayeem123" as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Input Ends With Number-Bug</t>
+  </si>
+  <si>
+    <t>Checking Name Input is taken any special characters as Name</t>
+  </si>
+  <si>
+    <t>Should not take any special characters as Name</t>
+  </si>
+  <si>
+    <t>!*#MD. Nayeem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "!*#MD. Nayeem" as Name
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Input Take Special Characters</t>
+  </si>
+  <si>
+    <t>Checking by inputing the incomplete email</t>
+  </si>
+  <si>
+    <t>Should not allow to register and display a warning message</t>
+  </si>
+  <si>
+    <t>Found as per expectation with a warning message</t>
+  </si>
+  <si>
+    <t>@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "@gmail.com" as Email
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing the invalid email format</t>
+  </si>
+  <si>
+    <t>Should not allow an invalid email format and display a warning message</t>
+  </si>
+  <si>
+    <t>abcd@efgh</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input "abcd@efgh" as Email
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Veryfying the email is case sensitive or not</t>
+  </si>
+  <si>
+    <t>Should accept the provided email data</t>
+  </si>
+  <si>
+    <t>ABCD@Gmail.Com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. case sensitive "ABCD@Gmail.Com" as Email
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Validating an email can be used in one time</t>
+  </si>
+  <si>
+    <t>Should not allow to user to register and display a warning message</t>
+  </si>
+  <si>
+    <t>mohammednayeem808@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Fill the email field with already registered Email
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing the valid email format</t>
+  </si>
+  <si>
+    <t>Should accept the given input email data</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Fill the email field with valid Email format
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking phone number format</t>
+  </si>
+  <si>
+    <t>Found as per requirement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Fill phone number field with valid number - 01878637196.
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Veryfying phone number length doesn't match with format</t>
+  </si>
+  <si>
+    <t>Should not allow to register and display warning message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Inputed phone number - "187863719"
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking country code option is present or not</t>
+  </si>
+  <si>
+    <t>Should be present</t>
+  </si>
+  <si>
+    <t>Country Code option isn't present</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Check country code option in phone number input field
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Country Code Option-Bug</t>
+  </si>
+  <si>
+    <t>Checking is phone number inputing by the string</t>
+  </si>
+  <si>
+    <t>Should not take string as phone number and dsiplay a warning message</t>
+  </si>
+  <si>
+    <t>It executed with a warning message</t>
+  </si>
+  <si>
+    <t>"01878637196"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take phone number as string "01878637196"
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking password and confirm password field values are masked or not</t>
+  </si>
+  <si>
+    <t>Password and Confirm Password values should be masked</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Check password masked or not
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Inputing invalid combination of characters in password &amp; confirm password fields</t>
+  </si>
+  <si>
+    <t>FabriLife123
+FabriLife13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Input different password for password and confirm password fields
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Inputing Weak password length</t>
+  </si>
+  <si>
+    <t>Should allow user to register</t>
+  </si>
+  <si>
+    <t>Fabri#12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input weak password - Fabri#12
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check by inputing medium password length</t>
+  </si>
+  <si>
+    <t>It executed</t>
+  </si>
+  <si>
+    <t>Fabri#123Life</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input medium password - Fabri#123Life
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Check by inputing strong password length</t>
+  </si>
+  <si>
+    <t>Fabri#123*Life$321</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Take input strong password - Fabri#123*Life$321
+4. Fill rest of the fields with proper value
+5.Click on the "Register" button</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -282,7 +1241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="20">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -337,6 +1296,53 @@
       <u/>
       <sz val="12.0"/>
       <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="PT Serif"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="PT Serif"/>
     </font>
   </fonts>
@@ -449,14 +1455,14 @@
       </top>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -470,14 +1476,14 @@
       </bottom>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -496,7 +1502,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -539,15 +1545,20 @@
     <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -555,11 +1566,6 @@
     <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -588,7 +1594,42 @@
     <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="11" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -938,7 +1979,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="3"/>
       <c r="S2" s="6">
-        <v>45324.0</v>
+        <v>45327.0</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
@@ -1038,30 +2079,30 @@
       <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="17" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="20" t="s">
         <v>22</v>
       </c>
       <c r="X5" s="2"/>
@@ -1071,7 +2112,29 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" ht="30.75" customHeight="1">
-      <c r="W6" s="19" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="24" t="s">
         <v>23</v>
       </c>
       <c r="X6" s="2"/>
@@ -1081,371 +2144,371 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="20"/>
-      <c r="AM8" s="20"/>
-      <c r="AN8" s="20"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="20"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
+      <c r="BC8" s="25"/>
+      <c r="BD8" s="25"/>
+      <c r="BE8" s="25"/>
+      <c r="BF8" s="25"/>
+      <c r="BG8" s="25"/>
+      <c r="BH8" s="25"/>
+      <c r="BI8" s="25"/>
+      <c r="BJ8" s="25"/>
+      <c r="BK8" s="25"/>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="21" t="s">
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="21" t="s">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="21" t="s">
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="21" t="s">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23"/>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="21" t="s">
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="21" t="s">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="22"/>
-      <c r="AY9" s="21" t="s">
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="22"/>
-      <c r="BC9" s="21" t="s">
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23"/>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23"/>
-      <c r="BK9" s="22"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17"/>
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17"/>
+      <c r="BK9" s="18"/>
     </row>
     <row r="10">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-      <c r="AL10" s="26"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="26"/>
-      <c r="AR10" s="26"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="26"/>
-      <c r="BA10" s="26"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="24"/>
-      <c r="BD10" s="26"/>
-      <c r="BE10" s="26"/>
-      <c r="BF10" s="26"/>
-      <c r="BG10" s="26"/>
-      <c r="BH10" s="26"/>
-      <c r="BI10" s="26"/>
-      <c r="BJ10" s="26"/>
-      <c r="BK10" s="25"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="23"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="22"/>
+      <c r="AS10" s="23"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="22"/>
+      <c r="AV10" s="22"/>
+      <c r="AW10" s="22"/>
+      <c r="AX10" s="23"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="22"/>
+      <c r="BA10" s="22"/>
+      <c r="BB10" s="23"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="22"/>
+      <c r="BE10" s="22"/>
+      <c r="BF10" s="22"/>
+      <c r="BG10" s="22"/>
+      <c r="BH10" s="22"/>
+      <c r="BI10" s="22"/>
+      <c r="BJ10" s="22"/>
+      <c r="BK10" s="23"/>
     </row>
     <row r="11">
       <c r="A11" s="27">
         <v>1.0</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="28"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="22"/>
+      <c r="K11" s="18"/>
       <c r="L11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="22"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
       <c r="R11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="22"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="22"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="18"/>
       <c r="AD11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="AE11" s="23"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="22"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="18"/>
       <c r="AI11" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ11" s="23"/>
-      <c r="AK11" s="23"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="22"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="18"/>
       <c r="AP11" s="28"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="22"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="18"/>
       <c r="AT11" s="28"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="22"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="17"/>
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="18"/>
       <c r="AY11" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="22"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="17"/>
+      <c r="BB11" s="18"/>
       <c r="BC11" s="28"/>
-      <c r="BD11" s="23"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="22"/>
+      <c r="BD11" s="17"/>
+      <c r="BE11" s="17"/>
+      <c r="BF11" s="17"/>
+      <c r="BG11" s="17"/>
+      <c r="BH11" s="17"/>
+      <c r="BI11" s="17"/>
+      <c r="BJ11" s="17"/>
+      <c r="BK11" s="18"/>
     </row>
     <row r="12" ht="39.75" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="25"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="26"/>
-      <c r="AK12" s="26"/>
-      <c r="AL12" s="26"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="25"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="26"/>
-      <c r="AS12" s="25"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="25"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="26"/>
-      <c r="BA12" s="26"/>
-      <c r="BB12" s="25"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="26"/>
-      <c r="BE12" s="26"/>
-      <c r="BF12" s="26"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="26"/>
-      <c r="BI12" s="26"/>
-      <c r="BJ12" s="26"/>
-      <c r="BK12" s="25"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="23"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="23"/>
+      <c r="AP12" s="21"/>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="23"/>
+      <c r="AT12" s="21"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="23"/>
+      <c r="AY12" s="21"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="23"/>
+      <c r="BC12" s="21"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="23"/>
     </row>
     <row r="13" ht="7.5" customHeight="1">
       <c r="A13" s="32"/>
@@ -1516,154 +2579,154 @@
       <c r="A14" s="27">
         <v>2.0</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="18"/>
       <c r="L14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="22"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="18"/>
       <c r="R14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="22"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
       <c r="X14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="22"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="18"/>
       <c r="AD14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="22"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="18"/>
       <c r="AI14" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="AJ14" s="23"/>
-      <c r="AK14" s="23"/>
-      <c r="AL14" s="23"/>
-      <c r="AM14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="22"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="17"/>
+      <c r="AO14" s="18"/>
       <c r="AP14" s="28"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="22"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="18"/>
       <c r="AT14" s="28"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="22"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="17"/>
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="18"/>
       <c r="AY14" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="22"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="17"/>
+      <c r="BB14" s="18"/>
       <c r="BC14" s="28"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="22"/>
+      <c r="BD14" s="17"/>
+      <c r="BE14" s="17"/>
+      <c r="BF14" s="17"/>
+      <c r="BG14" s="17"/>
+      <c r="BH14" s="17"/>
+      <c r="BI14" s="17"/>
+      <c r="BJ14" s="17"/>
+      <c r="BK14" s="18"/>
     </row>
     <row r="15" ht="51.75" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="34"/>
       <c r="E15" s="35"/>
       <c r="F15" s="34"/>
       <c r="I15" s="35"/>
       <c r="J15" s="34"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="26"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="25"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="23"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+      <c r="AO15" s="23"/>
+      <c r="AP15" s="21"/>
+      <c r="AQ15" s="22"/>
+      <c r="AR15" s="22"/>
+      <c r="AS15" s="23"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="22"/>
+      <c r="AV15" s="22"/>
+      <c r="AW15" s="22"/>
+      <c r="AX15" s="23"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="23"/>
+      <c r="BC15" s="21"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="22"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="23"/>
     </row>
     <row r="16">
       <c r="A16" s="27">
         <v>3.0</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="34"/>
       <c r="E16" s="35"/>
       <c r="F16" s="34"/>
@@ -1673,135 +2736,135 @@
       <c r="L16" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="22"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
       <c r="R16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="22"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="22"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="18"/>
       <c r="AD16" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="23"/>
-      <c r="AH16" s="22"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="18"/>
       <c r="AI16" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AJ16" s="23"/>
-      <c r="AK16" s="23"/>
-      <c r="AL16" s="23"/>
-      <c r="AM16" s="23"/>
-      <c r="AN16" s="23"/>
-      <c r="AO16" s="22"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+      <c r="AO16" s="18"/>
       <c r="AP16" s="28"/>
-      <c r="AQ16" s="23"/>
-      <c r="AR16" s="23"/>
-      <c r="AS16" s="22"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="18"/>
       <c r="AT16" s="28"/>
-      <c r="AU16" s="23"/>
-      <c r="AV16" s="23"/>
-      <c r="AW16" s="23"/>
-      <c r="AX16" s="22"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="17"/>
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="18"/>
       <c r="AY16" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="23"/>
-      <c r="BB16" s="22"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="17"/>
+      <c r="BB16" s="18"/>
       <c r="BC16" s="28"/>
-      <c r="BD16" s="23"/>
-      <c r="BE16" s="23"/>
-      <c r="BF16" s="23"/>
-      <c r="BG16" s="23"/>
-      <c r="BH16" s="23"/>
-      <c r="BI16" s="23"/>
-      <c r="BJ16" s="23"/>
-      <c r="BK16" s="22"/>
+      <c r="BD16" s="17"/>
+      <c r="BE16" s="17"/>
+      <c r="BF16" s="17"/>
+      <c r="BG16" s="17"/>
+      <c r="BH16" s="17"/>
+      <c r="BI16" s="17"/>
+      <c r="BJ16" s="17"/>
+      <c r="BK16" s="18"/>
     </row>
     <row r="17" ht="42.0" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="34"/>
       <c r="E17" s="35"/>
       <c r="F17" s="34"/>
       <c r="I17" s="35"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26"/>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="26"/>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="25"/>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="26"/>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="25"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+      <c r="AH17" s="23"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="22"/>
+      <c r="AK17" s="22"/>
+      <c r="AL17" s="22"/>
+      <c r="AM17" s="22"/>
+      <c r="AN17" s="22"/>
+      <c r="AO17" s="23"/>
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="22"/>
+      <c r="AR17" s="22"/>
+      <c r="AS17" s="23"/>
+      <c r="AT17" s="21"/>
+      <c r="AU17" s="22"/>
+      <c r="AV17" s="22"/>
+      <c r="AW17" s="22"/>
+      <c r="AX17" s="23"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="22"/>
+      <c r="BA17" s="22"/>
+      <c r="BB17" s="23"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="22"/>
+      <c r="BE17" s="22"/>
+      <c r="BF17" s="22"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="27">
         <v>4.0</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="34"/>
       <c r="E18" s="35"/>
       <c r="F18" s="34"/>
@@ -1811,135 +2874,135 @@
       <c r="L18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="22"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
       <c r="R18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="22"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="22"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="18"/>
       <c r="AD18" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="22"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="18"/>
       <c r="AI18" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="23"/>
-      <c r="AO18" s="22"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="17"/>
+      <c r="AO18" s="18"/>
       <c r="AP18" s="28"/>
-      <c r="AQ18" s="23"/>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="22"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="18"/>
       <c r="AT18" s="28"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="23"/>
-      <c r="AX18" s="22"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="17"/>
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="18"/>
       <c r="AY18" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AZ18" s="23"/>
-      <c r="BA18" s="23"/>
-      <c r="BB18" s="22"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="17"/>
+      <c r="BB18" s="18"/>
       <c r="BC18" s="28"/>
-      <c r="BD18" s="23"/>
-      <c r="BE18" s="23"/>
-      <c r="BF18" s="23"/>
-      <c r="BG18" s="23"/>
-      <c r="BH18" s="23"/>
-      <c r="BI18" s="23"/>
-      <c r="BJ18" s="23"/>
-      <c r="BK18" s="22"/>
+      <c r="BD18" s="17"/>
+      <c r="BE18" s="17"/>
+      <c r="BF18" s="17"/>
+      <c r="BG18" s="17"/>
+      <c r="BH18" s="17"/>
+      <c r="BI18" s="17"/>
+      <c r="BJ18" s="17"/>
+      <c r="BK18" s="18"/>
     </row>
     <row r="19" ht="35.25" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="34"/>
       <c r="E19" s="35"/>
       <c r="F19" s="34"/>
       <c r="I19" s="35"/>
       <c r="J19" s="34"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="24"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="25"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="25"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="25"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="25"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="26"/>
-      <c r="BA19" s="26"/>
-      <c r="BB19" s="25"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="26"/>
-      <c r="BE19" s="26"/>
-      <c r="BF19" s="26"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="25"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="22"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="22"/>
+      <c r="AH19" s="23"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="22"/>
+      <c r="AK19" s="22"/>
+      <c r="AL19" s="22"/>
+      <c r="AM19" s="22"/>
+      <c r="AN19" s="22"/>
+      <c r="AO19" s="23"/>
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="22"/>
+      <c r="AR19" s="22"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="21"/>
+      <c r="AU19" s="22"/>
+      <c r="AV19" s="22"/>
+      <c r="AW19" s="22"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="22"/>
+      <c r="BA19" s="22"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="22"/>
+      <c r="BE19" s="22"/>
+      <c r="BF19" s="22"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="27">
         <v>5.0</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="34"/>
       <c r="E20" s="35"/>
       <c r="F20" s="34"/>
@@ -1949,91 +3012,3467 @@
       <c r="L20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="22"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="18"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="18"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="18"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="25"/>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="22"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="22"/>
+      <c r="BF21" s="22"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="23"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="18"/>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="28"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="18"/>
+      <c r="BC22" s="28"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="18"/>
+    </row>
+    <row r="23" ht="36.75" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="21"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="23"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="22"/>
+      <c r="AK23" s="22"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="23"/>
+      <c r="AP23" s="21"/>
+      <c r="AQ23" s="22"/>
+      <c r="AR23" s="22"/>
+      <c r="AS23" s="23"/>
+      <c r="AT23" s="21"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="21"/>
+      <c r="AZ23" s="22"/>
+      <c r="BA23" s="22"/>
+      <c r="BB23" s="23"/>
+      <c r="BC23" s="21"/>
+      <c r="BD23" s="22"/>
+      <c r="BE23" s="22"/>
+      <c r="BF23" s="22"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="23"/>
+    </row>
+    <row r="24" ht="46.5" customHeight="1">
+      <c r="A24" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="10"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="3"/>
+    </row>
+    <row r="25" ht="6.75" customHeight="1">
+      <c r="A25" s="32"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="3"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="27">
+        <v>8.0</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="17"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="28"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="17"/>
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="17"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="17"/>
+      <c r="BE26" s="17"/>
+      <c r="BF26" s="17"/>
+      <c r="BG26" s="17"/>
+      <c r="BH26" s="17"/>
+      <c r="BI26" s="17"/>
+      <c r="BJ26" s="17"/>
+      <c r="BK26" s="18"/>
+    </row>
+    <row r="27" ht="47.25" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="21"/>
+      <c r="AJ27" s="22"/>
+      <c r="AK27" s="22"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="21"/>
+      <c r="AQ27" s="22"/>
+      <c r="AR27" s="22"/>
+      <c r="AS27" s="23"/>
+      <c r="AT27" s="21"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="21"/>
+      <c r="AZ27" s="22"/>
+      <c r="BA27" s="22"/>
+      <c r="BB27" s="23"/>
+      <c r="BC27" s="21"/>
+      <c r="BD27" s="22"/>
+      <c r="BE27" s="22"/>
+      <c r="BF27" s="22"/>
+      <c r="BG27" s="22"/>
+      <c r="BH27" s="22"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="23"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="27">
+        <v>9.0</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="18"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="18"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="17"/>
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="17"/>
+      <c r="BB28" s="18"/>
+      <c r="BC28" s="28"/>
+      <c r="BD28" s="17"/>
+      <c r="BE28" s="17"/>
+      <c r="BF28" s="17"/>
+      <c r="BG28" s="17"/>
+      <c r="BH28" s="17"/>
+      <c r="BI28" s="17"/>
+      <c r="BJ28" s="17"/>
+      <c r="BK28" s="18"/>
+    </row>
+    <row r="29" ht="33.75" customHeight="1">
+      <c r="A29" s="21"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="21"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="22"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="21"/>
+      <c r="AJ29" s="22"/>
+      <c r="AK29" s="22"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="21"/>
+      <c r="AQ29" s="22"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="23"/>
+      <c r="AT29" s="21"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="21"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="23"/>
+      <c r="BC29" s="21"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="23"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="27">
+        <v>10.0</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="34"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="17"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="28"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="17"/>
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="17"/>
+      <c r="BB30" s="18"/>
+      <c r="BC30" s="28"/>
+      <c r="BD30" s="17"/>
+      <c r="BE30" s="17"/>
+      <c r="BF30" s="17"/>
+      <c r="BG30" s="17"/>
+      <c r="BH30" s="17"/>
+      <c r="BI30" s="17"/>
+      <c r="BJ30" s="17"/>
+      <c r="BK30" s="18"/>
+    </row>
+    <row r="31" ht="62.25" customHeight="1">
+      <c r="A31" s="21"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="34"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="22"/>
+      <c r="AK31" s="22"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="22"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="23"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="23"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="22"/>
+      <c r="BE31" s="22"/>
+      <c r="BF31" s="22"/>
+      <c r="BG31" s="22"/>
+      <c r="BH31" s="22"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="23"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="27">
+        <v>11.0</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="34"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="34"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="18"/>
+      <c r="AD32" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+      <c r="AN32" s="17"/>
+      <c r="AO32" s="18"/>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="17"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="18"/>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="17"/>
+      <c r="AV32" s="17"/>
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="17"/>
+      <c r="BB32" s="18"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="17"/>
+      <c r="BE32" s="17"/>
+      <c r="BF32" s="17"/>
+      <c r="BG32" s="17"/>
+      <c r="BH32" s="17"/>
+      <c r="BI32" s="17"/>
+      <c r="BJ32" s="17"/>
+      <c r="BK32" s="18"/>
+    </row>
+    <row r="33" ht="31.5" customHeight="1">
+      <c r="A33" s="21"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="34"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="34"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="22"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="22"/>
+      <c r="AK33" s="22"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="21"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="21"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="21"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="22"/>
+      <c r="BF33" s="22"/>
+      <c r="BG33" s="22"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="22"/>
+      <c r="BJ33" s="22"/>
+      <c r="BK33" s="23"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="27">
+        <v>12.0</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="34"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="34"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+      <c r="AN34" s="17"/>
+      <c r="AO34" s="18"/>
+      <c r="AP34" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ34" s="17"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="18"/>
+      <c r="AT34" s="28"/>
+      <c r="AU34" s="17"/>
+      <c r="AV34" s="17"/>
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ34" s="17"/>
+      <c r="BA34" s="17"/>
+      <c r="BB34" s="18"/>
+      <c r="BC34" s="28"/>
+      <c r="BD34" s="17"/>
+      <c r="BE34" s="17"/>
+      <c r="BF34" s="17"/>
+      <c r="BG34" s="17"/>
+      <c r="BH34" s="17"/>
+      <c r="BI34" s="17"/>
+      <c r="BJ34" s="17"/>
+      <c r="BK34" s="18"/>
+    </row>
+    <row r="35" ht="32.25" customHeight="1">
+      <c r="A35" s="21"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="34"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="34"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="23"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="23"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="22"/>
+      <c r="AK35" s="22"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="23"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="23"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="23"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="23"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="27">
+        <v>13.0</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="34"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE36" s="17"/>
+      <c r="AF36" s="17"/>
+      <c r="AG36" s="17"/>
+      <c r="AH36" s="18"/>
+      <c r="AI36" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+      <c r="AL36" s="17"/>
+      <c r="AM36" s="17"/>
+      <c r="AN36" s="17"/>
+      <c r="AO36" s="18"/>
+      <c r="AP36" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ36" s="17"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="18"/>
+      <c r="AT36" s="28"/>
+      <c r="AU36" s="17"/>
+      <c r="AV36" s="17"/>
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ36" s="17"/>
+      <c r="BA36" s="17"/>
+      <c r="BB36" s="18"/>
+      <c r="BC36" s="28"/>
+      <c r="BD36" s="17"/>
+      <c r="BE36" s="17"/>
+      <c r="BF36" s="17"/>
+      <c r="BG36" s="17"/>
+      <c r="BH36" s="17"/>
+      <c r="BI36" s="17"/>
+      <c r="BJ36" s="17"/>
+      <c r="BK36" s="18"/>
+    </row>
+    <row r="37" ht="27.75" customHeight="1">
+      <c r="A37" s="21"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="34"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="34"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="22"/>
+      <c r="AH37" s="23"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="22"/>
+      <c r="AK37" s="22"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="23"/>
+      <c r="AP37" s="21"/>
+      <c r="AQ37" s="22"/>
+      <c r="AR37" s="22"/>
+      <c r="AS37" s="23"/>
+      <c r="AT37" s="21"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="21"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="23"/>
+      <c r="BC37" s="21"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="22"/>
+      <c r="BF37" s="22"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="23"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="27">
+        <v>14.0</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="34"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="34"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="18"/>
+      <c r="AD38" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE38" s="17"/>
+      <c r="AF38" s="17"/>
+      <c r="AG38" s="17"/>
+      <c r="AH38" s="18"/>
+      <c r="AI38" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+      <c r="AL38" s="17"/>
+      <c r="AM38" s="17"/>
+      <c r="AN38" s="17"/>
+      <c r="AO38" s="18"/>
+      <c r="AP38" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ38" s="17"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="18"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="17"/>
+      <c r="AV38" s="17"/>
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ38" s="17"/>
+      <c r="BA38" s="17"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="28"/>
+      <c r="BD38" s="17"/>
+      <c r="BE38" s="17"/>
+      <c r="BF38" s="17"/>
+      <c r="BG38" s="17"/>
+      <c r="BH38" s="17"/>
+      <c r="BI38" s="17"/>
+      <c r="BJ38" s="17"/>
+      <c r="BK38" s="18"/>
+    </row>
+    <row r="39" ht="27.75" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="34"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="23"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="23"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="22"/>
+      <c r="AK39" s="22"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="21"/>
+      <c r="AQ39" s="22"/>
+      <c r="AR39" s="22"/>
+      <c r="AS39" s="23"/>
+      <c r="AT39" s="21"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="21"/>
+      <c r="AZ39" s="22"/>
+      <c r="BA39" s="22"/>
+      <c r="BB39" s="23"/>
+      <c r="BC39" s="21"/>
+      <c r="BD39" s="22"/>
+      <c r="BE39" s="22"/>
+      <c r="BF39" s="22"/>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="23"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="27">
+        <v>15.0</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="34"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="34"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="18"/>
+      <c r="X40" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE40" s="17"/>
+      <c r="AF40" s="17"/>
+      <c r="AG40" s="17"/>
+      <c r="AH40" s="18"/>
+      <c r="AI40" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+      <c r="AL40" s="17"/>
+      <c r="AM40" s="17"/>
+      <c r="AN40" s="17"/>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ40" s="17"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="18"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="17"/>
+      <c r="AV40" s="17"/>
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ40" s="17"/>
+      <c r="BA40" s="17"/>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="28"/>
+      <c r="BD40" s="17"/>
+      <c r="BE40" s="17"/>
+      <c r="BF40" s="17"/>
+      <c r="BG40" s="17"/>
+      <c r="BH40" s="17"/>
+      <c r="BI40" s="17"/>
+      <c r="BJ40" s="17"/>
+      <c r="BK40" s="18"/>
+    </row>
+    <row r="41" ht="29.25" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="34"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="34"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="23"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+      <c r="AG41" s="22"/>
+      <c r="AH41" s="23"/>
+      <c r="AI41" s="21"/>
+      <c r="AJ41" s="22"/>
+      <c r="AK41" s="22"/>
+      <c r="AL41" s="22"/>
+      <c r="AM41" s="22"/>
+      <c r="AN41" s="22"/>
+      <c r="AO41" s="23"/>
+      <c r="AP41" s="21"/>
+      <c r="AQ41" s="22"/>
+      <c r="AR41" s="22"/>
+      <c r="AS41" s="23"/>
+      <c r="AT41" s="21"/>
+      <c r="AU41" s="22"/>
+      <c r="AV41" s="22"/>
+      <c r="AW41" s="22"/>
+      <c r="AX41" s="23"/>
+      <c r="AY41" s="21"/>
+      <c r="AZ41" s="22"/>
+      <c r="BA41" s="22"/>
+      <c r="BB41" s="23"/>
+      <c r="BC41" s="21"/>
+      <c r="BD41" s="22"/>
+      <c r="BE41" s="22"/>
+      <c r="BF41" s="22"/>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="23"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="27">
+        <v>16.0</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="34"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="34"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="18"/>
+      <c r="X42" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
+      <c r="AB42" s="17"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE42" s="17"/>
+      <c r="AF42" s="17"/>
+      <c r="AG42" s="17"/>
+      <c r="AH42" s="18"/>
+      <c r="AI42" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+      <c r="AL42" s="17"/>
+      <c r="AM42" s="17"/>
+      <c r="AN42" s="17"/>
+      <c r="AO42" s="18"/>
+      <c r="AP42" s="28"/>
+      <c r="AQ42" s="17"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="18"/>
+      <c r="AT42" s="28"/>
+      <c r="AU42" s="17"/>
+      <c r="AV42" s="17"/>
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ42" s="17"/>
+      <c r="BA42" s="17"/>
+      <c r="BB42" s="18"/>
+      <c r="BC42" s="28"/>
+      <c r="BD42" s="17"/>
+      <c r="BE42" s="17"/>
+      <c r="BF42" s="17"/>
+      <c r="BG42" s="17"/>
+      <c r="BH42" s="17"/>
+      <c r="BI42" s="17"/>
+      <c r="BJ42" s="17"/>
+      <c r="BK42" s="18"/>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="21"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="34"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="34"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="23"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
+      <c r="AH43" s="23"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="22"/>
+      <c r="AK43" s="22"/>
+      <c r="AL43" s="22"/>
+      <c r="AM43" s="22"/>
+      <c r="AN43" s="22"/>
+      <c r="AO43" s="23"/>
+      <c r="AP43" s="21"/>
+      <c r="AQ43" s="22"/>
+      <c r="AR43" s="22"/>
+      <c r="AS43" s="23"/>
+      <c r="AT43" s="21"/>
+      <c r="AU43" s="22"/>
+      <c r="AV43" s="22"/>
+      <c r="AW43" s="22"/>
+      <c r="AX43" s="23"/>
+      <c r="AY43" s="21"/>
+      <c r="AZ43" s="22"/>
+      <c r="BA43" s="22"/>
+      <c r="BB43" s="23"/>
+      <c r="BC43" s="21"/>
+      <c r="BD43" s="22"/>
+      <c r="BE43" s="22"/>
+      <c r="BF43" s="22"/>
+      <c r="BG43" s="22"/>
+      <c r="BH43" s="22"/>
+      <c r="BI43" s="22"/>
+      <c r="BJ43" s="22"/>
+      <c r="BK43" s="23"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="27">
+        <v>17.0</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="34"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE44" s="17"/>
+      <c r="AF44" s="17"/>
+      <c r="AG44" s="17"/>
+      <c r="AH44" s="18"/>
+      <c r="AI44" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+      <c r="AL44" s="17"/>
+      <c r="AM44" s="17"/>
+      <c r="AN44" s="17"/>
+      <c r="AO44" s="18"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="17"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="18"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="17"/>
+      <c r="AV44" s="17"/>
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="18"/>
+      <c r="AY44" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ44" s="17"/>
+      <c r="BA44" s="17"/>
+      <c r="BB44" s="18"/>
+      <c r="BC44" s="28"/>
+      <c r="BD44" s="17"/>
+      <c r="BE44" s="17"/>
+      <c r="BF44" s="17"/>
+      <c r="BG44" s="17"/>
+      <c r="BH44" s="17"/>
+      <c r="BI44" s="17"/>
+      <c r="BJ44" s="17"/>
+      <c r="BK44" s="18"/>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="21"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="34"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="23"/>
+      <c r="AD45" s="21"/>
+      <c r="AE45" s="22"/>
+      <c r="AF45" s="22"/>
+      <c r="AG45" s="22"/>
+      <c r="AH45" s="23"/>
+      <c r="AI45" s="21"/>
+      <c r="AJ45" s="22"/>
+      <c r="AK45" s="22"/>
+      <c r="AL45" s="22"/>
+      <c r="AM45" s="22"/>
+      <c r="AN45" s="22"/>
+      <c r="AO45" s="23"/>
+      <c r="AP45" s="21"/>
+      <c r="AQ45" s="22"/>
+      <c r="AR45" s="22"/>
+      <c r="AS45" s="23"/>
+      <c r="AT45" s="21"/>
+      <c r="AU45" s="22"/>
+      <c r="AV45" s="22"/>
+      <c r="AW45" s="22"/>
+      <c r="AX45" s="23"/>
+      <c r="AY45" s="21"/>
+      <c r="AZ45" s="22"/>
+      <c r="BA45" s="22"/>
+      <c r="BB45" s="23"/>
+      <c r="BC45" s="21"/>
+      <c r="BD45" s="22"/>
+      <c r="BE45" s="22"/>
+      <c r="BF45" s="22"/>
+      <c r="BG45" s="22"/>
+      <c r="BH45" s="22"/>
+      <c r="BI45" s="22"/>
+      <c r="BJ45" s="22"/>
+      <c r="BK45" s="23"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="27">
+        <v>18.0</v>
+      </c>
+      <c r="B46" s="18"/>
+      <c r="C46" s="34"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="34"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE46" s="17"/>
+      <c r="AF46" s="17"/>
+      <c r="AG46" s="17"/>
+      <c r="AH46" s="18"/>
+      <c r="AI46" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+      <c r="AL46" s="17"/>
+      <c r="AM46" s="17"/>
+      <c r="AN46" s="17"/>
+      <c r="AO46" s="18"/>
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="17"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="18"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="17"/>
+      <c r="AV46" s="17"/>
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="18"/>
+      <c r="AY46" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ46" s="17"/>
+      <c r="BA46" s="17"/>
+      <c r="BB46" s="18"/>
+      <c r="BC46" s="28"/>
+      <c r="BD46" s="17"/>
+      <c r="BE46" s="17"/>
+      <c r="BF46" s="17"/>
+      <c r="BG46" s="17"/>
+      <c r="BH46" s="17"/>
+      <c r="BI46" s="17"/>
+      <c r="BJ46" s="17"/>
+      <c r="BK46" s="18"/>
+    </row>
+    <row r="47" ht="23.25" customHeight="1">
+      <c r="A47" s="21"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="34"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="34"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="23"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="21"/>
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="23"/>
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22"/>
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="21"/>
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="21"/>
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="23"/>
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="23"/>
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22"/>
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22"/>
+      <c r="BK47" s="23"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="27">
+        <v>19.0</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="34"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="34"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="17"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+      <c r="AL48" s="17"/>
+      <c r="AM48" s="17"/>
+      <c r="AN48" s="17"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="17"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="28"/>
+      <c r="AU48" s="17"/>
+      <c r="AV48" s="17"/>
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="18"/>
+      <c r="AY48" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ48" s="17"/>
+      <c r="BA48" s="17"/>
+      <c r="BB48" s="18"/>
+      <c r="BC48" s="28"/>
+      <c r="BD48" s="17"/>
+      <c r="BE48" s="17"/>
+      <c r="BF48" s="17"/>
+      <c r="BG48" s="17"/>
+      <c r="BH48" s="17"/>
+      <c r="BI48" s="17"/>
+      <c r="BJ48" s="17"/>
+      <c r="BK48" s="18"/>
+    </row>
+    <row r="49" ht="26.25" customHeight="1">
+      <c r="A49" s="21"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="34"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="23"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="23"/>
+      <c r="AD49" s="21"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="23"/>
+      <c r="AI49" s="21"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+      <c r="AL49" s="22"/>
+      <c r="AM49" s="22"/>
+      <c r="AN49" s="22"/>
+      <c r="AO49" s="23"/>
+      <c r="AP49" s="21"/>
+      <c r="AQ49" s="22"/>
+      <c r="AR49" s="22"/>
+      <c r="AS49" s="23"/>
+      <c r="AT49" s="21"/>
+      <c r="AU49" s="22"/>
+      <c r="AV49" s="22"/>
+      <c r="AW49" s="22"/>
+      <c r="AX49" s="23"/>
+      <c r="AY49" s="21"/>
+      <c r="AZ49" s="22"/>
+      <c r="BA49" s="22"/>
+      <c r="BB49" s="23"/>
+      <c r="BC49" s="21"/>
+      <c r="BD49" s="22"/>
+      <c r="BE49" s="22"/>
+      <c r="BF49" s="22"/>
+      <c r="BG49" s="22"/>
+      <c r="BH49" s="22"/>
+      <c r="BI49" s="22"/>
+      <c r="BJ49" s="22"/>
+      <c r="BK49" s="23"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="27">
+        <v>20.0</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="34"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
+      <c r="AG50" s="17"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+      <c r="AL50" s="17"/>
+      <c r="AM50" s="17"/>
+      <c r="AN50" s="17"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="17"/>
+      <c r="AR50" s="17"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="28"/>
+      <c r="AU50" s="17"/>
+      <c r="AV50" s="17"/>
+      <c r="AW50" s="17"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ50" s="17"/>
+      <c r="BA50" s="17"/>
+      <c r="BB50" s="18"/>
+      <c r="BC50" s="28"/>
+      <c r="BD50" s="17"/>
+      <c r="BE50" s="17"/>
+      <c r="BF50" s="17"/>
+      <c r="BG50" s="17"/>
+      <c r="BH50" s="17"/>
+      <c r="BI50" s="17"/>
+      <c r="BJ50" s="17"/>
+      <c r="BK50" s="18"/>
+    </row>
+    <row r="51" ht="24.75" customHeight="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="34"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="34"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="21"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
+      <c r="AG51" s="22"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="22"/>
+      <c r="AK51" s="22"/>
+      <c r="AL51" s="22"/>
+      <c r="AM51" s="22"/>
+      <c r="AN51" s="22"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="21"/>
+      <c r="AQ51" s="22"/>
+      <c r="AR51" s="22"/>
+      <c r="AS51" s="23"/>
+      <c r="AT51" s="21"/>
+      <c r="AU51" s="22"/>
+      <c r="AV51" s="22"/>
+      <c r="AW51" s="22"/>
+      <c r="AX51" s="23"/>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="22"/>
+      <c r="BA51" s="22"/>
+      <c r="BB51" s="23"/>
+      <c r="BC51" s="21"/>
+      <c r="BD51" s="22"/>
+      <c r="BE51" s="22"/>
+      <c r="BF51" s="22"/>
+      <c r="BG51" s="22"/>
+      <c r="BH51" s="22"/>
+      <c r="BI51" s="22"/>
+      <c r="BJ51" s="22"/>
+      <c r="BK51" s="23"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="27">
+        <v>21.0</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="34"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="34"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S52" s="17"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE52" s="17"/>
+      <c r="AF52" s="17"/>
+      <c r="AG52" s="17"/>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+      <c r="AL52" s="17"/>
+      <c r="AM52" s="17"/>
+      <c r="AN52" s="17"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="17"/>
+      <c r="AR52" s="17"/>
+      <c r="AS52" s="18"/>
+      <c r="AT52" s="28"/>
+      <c r="AU52" s="17"/>
+      <c r="AV52" s="17"/>
+      <c r="AW52" s="17"/>
+      <c r="AX52" s="18"/>
+      <c r="AY52" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ52" s="17"/>
+      <c r="BA52" s="17"/>
+      <c r="BB52" s="18"/>
+      <c r="BC52" s="28"/>
+      <c r="BD52" s="17"/>
+      <c r="BE52" s="17"/>
+      <c r="BF52" s="17"/>
+      <c r="BG52" s="17"/>
+      <c r="BH52" s="17"/>
+      <c r="BI52" s="17"/>
+      <c r="BJ52" s="17"/>
+      <c r="BK52" s="18"/>
+    </row>
+    <row r="53" ht="25.5" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="34"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="34"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="22"/>
+      <c r="AF53" s="22"/>
+      <c r="AG53" s="22"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="21"/>
+      <c r="AJ53" s="22"/>
+      <c r="AK53" s="22"/>
+      <c r="AL53" s="22"/>
+      <c r="AM53" s="22"/>
+      <c r="AN53" s="22"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="21"/>
+      <c r="AQ53" s="22"/>
+      <c r="AR53" s="22"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="21"/>
+      <c r="AU53" s="22"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="22"/>
+      <c r="AX53" s="23"/>
+      <c r="AY53" s="21"/>
+      <c r="AZ53" s="22"/>
+      <c r="BA53" s="22"/>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="21"/>
+      <c r="BD53" s="22"/>
+      <c r="BE53" s="22"/>
+      <c r="BF53" s="22"/>
+      <c r="BG53" s="22"/>
+      <c r="BH53" s="22"/>
+      <c r="BI53" s="22"/>
+      <c r="BJ53" s="22"/>
+      <c r="BK53" s="23"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="27">
+        <v>23.0</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="34"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="34"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="S54" s="17"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="17"/>
+      <c r="AA54" s="17"/>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="27">
+        <v>1.87863719E8</v>
+      </c>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+      <c r="AL54" s="17"/>
+      <c r="AM54" s="17"/>
+      <c r="AN54" s="17"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="17"/>
+      <c r="AR54" s="17"/>
+      <c r="AS54" s="18"/>
+      <c r="AT54" s="28"/>
+      <c r="AU54" s="17"/>
+      <c r="AV54" s="17"/>
+      <c r="AW54" s="17"/>
+      <c r="AX54" s="18"/>
+      <c r="AY54" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ54" s="17"/>
+      <c r="BA54" s="17"/>
+      <c r="BB54" s="18"/>
+      <c r="BC54" s="28"/>
+      <c r="BD54" s="17"/>
+      <c r="BE54" s="17"/>
+      <c r="BF54" s="17"/>
+      <c r="BG54" s="17"/>
+      <c r="BH54" s="17"/>
+      <c r="BI54" s="17"/>
+      <c r="BJ54" s="17"/>
+      <c r="BK54" s="18"/>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="34"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="34"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="22"/>
+      <c r="T55" s="22"/>
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="22"/>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="22"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="22"/>
+      <c r="AK55" s="22"/>
+      <c r="AL55" s="22"/>
+      <c r="AM55" s="22"/>
+      <c r="AN55" s="22"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="21"/>
+      <c r="AQ55" s="22"/>
+      <c r="AR55" s="22"/>
+      <c r="AS55" s="23"/>
+      <c r="AT55" s="21"/>
+      <c r="AU55" s="22"/>
+      <c r="AV55" s="22"/>
+      <c r="AW55" s="22"/>
+      <c r="AX55" s="23"/>
+      <c r="AY55" s="21"/>
+      <c r="AZ55" s="22"/>
+      <c r="BA55" s="22"/>
+      <c r="BB55" s="23"/>
+      <c r="BC55" s="21"/>
+      <c r="BD55" s="22"/>
+      <c r="BE55" s="22"/>
+      <c r="BF55" s="22"/>
+      <c r="BG55" s="22"/>
+      <c r="BH55" s="22"/>
+      <c r="BI55" s="22"/>
+      <c r="BJ55" s="22"/>
+      <c r="BK55" s="23"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="27">
+        <v>24.0</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="34"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="34"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="17"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="18"/>
+      <c r="AI56" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="17"/>
+      <c r="AM56" s="17"/>
+      <c r="AN56" s="17"/>
+      <c r="AO56" s="18"/>
+      <c r="AP56" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ56" s="17"/>
+      <c r="AR56" s="17"/>
+      <c r="AS56" s="18"/>
+      <c r="AT56" s="28"/>
+      <c r="AU56" s="17"/>
+      <c r="AV56" s="17"/>
+      <c r="AW56" s="17"/>
+      <c r="AX56" s="18"/>
+      <c r="AY56" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ56" s="17"/>
+      <c r="BA56" s="17"/>
+      <c r="BB56" s="18"/>
+      <c r="BC56" s="28"/>
+      <c r="BD56" s="17"/>
+      <c r="BE56" s="17"/>
+      <c r="BF56" s="17"/>
+      <c r="BG56" s="17"/>
+      <c r="BH56" s="17"/>
+      <c r="BI56" s="17"/>
+      <c r="BJ56" s="17"/>
+      <c r="BK56" s="18"/>
+    </row>
+    <row r="57" ht="26.25" customHeight="1">
+      <c r="A57" s="21"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="34"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="23"/>
+      <c r="X57" s="21"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="23"/>
+      <c r="AD57" s="21"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="23"/>
+      <c r="AI57" s="21"/>
+      <c r="AJ57" s="22"/>
+      <c r="AK57" s="22"/>
+      <c r="AL57" s="22"/>
+      <c r="AM57" s="22"/>
+      <c r="AN57" s="22"/>
+      <c r="AO57" s="23"/>
+      <c r="AP57" s="21"/>
+      <c r="AQ57" s="22"/>
+      <c r="AR57" s="22"/>
+      <c r="AS57" s="23"/>
+      <c r="AT57" s="21"/>
+      <c r="AU57" s="22"/>
+      <c r="AV57" s="22"/>
+      <c r="AW57" s="22"/>
+      <c r="AX57" s="23"/>
+      <c r="AY57" s="21"/>
+      <c r="AZ57" s="22"/>
+      <c r="BA57" s="22"/>
+      <c r="BB57" s="23"/>
+      <c r="BC57" s="21"/>
+      <c r="BD57" s="22"/>
+      <c r="BE57" s="22"/>
+      <c r="BF57" s="22"/>
+      <c r="BG57" s="22"/>
+      <c r="BH57" s="22"/>
+      <c r="BI57" s="22"/>
+      <c r="BJ57" s="22"/>
+      <c r="BK57" s="23"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="27">
+        <v>25.0</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="34"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="34"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
+      <c r="AG58" s="17"/>
+      <c r="AH58" s="18"/>
+      <c r="AI58" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+      <c r="AL58" s="17"/>
+      <c r="AM58" s="17"/>
+      <c r="AN58" s="17"/>
+      <c r="AO58" s="18"/>
+      <c r="AP58" s="28"/>
+      <c r="AQ58" s="17"/>
+      <c r="AR58" s="17"/>
+      <c r="AS58" s="18"/>
+      <c r="AT58" s="28"/>
+      <c r="AU58" s="17"/>
+      <c r="AV58" s="17"/>
+      <c r="AW58" s="17"/>
+      <c r="AX58" s="18"/>
+      <c r="AY58" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ58" s="17"/>
+      <c r="BA58" s="17"/>
+      <c r="BB58" s="18"/>
+      <c r="BC58" s="28"/>
+      <c r="BD58" s="17"/>
+      <c r="BE58" s="17"/>
+      <c r="BF58" s="17"/>
+      <c r="BG58" s="17"/>
+      <c r="BH58" s="17"/>
+      <c r="BI58" s="17"/>
+      <c r="BJ58" s="17"/>
+      <c r="BK58" s="18"/>
+    </row>
+    <row r="59" ht="24.75" customHeight="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="34"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="23"/>
+      <c r="X59" s="21"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="23"/>
+      <c r="AD59" s="21"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="22"/>
+      <c r="AH59" s="23"/>
+      <c r="AI59" s="21"/>
+      <c r="AJ59" s="22"/>
+      <c r="AK59" s="22"/>
+      <c r="AL59" s="22"/>
+      <c r="AM59" s="22"/>
+      <c r="AN59" s="22"/>
+      <c r="AO59" s="23"/>
+      <c r="AP59" s="21"/>
+      <c r="AQ59" s="22"/>
+      <c r="AR59" s="22"/>
+      <c r="AS59" s="23"/>
+      <c r="AT59" s="21"/>
+      <c r="AU59" s="22"/>
+      <c r="AV59" s="22"/>
+      <c r="AW59" s="22"/>
+      <c r="AX59" s="23"/>
+      <c r="AY59" s="21"/>
+      <c r="AZ59" s="22"/>
+      <c r="BA59" s="22"/>
+      <c r="BB59" s="23"/>
+      <c r="BC59" s="21"/>
+      <c r="BD59" s="22"/>
+      <c r="BE59" s="22"/>
+      <c r="BF59" s="22"/>
+      <c r="BG59" s="22"/>
+      <c r="BH59" s="22"/>
+      <c r="BI59" s="22"/>
+      <c r="BJ59" s="22"/>
+      <c r="BK59" s="23"/>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="27">
+        <v>26.0</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="34"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="34"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="S60" s="17"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
+      <c r="V60" s="17"/>
+      <c r="W60" s="18"/>
+      <c r="X60" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17"/>
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
+      <c r="AG60" s="17"/>
+      <c r="AH60" s="18"/>
+      <c r="AI60" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+      <c r="AL60" s="17"/>
+      <c r="AM60" s="17"/>
+      <c r="AN60" s="17"/>
+      <c r="AO60" s="18"/>
+      <c r="AP60" s="50"/>
+      <c r="AQ60" s="17"/>
+      <c r="AR60" s="17"/>
+      <c r="AS60" s="18"/>
+      <c r="AT60" s="28"/>
+      <c r="AU60" s="17"/>
+      <c r="AV60" s="17"/>
+      <c r="AW60" s="17"/>
+      <c r="AX60" s="18"/>
+      <c r="AY60" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ60" s="17"/>
+      <c r="BA60" s="17"/>
+      <c r="BB60" s="18"/>
+      <c r="BC60" s="28"/>
+      <c r="BD60" s="17"/>
+      <c r="BE60" s="17"/>
+      <c r="BF60" s="17"/>
+      <c r="BG60" s="17"/>
+      <c r="BH60" s="17"/>
+      <c r="BI60" s="17"/>
+      <c r="BJ60" s="17"/>
+      <c r="BK60" s="18"/>
+    </row>
+    <row r="61" ht="24.0" customHeight="1">
+      <c r="A61" s="21"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="34"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="34"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="21"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="23"/>
+      <c r="AD61" s="21"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="23"/>
+      <c r="AI61" s="21"/>
+      <c r="AJ61" s="22"/>
+      <c r="AK61" s="22"/>
+      <c r="AL61" s="22"/>
+      <c r="AM61" s="22"/>
+      <c r="AN61" s="22"/>
+      <c r="AO61" s="23"/>
+      <c r="AP61" s="21"/>
+      <c r="AQ61" s="22"/>
+      <c r="AR61" s="22"/>
+      <c r="AS61" s="23"/>
+      <c r="AT61" s="21"/>
+      <c r="AU61" s="22"/>
+      <c r="AV61" s="22"/>
+      <c r="AW61" s="22"/>
+      <c r="AX61" s="23"/>
+      <c r="AY61" s="21"/>
+      <c r="AZ61" s="22"/>
+      <c r="BA61" s="22"/>
+      <c r="BB61" s="23"/>
+      <c r="BC61" s="21"/>
+      <c r="BD61" s="22"/>
+      <c r="BE61" s="22"/>
+      <c r="BF61" s="22"/>
+      <c r="BG61" s="22"/>
+      <c r="BH61" s="22"/>
+      <c r="BI61" s="22"/>
+      <c r="BJ61" s="22"/>
+      <c r="BK61" s="23"/>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="27">
+        <v>27.0</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="34"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="34"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="34"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S62" s="17"/>
+      <c r="T62" s="17"/>
+      <c r="U62" s="17"/>
+      <c r="V62" s="17"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="17"/>
+      <c r="AA62" s="17"/>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="17"/>
+      <c r="AG62" s="17"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
+      <c r="AL62" s="17"/>
+      <c r="AM62" s="17"/>
+      <c r="AN62" s="17"/>
+      <c r="AO62" s="18"/>
+      <c r="AP62" s="28"/>
+      <c r="AQ62" s="17"/>
+      <c r="AR62" s="17"/>
+      <c r="AS62" s="18"/>
+      <c r="AT62" s="28"/>
+      <c r="AU62" s="17"/>
+      <c r="AV62" s="17"/>
+      <c r="AW62" s="17"/>
+      <c r="AX62" s="18"/>
+      <c r="AY62" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ62" s="17"/>
+      <c r="BA62" s="17"/>
+      <c r="BB62" s="18"/>
+      <c r="BC62" s="28"/>
+      <c r="BD62" s="17"/>
+      <c r="BE62" s="17"/>
+      <c r="BF62" s="17"/>
+      <c r="BG62" s="17"/>
+      <c r="BH62" s="17"/>
+      <c r="BI62" s="17"/>
+      <c r="BJ62" s="17"/>
+      <c r="BK62" s="18"/>
+    </row>
+    <row r="63" ht="27.75" customHeight="1">
+      <c r="A63" s="21"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="34"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="34"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="21"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="21"/>
+      <c r="AE63" s="22"/>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="21"/>
+      <c r="AJ63" s="22"/>
+      <c r="AK63" s="22"/>
+      <c r="AL63" s="22"/>
+      <c r="AM63" s="22"/>
+      <c r="AN63" s="22"/>
+      <c r="AO63" s="23"/>
+      <c r="AP63" s="21"/>
+      <c r="AQ63" s="22"/>
+      <c r="AR63" s="22"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="21"/>
+      <c r="AU63" s="22"/>
+      <c r="AV63" s="22"/>
+      <c r="AW63" s="22"/>
+      <c r="AX63" s="23"/>
+      <c r="AY63" s="21"/>
+      <c r="AZ63" s="22"/>
+      <c r="BA63" s="22"/>
+      <c r="BB63" s="23"/>
+      <c r="BC63" s="21"/>
+      <c r="BD63" s="22"/>
+      <c r="BE63" s="22"/>
+      <c r="BF63" s="22"/>
+      <c r="BG63" s="22"/>
+      <c r="BH63" s="22"/>
+      <c r="BI63" s="22"/>
+      <c r="BJ63" s="22"/>
+      <c r="BK63" s="23"/>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="27">
+        <v>28.0</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="34"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="34"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S64" s="17"/>
+      <c r="T64" s="17"/>
+      <c r="U64" s="17"/>
+      <c r="V64" s="17"/>
+      <c r="W64" s="18"/>
+      <c r="X64" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y64" s="17"/>
+      <c r="Z64" s="17"/>
+      <c r="AA64" s="17"/>
+      <c r="AB64" s="17"/>
+      <c r="AC64" s="18"/>
+      <c r="AD64" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE64" s="17"/>
+      <c r="AF64" s="17"/>
+      <c r="AG64" s="17"/>
+      <c r="AH64" s="18"/>
+      <c r="AI64" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+      <c r="AL64" s="17"/>
+      <c r="AM64" s="17"/>
+      <c r="AN64" s="17"/>
+      <c r="AO64" s="18"/>
+      <c r="AP64" s="28"/>
+      <c r="AQ64" s="17"/>
+      <c r="AR64" s="17"/>
+      <c r="AS64" s="18"/>
+      <c r="AT64" s="28"/>
+      <c r="AU64" s="17"/>
+      <c r="AV64" s="17"/>
+      <c r="AW64" s="17"/>
+      <c r="AX64" s="18"/>
+      <c r="AY64" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ64" s="17"/>
+      <c r="BA64" s="17"/>
+      <c r="BB64" s="18"/>
+      <c r="BC64" s="28"/>
+      <c r="BD64" s="17"/>
+      <c r="BE64" s="17"/>
+      <c r="BF64" s="17"/>
+      <c r="BG64" s="17"/>
+      <c r="BH64" s="17"/>
+      <c r="BI64" s="17"/>
+      <c r="BJ64" s="17"/>
+      <c r="BK64" s="18"/>
+    </row>
+    <row r="65" ht="27.75" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="34"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
+      <c r="P65" s="22"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="22"/>
+      <c r="T65" s="22"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="21"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="21"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="21"/>
+      <c r="AJ65" s="22"/>
+      <c r="AK65" s="22"/>
+      <c r="AL65" s="22"/>
+      <c r="AM65" s="22"/>
+      <c r="AN65" s="22"/>
+      <c r="AO65" s="23"/>
+      <c r="AP65" s="21"/>
+      <c r="AQ65" s="22"/>
+      <c r="AR65" s="22"/>
+      <c r="AS65" s="23"/>
+      <c r="AT65" s="21"/>
+      <c r="AU65" s="22"/>
+      <c r="AV65" s="22"/>
+      <c r="AW65" s="22"/>
+      <c r="AX65" s="23"/>
+      <c r="AY65" s="21"/>
+      <c r="AZ65" s="22"/>
+      <c r="BA65" s="22"/>
+      <c r="BB65" s="23"/>
+      <c r="BC65" s="21"/>
+      <c r="BD65" s="22"/>
+      <c r="BE65" s="22"/>
+      <c r="BF65" s="22"/>
+      <c r="BG65" s="22"/>
+      <c r="BH65" s="22"/>
+      <c r="BI65" s="22"/>
+      <c r="BJ65" s="22"/>
+      <c r="BK65" s="23"/>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="27">
+        <v>29.0</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="34"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="34"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S66" s="17"/>
+      <c r="T66" s="17"/>
+      <c r="U66" s="17"/>
+      <c r="V66" s="17"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y66" s="17"/>
+      <c r="Z66" s="17"/>
+      <c r="AA66" s="17"/>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="17"/>
+      <c r="AG66" s="17"/>
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+      <c r="AL66" s="17"/>
+      <c r="AM66" s="17"/>
+      <c r="AN66" s="17"/>
+      <c r="AO66" s="18"/>
+      <c r="AP66" s="50"/>
+      <c r="AQ66" s="17"/>
+      <c r="AR66" s="17"/>
+      <c r="AS66" s="18"/>
+      <c r="AT66" s="50"/>
+      <c r="AU66" s="17"/>
+      <c r="AV66" s="17"/>
+      <c r="AW66" s="17"/>
+      <c r="AX66" s="18"/>
+      <c r="AY66" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ66" s="17"/>
+      <c r="BA66" s="17"/>
+      <c r="BB66" s="18"/>
+      <c r="BC66" s="51"/>
+      <c r="BD66" s="17"/>
+      <c r="BE66" s="17"/>
+      <c r="BF66" s="17"/>
+      <c r="BG66" s="17"/>
+      <c r="BH66" s="17"/>
+      <c r="BI66" s="17"/>
+      <c r="BJ66" s="17"/>
+      <c r="BK66" s="18"/>
+    </row>
+    <row r="67" ht="27.75" customHeight="1">
+      <c r="A67" s="21"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="34"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="34"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="34"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="22"/>
+      <c r="T67" s="22"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="21"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="21"/>
+      <c r="AE67" s="22"/>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="23"/>
+      <c r="AI67" s="21"/>
+      <c r="AJ67" s="22"/>
+      <c r="AK67" s="22"/>
+      <c r="AL67" s="22"/>
+      <c r="AM67" s="22"/>
+      <c r="AN67" s="22"/>
+      <c r="AO67" s="23"/>
+      <c r="AP67" s="21"/>
+      <c r="AQ67" s="22"/>
+      <c r="AR67" s="22"/>
+      <c r="AS67" s="23"/>
+      <c r="AT67" s="21"/>
+      <c r="AU67" s="22"/>
+      <c r="AV67" s="22"/>
+      <c r="AW67" s="22"/>
+      <c r="AX67" s="23"/>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="23"/>
+      <c r="BC67" s="21"/>
+      <c r="BD67" s="22"/>
+      <c r="BE67" s="22"/>
+      <c r="BF67" s="22"/>
+      <c r="BG67" s="22"/>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="22"/>
+      <c r="BJ67" s="22"/>
+      <c r="BK67" s="23"/>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="27">
+        <v>30.0</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="34"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="34"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="34"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S68" s="17"/>
+      <c r="T68" s="17"/>
+      <c r="U68" s="17"/>
+      <c r="V68" s="17"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y68" s="17"/>
+      <c r="Z68" s="17"/>
+      <c r="AA68" s="17"/>
+      <c r="AB68" s="17"/>
+      <c r="AC68" s="18"/>
+      <c r="AD68" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE68" s="17"/>
+      <c r="AF68" s="17"/>
+      <c r="AG68" s="17"/>
+      <c r="AH68" s="18"/>
+      <c r="AI68" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+      <c r="AL68" s="17"/>
+      <c r="AM68" s="17"/>
+      <c r="AN68" s="17"/>
+      <c r="AO68" s="18"/>
+      <c r="AP68" s="50"/>
+      <c r="AQ68" s="17"/>
+      <c r="AR68" s="17"/>
+      <c r="AS68" s="18"/>
+      <c r="AT68" s="50"/>
+      <c r="AU68" s="17"/>
+      <c r="AV68" s="17"/>
+      <c r="AW68" s="17"/>
+      <c r="AX68" s="18"/>
+      <c r="AY68" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ68" s="17"/>
+      <c r="BA68" s="17"/>
+      <c r="BB68" s="18"/>
+      <c r="BC68" s="28"/>
+      <c r="BD68" s="17"/>
+      <c r="BE68" s="17"/>
+      <c r="BF68" s="17"/>
+      <c r="BG68" s="17"/>
+      <c r="BH68" s="17"/>
+      <c r="BI68" s="17"/>
+      <c r="BJ68" s="17"/>
+      <c r="BK68" s="18"/>
+    </row>
+    <row r="69" ht="27.75" customHeight="1">
+      <c r="A69" s="21"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="23"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="22"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="21"/>
+      <c r="AQ69" s="22"/>
+      <c r="AR69" s="22"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="21"/>
+      <c r="AU69" s="22"/>
+      <c r="AV69" s="22"/>
+      <c r="AW69" s="22"/>
+      <c r="AX69" s="23"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="22"/>
+      <c r="BA69" s="22"/>
+      <c r="BB69" s="23"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="22"/>
+      <c r="BE69" s="22"/>
+      <c r="BF69" s="22"/>
+      <c r="BG69" s="22"/>
+      <c r="BH69" s="22"/>
+      <c r="BI69" s="22"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="23"/>
+    </row>
     <row r="70" ht="15.75" customHeight="1"/>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1"/>
@@ -2961,131 +7400,402 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="100">
-    <mergeCell ref="AY11:BB12"/>
-    <mergeCell ref="BC11:BK12"/>
+  <mergeCells count="350">
+    <mergeCell ref="AT40:AX41"/>
+    <mergeCell ref="AY40:BB41"/>
+    <mergeCell ref="AT42:AX43"/>
+    <mergeCell ref="AY42:BB43"/>
+    <mergeCell ref="BC42:BK43"/>
+    <mergeCell ref="BC44:BK45"/>
+    <mergeCell ref="AI40:AO41"/>
+    <mergeCell ref="AI42:AO43"/>
+    <mergeCell ref="AP42:AS43"/>
+    <mergeCell ref="AI44:AO45"/>
+    <mergeCell ref="AP44:AS45"/>
+    <mergeCell ref="AT44:AX45"/>
+    <mergeCell ref="AY44:BB45"/>
+    <mergeCell ref="AI28:AO29"/>
+    <mergeCell ref="AP28:AS29"/>
+    <mergeCell ref="AT28:AX29"/>
+    <mergeCell ref="AY28:BB29"/>
+    <mergeCell ref="BC28:BK29"/>
+    <mergeCell ref="AI20:AO21"/>
+    <mergeCell ref="AP20:AS21"/>
+    <mergeCell ref="AI22:AO23"/>
+    <mergeCell ref="AP22:AS23"/>
+    <mergeCell ref="AI24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="AI26:AO27"/>
+    <mergeCell ref="AT32:AX33"/>
+    <mergeCell ref="AY32:BB33"/>
+    <mergeCell ref="AT34:AX35"/>
+    <mergeCell ref="AY34:BB35"/>
+    <mergeCell ref="BC34:BK35"/>
+    <mergeCell ref="BC36:BK37"/>
+    <mergeCell ref="AI30:AO31"/>
+    <mergeCell ref="AP30:AS31"/>
+    <mergeCell ref="AT30:AX31"/>
+    <mergeCell ref="AY30:BB31"/>
+    <mergeCell ref="BC30:BK31"/>
+    <mergeCell ref="AP32:AS33"/>
+    <mergeCell ref="BC32:BK33"/>
+    <mergeCell ref="AI32:AO33"/>
+    <mergeCell ref="AI34:AO35"/>
+    <mergeCell ref="AP34:AS35"/>
+    <mergeCell ref="AI36:AO37"/>
+    <mergeCell ref="AP36:AS37"/>
+    <mergeCell ref="AT36:AX37"/>
+    <mergeCell ref="AY36:BB37"/>
+    <mergeCell ref="AI38:AO39"/>
+    <mergeCell ref="AP38:AS39"/>
+    <mergeCell ref="AT38:AX39"/>
+    <mergeCell ref="AY38:BB39"/>
+    <mergeCell ref="BC38:BK39"/>
+    <mergeCell ref="AP40:AS41"/>
+    <mergeCell ref="BC40:BK41"/>
+    <mergeCell ref="AI46:AO47"/>
+    <mergeCell ref="AP46:AS47"/>
+    <mergeCell ref="AT46:AX47"/>
+    <mergeCell ref="AY46:BB47"/>
+    <mergeCell ref="BC46:BK47"/>
+    <mergeCell ref="AI60:AO61"/>
+    <mergeCell ref="AP60:AS61"/>
+    <mergeCell ref="AD58:AH59"/>
+    <mergeCell ref="AI58:AO59"/>
+    <mergeCell ref="AP58:AS59"/>
+    <mergeCell ref="AT58:AX59"/>
+    <mergeCell ref="AY58:BB59"/>
+    <mergeCell ref="BC58:BK59"/>
+    <mergeCell ref="AD60:AH61"/>
+    <mergeCell ref="BC60:BK61"/>
+    <mergeCell ref="AI50:AO51"/>
+    <mergeCell ref="AP50:AS51"/>
+    <mergeCell ref="AT50:AX51"/>
+    <mergeCell ref="AY50:BB51"/>
+    <mergeCell ref="BC50:BK51"/>
+    <mergeCell ref="AD46:AH47"/>
+    <mergeCell ref="AD48:AH49"/>
+    <mergeCell ref="AI48:AO49"/>
+    <mergeCell ref="AP48:AS49"/>
+    <mergeCell ref="AT48:AX49"/>
+    <mergeCell ref="AY48:BB49"/>
+    <mergeCell ref="BC48:BK49"/>
+    <mergeCell ref="AI54:AO55"/>
+    <mergeCell ref="AP54:AS55"/>
+    <mergeCell ref="AT54:AX55"/>
+    <mergeCell ref="AY54:BB55"/>
+    <mergeCell ref="BC54:BK55"/>
+    <mergeCell ref="AD50:AH51"/>
+    <mergeCell ref="AD52:AH53"/>
+    <mergeCell ref="AI52:AO53"/>
+    <mergeCell ref="AP52:AS53"/>
+    <mergeCell ref="AT52:AX53"/>
+    <mergeCell ref="AY52:BB53"/>
+    <mergeCell ref="BC52:BK53"/>
+    <mergeCell ref="AD32:AH33"/>
+    <mergeCell ref="AD34:AH35"/>
+    <mergeCell ref="AD36:AH37"/>
+    <mergeCell ref="AD38:AH39"/>
+    <mergeCell ref="AD40:AH41"/>
+    <mergeCell ref="AD42:AH43"/>
+    <mergeCell ref="AD44:AH45"/>
+    <mergeCell ref="AD54:AH55"/>
+    <mergeCell ref="AD56:AH57"/>
+    <mergeCell ref="AI56:AO57"/>
+    <mergeCell ref="AP56:AS57"/>
+    <mergeCell ref="AT56:AX57"/>
+    <mergeCell ref="AY56:BB57"/>
+    <mergeCell ref="BC56:BK57"/>
+    <mergeCell ref="AT60:AX61"/>
+    <mergeCell ref="AY60:BB61"/>
+    <mergeCell ref="X64:AC65"/>
+    <mergeCell ref="AD64:AH65"/>
+    <mergeCell ref="X52:AC53"/>
+    <mergeCell ref="X54:AC55"/>
+    <mergeCell ref="X56:AC57"/>
+    <mergeCell ref="X58:AC59"/>
+    <mergeCell ref="X60:AC61"/>
+    <mergeCell ref="X62:AC63"/>
+    <mergeCell ref="AD62:AH63"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="R16:W17"/>
+    <mergeCell ref="X16:AC17"/>
+    <mergeCell ref="R18:W19"/>
+    <mergeCell ref="X18:AC19"/>
+    <mergeCell ref="X20:AC21"/>
+    <mergeCell ref="X22:AC23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="X26:AC27"/>
+    <mergeCell ref="R28:W29"/>
+    <mergeCell ref="X28:AC29"/>
+    <mergeCell ref="R30:W31"/>
+    <mergeCell ref="X30:AC31"/>
+    <mergeCell ref="R32:W33"/>
+    <mergeCell ref="X32:AC33"/>
+    <mergeCell ref="R34:W35"/>
+    <mergeCell ref="X34:AC35"/>
+    <mergeCell ref="X36:AC37"/>
+    <mergeCell ref="R50:W51"/>
+    <mergeCell ref="R52:W53"/>
+    <mergeCell ref="R54:W55"/>
+    <mergeCell ref="R56:W57"/>
+    <mergeCell ref="R58:W59"/>
+    <mergeCell ref="R60:W61"/>
+    <mergeCell ref="R62:W63"/>
+    <mergeCell ref="R64:W65"/>
+    <mergeCell ref="R36:W37"/>
+    <mergeCell ref="R38:W39"/>
+    <mergeCell ref="R40:W41"/>
+    <mergeCell ref="R42:W43"/>
+    <mergeCell ref="R44:W45"/>
+    <mergeCell ref="R46:W47"/>
+    <mergeCell ref="R48:W49"/>
+    <mergeCell ref="X38:AC39"/>
+    <mergeCell ref="X40:AC41"/>
+    <mergeCell ref="X42:AC43"/>
+    <mergeCell ref="X44:AC45"/>
+    <mergeCell ref="X46:AC47"/>
+    <mergeCell ref="X48:AC49"/>
+    <mergeCell ref="X50:AC51"/>
+    <mergeCell ref="AT64:AX65"/>
+    <mergeCell ref="AY64:BB65"/>
+    <mergeCell ref="AI62:AO63"/>
+    <mergeCell ref="AP62:AS63"/>
+    <mergeCell ref="AT62:AX63"/>
+    <mergeCell ref="AY62:BB63"/>
+    <mergeCell ref="BC62:BK63"/>
+    <mergeCell ref="AI64:AO65"/>
+    <mergeCell ref="AP64:AS65"/>
+    <mergeCell ref="BC64:BK65"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AD9:AH10"/>
+    <mergeCell ref="AI9:AO10"/>
+    <mergeCell ref="AP9:AS10"/>
     <mergeCell ref="AT9:AX10"/>
     <mergeCell ref="AY9:BB10"/>
     <mergeCell ref="BC9:BK10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:E10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="BC11:BK12"/>
+    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="R11:W12"/>
+    <mergeCell ref="X11:AC12"/>
     <mergeCell ref="AD11:AH12"/>
     <mergeCell ref="AI11:AO12"/>
+    <mergeCell ref="AP11:AS12"/>
     <mergeCell ref="AT11:AX12"/>
-    <mergeCell ref="X14:AC15"/>
+    <mergeCell ref="AY11:BB12"/>
+    <mergeCell ref="L14:Q15"/>
+    <mergeCell ref="R14:W15"/>
     <mergeCell ref="AD14:AH15"/>
     <mergeCell ref="AI14:AO15"/>
     <mergeCell ref="AP14:AS15"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="D5:V5"/>
-    <mergeCell ref="AD9:AH10"/>
-    <mergeCell ref="AI9:AO10"/>
-    <mergeCell ref="AP9:AS10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="AP11:AS12"/>
-    <mergeCell ref="L18:Q19"/>
-    <mergeCell ref="R18:W19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C14:E21"/>
-    <mergeCell ref="F14:I21"/>
-    <mergeCell ref="J14:K21"/>
-    <mergeCell ref="L20:Q21"/>
-    <mergeCell ref="R20:W21"/>
-    <mergeCell ref="X18:AC19"/>
-    <mergeCell ref="AD18:AH19"/>
-    <mergeCell ref="AI18:AO19"/>
-    <mergeCell ref="AP18:AS19"/>
-    <mergeCell ref="AT18:AX19"/>
-    <mergeCell ref="AY18:BB19"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="L11:Q12"/>
-    <mergeCell ref="R11:W12"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:E10"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="L9:Q10"/>
+    <mergeCell ref="AT14:AX15"/>
+    <mergeCell ref="AY14:BB15"/>
+    <mergeCell ref="BC14:BK15"/>
     <mergeCell ref="R9:W10"/>
     <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="X11:AC12"/>
-    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="F11:I12"/>
     <mergeCell ref="J11:K12"/>
-    <mergeCell ref="R14:W15"/>
-    <mergeCell ref="AY14:BB15"/>
-    <mergeCell ref="BC18:BK19"/>
-    <mergeCell ref="AT14:AX15"/>
-    <mergeCell ref="BC14:BK15"/>
-    <mergeCell ref="L14:Q15"/>
-    <mergeCell ref="L16:Q17"/>
-    <mergeCell ref="R16:W17"/>
-    <mergeCell ref="X16:AC17"/>
+    <mergeCell ref="L11:Q12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="X14:AC15"/>
     <mergeCell ref="AD16:AH17"/>
     <mergeCell ref="AI16:AO17"/>
     <mergeCell ref="AP16:AS17"/>
     <mergeCell ref="AT16:AX17"/>
     <mergeCell ref="AY16:BB17"/>
     <mergeCell ref="BC16:BK17"/>
+    <mergeCell ref="AD18:AH19"/>
+    <mergeCell ref="AI18:AO19"/>
+    <mergeCell ref="AP18:AS19"/>
+    <mergeCell ref="AT18:AX19"/>
+    <mergeCell ref="AY18:BB19"/>
+    <mergeCell ref="BC18:BK19"/>
+    <mergeCell ref="AD20:AH21"/>
+    <mergeCell ref="BC20:BK21"/>
+    <mergeCell ref="BC24:BK24"/>
+    <mergeCell ref="L25:BK25"/>
+    <mergeCell ref="AT20:AX21"/>
+    <mergeCell ref="AY20:BB21"/>
+    <mergeCell ref="AT22:AX23"/>
+    <mergeCell ref="AY22:BB23"/>
+    <mergeCell ref="BC22:BK23"/>
+    <mergeCell ref="AT24:AX24"/>
+    <mergeCell ref="AY24:BB24"/>
+    <mergeCell ref="AP26:AS27"/>
+    <mergeCell ref="AT26:AX27"/>
+    <mergeCell ref="AY26:BB27"/>
+    <mergeCell ref="BC26:BK27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="D5:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="R20:W21"/>
+    <mergeCell ref="R22:W23"/>
+    <mergeCell ref="AD22:AH23"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD26:AH27"/>
+    <mergeCell ref="AD28:AH29"/>
+    <mergeCell ref="AD30:AH31"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="L22:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L28:Q29"/>
+    <mergeCell ref="L30:Q31"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="L32:Q33"/>
+    <mergeCell ref="L34:Q35"/>
+    <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="L38:Q39"/>
+    <mergeCell ref="L40:Q41"/>
+    <mergeCell ref="L42:Q43"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="AT66:AX67"/>
+    <mergeCell ref="AY66:BB67"/>
+    <mergeCell ref="BC66:BK67"/>
+    <mergeCell ref="R68:W69"/>
+    <mergeCell ref="X68:AC69"/>
+    <mergeCell ref="AD68:AH69"/>
+    <mergeCell ref="AI68:AO69"/>
+    <mergeCell ref="AP68:AS69"/>
+    <mergeCell ref="AT68:AX69"/>
+    <mergeCell ref="AY68:BB69"/>
+    <mergeCell ref="BC68:BK69"/>
+    <mergeCell ref="L64:Q65"/>
+    <mergeCell ref="L66:Q67"/>
+    <mergeCell ref="R66:W67"/>
+    <mergeCell ref="X66:AC67"/>
+    <mergeCell ref="AD66:AH67"/>
+    <mergeCell ref="AI66:AO67"/>
+    <mergeCell ref="AP66:AS67"/>
+    <mergeCell ref="L20:Q21"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="L44:Q45"/>
+    <mergeCell ref="L46:Q47"/>
+    <mergeCell ref="L48:Q49"/>
+    <mergeCell ref="L50:Q51"/>
+    <mergeCell ref="L52:Q53"/>
+    <mergeCell ref="L54:Q55"/>
+    <mergeCell ref="L56:Q57"/>
+    <mergeCell ref="L58:Q59"/>
+    <mergeCell ref="L60:Q61"/>
+    <mergeCell ref="L62:Q63"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F14:I24"/>
+    <mergeCell ref="L16:Q17"/>
+    <mergeCell ref="L18:Q19"/>
+    <mergeCell ref="C14:E69"/>
+    <mergeCell ref="F26:I69"/>
+    <mergeCell ref="J14:K69"/>
+    <mergeCell ref="L68:Q69"/>
   </mergeCells>
-  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18">
+  <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Out Of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>"Passed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"Failed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+      <formula>"Not Executed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>"Out Of Scope"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18 AY20 AY22 AY24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
       <formula1>"Passed,Failed,Not Executed,Out Of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3094,11 +7804,43 @@
     <hyperlink r:id="rId2" ref="AI14"/>
     <hyperlink r:id="rId3" ref="AI16"/>
     <hyperlink r:id="rId4" ref="AI18"/>
+    <hyperlink r:id="rId5" ref="AI20"/>
+    <hyperlink r:id="rId6" ref="AI22"/>
+    <hyperlink r:id="rId7" ref="AI24"/>
+    <hyperlink r:id="rId8" ref="AP24"/>
+    <hyperlink r:id="rId9" ref="AI26"/>
+    <hyperlink r:id="rId10" ref="AI28"/>
+    <hyperlink r:id="rId11" ref="AI30"/>
+    <hyperlink r:id="rId12" ref="AP30"/>
+    <hyperlink r:id="rId13" ref="AI32"/>
+    <hyperlink r:id="rId14" ref="AI34"/>
+    <hyperlink r:id="rId15" ref="AP34"/>
+    <hyperlink r:id="rId16" ref="AI36"/>
+    <hyperlink r:id="rId17" ref="AP36"/>
+    <hyperlink r:id="rId18" ref="AI38"/>
+    <hyperlink r:id="rId19" ref="AP38"/>
+    <hyperlink r:id="rId20" ref="AI40"/>
+    <hyperlink r:id="rId21" ref="AP40"/>
+    <hyperlink r:id="rId22" ref="AI42"/>
+    <hyperlink r:id="rId23" ref="AI44"/>
+    <hyperlink r:id="rId24" ref="AI46"/>
+    <hyperlink r:id="rId25" ref="AI48"/>
+    <hyperlink r:id="rId26" ref="AI50"/>
+    <hyperlink r:id="rId27" ref="AI52"/>
+    <hyperlink r:id="rId28" ref="AI54"/>
+    <hyperlink r:id="rId29" ref="AI56"/>
+    <hyperlink r:id="rId30" ref="AP56"/>
+    <hyperlink r:id="rId31" ref="AI58"/>
+    <hyperlink r:id="rId32" ref="AI60"/>
+    <hyperlink r:id="rId33" ref="AI62"/>
+    <hyperlink r:id="rId34" ref="AI64"/>
+    <hyperlink r:id="rId35" ref="AI66"/>
+    <hyperlink r:id="rId36" ref="AI68"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/FabriLife_Test-Case-Report.xlsx
+++ b/FabriLife_Test-Case-Report.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="182">
   <si>
     <t>Product Name</t>
   </si>
@@ -1232,6 +1232,126 @@
 4. Fill rest of the fields with proper value
 5.Click on the "Register" button</t>
     </r>
+  </si>
+  <si>
+    <t>Usability Testing</t>
+  </si>
+  <si>
+    <t>Checking Copy &amp; Paste functionality in every input fields</t>
+  </si>
+  <si>
+    <t>Should be worked copy &amp; paste for fields</t>
+  </si>
+  <si>
+    <t>Copy &amp; Paste functionality work for every field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Copy &amp; Paste texts from every fields</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking keyboard "Tab" button functionality</t>
+  </si>
+  <si>
+    <t>Should be switched to another field and highlight the input field</t>
+  </si>
+  <si>
+    <t>Tab button functionality found as per expectation</t>
+  </si>
+  <si>
+    <t>Enter the "Tab" button in every field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Entering "Tab" button in every input field</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking keyboard "Enter" button functionality</t>
+  </si>
+  <si>
+    <t>Should be switched to another field</t>
+  </si>
+  <si>
+    <t>Enter button functionality not found as per expectation</t>
+  </si>
+  <si>
+    <t>Input the "Enter" button in every field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Entering the "Enter" button in every field</t>
+    </r>
+  </si>
+  <si>
+    <t>"Enter" button didn't work</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2630,7 @@
       <c r="BJ12" s="22"/>
       <c r="BK12" s="23"/>
     </row>
-    <row r="13" ht="7.5" customHeight="1">
+    <row r="13" ht="6.75" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -3360,9 +3480,9 @@
       <c r="C25" s="34"/>
       <c r="E25" s="35"/>
       <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="34"/>
       <c r="K25" s="35"/>
       <c r="L25" s="43"/>
@@ -6411,15 +6531,14 @@
     <row r="69" ht="27.75" customHeight="1">
       <c r="A69" s="21"/>
       <c r="B69" s="23"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="23"/>
+      <c r="C69" s="34"/>
+      <c r="E69" s="35"/>
       <c r="F69" s="21"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="23"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="23"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="35"/>
       <c r="L69" s="21"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
@@ -6473,13 +6592,493 @@
       <c r="BJ69" s="22"/>
       <c r="BK69" s="23"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="70" ht="8.25" customHeight="1">
+      <c r="A70" s="32"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="34"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AK70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AM70" s="2"/>
+      <c r="AN70" s="2"/>
+      <c r="AO70" s="2"/>
+      <c r="AP70" s="2"/>
+      <c r="AQ70" s="2"/>
+      <c r="AR70" s="2"/>
+      <c r="AS70" s="2"/>
+      <c r="AT70" s="2"/>
+      <c r="AU70" s="2"/>
+      <c r="AV70" s="2"/>
+      <c r="AW70" s="2"/>
+      <c r="AX70" s="2"/>
+      <c r="AY70" s="2"/>
+      <c r="AZ70" s="2"/>
+      <c r="BA70" s="2"/>
+      <c r="BB70" s="2"/>
+      <c r="BC70" s="2"/>
+      <c r="BD70" s="2"/>
+      <c r="BE70" s="2"/>
+      <c r="BF70" s="2"/>
+      <c r="BG70" s="2"/>
+      <c r="BH70" s="2"/>
+      <c r="BI70" s="2"/>
+      <c r="BJ70" s="2"/>
+      <c r="BK70" s="2"/>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="27">
+        <v>31.0</v>
+      </c>
+      <c r="B71" s="18"/>
+      <c r="C71" s="34"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="S71" s="17"/>
+      <c r="T71" s="17"/>
+      <c r="U71" s="17"/>
+      <c r="V71" s="17"/>
+      <c r="W71" s="18"/>
+      <c r="X71" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y71" s="17"/>
+      <c r="Z71" s="17"/>
+      <c r="AA71" s="17"/>
+      <c r="AB71" s="17"/>
+      <c r="AC71" s="18"/>
+      <c r="AD71" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE71" s="17"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="17"/>
+      <c r="AH71" s="18"/>
+      <c r="AI71" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+      <c r="AL71" s="17"/>
+      <c r="AM71" s="17"/>
+      <c r="AN71" s="17"/>
+      <c r="AO71" s="18"/>
+      <c r="AP71" s="50"/>
+      <c r="AQ71" s="17"/>
+      <c r="AR71" s="17"/>
+      <c r="AS71" s="18"/>
+      <c r="AT71" s="50"/>
+      <c r="AU71" s="17"/>
+      <c r="AV71" s="17"/>
+      <c r="AW71" s="17"/>
+      <c r="AX71" s="18"/>
+      <c r="AY71" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ71" s="17"/>
+      <c r="BA71" s="17"/>
+      <c r="BB71" s="18"/>
+      <c r="BC71" s="51"/>
+      <c r="BD71" s="17"/>
+      <c r="BE71" s="17"/>
+      <c r="BF71" s="17"/>
+      <c r="BG71" s="17"/>
+      <c r="BH71" s="17"/>
+      <c r="BI71" s="17"/>
+      <c r="BJ71" s="17"/>
+      <c r="BK71" s="18"/>
+    </row>
+    <row r="72" ht="27.0" customHeight="1">
+      <c r="A72" s="21"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="34"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="34"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="21"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="21"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="23"/>
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="22"/>
+      <c r="AK72" s="22"/>
+      <c r="AL72" s="22"/>
+      <c r="AM72" s="22"/>
+      <c r="AN72" s="22"/>
+      <c r="AO72" s="23"/>
+      <c r="AP72" s="21"/>
+      <c r="AQ72" s="22"/>
+      <c r="AR72" s="22"/>
+      <c r="AS72" s="23"/>
+      <c r="AT72" s="21"/>
+      <c r="AU72" s="22"/>
+      <c r="AV72" s="22"/>
+      <c r="AW72" s="22"/>
+      <c r="AX72" s="23"/>
+      <c r="AY72" s="21"/>
+      <c r="AZ72" s="22"/>
+      <c r="BA72" s="22"/>
+      <c r="BB72" s="23"/>
+      <c r="BC72" s="21"/>
+      <c r="BD72" s="22"/>
+      <c r="BE72" s="22"/>
+      <c r="BF72" s="22"/>
+      <c r="BG72" s="22"/>
+      <c r="BH72" s="22"/>
+      <c r="BI72" s="22"/>
+      <c r="BJ72" s="22"/>
+      <c r="BK72" s="23"/>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="27">
+        <v>32.0</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="34"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="34"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="S73" s="17"/>
+      <c r="T73" s="17"/>
+      <c r="U73" s="17"/>
+      <c r="V73" s="17"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y73" s="17"/>
+      <c r="Z73" s="17"/>
+      <c r="AA73" s="17"/>
+      <c r="AB73" s="17"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE73" s="17"/>
+      <c r="AF73" s="17"/>
+      <c r="AG73" s="17"/>
+      <c r="AH73" s="18"/>
+      <c r="AI73" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+      <c r="AL73" s="17"/>
+      <c r="AM73" s="17"/>
+      <c r="AN73" s="17"/>
+      <c r="AO73" s="18"/>
+      <c r="AP73" s="28"/>
+      <c r="AQ73" s="17"/>
+      <c r="AR73" s="17"/>
+      <c r="AS73" s="18"/>
+      <c r="AT73" s="28"/>
+      <c r="AU73" s="17"/>
+      <c r="AV73" s="17"/>
+      <c r="AW73" s="17"/>
+      <c r="AX73" s="18"/>
+      <c r="AY73" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ73" s="17"/>
+      <c r="BA73" s="17"/>
+      <c r="BB73" s="18"/>
+      <c r="BC73" s="28"/>
+      <c r="BD73" s="17"/>
+      <c r="BE73" s="17"/>
+      <c r="BF73" s="17"/>
+      <c r="BG73" s="17"/>
+      <c r="BH73" s="17"/>
+      <c r="BI73" s="17"/>
+      <c r="BJ73" s="17"/>
+      <c r="BK73" s="18"/>
+    </row>
+    <row r="74" ht="26.25" customHeight="1">
+      <c r="A74" s="21"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="34"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="34"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="23"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="23"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="22"/>
+      <c r="AH74" s="23"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="22"/>
+      <c r="AL74" s="22"/>
+      <c r="AM74" s="22"/>
+      <c r="AN74" s="22"/>
+      <c r="AO74" s="23"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="22"/>
+      <c r="AR74" s="22"/>
+      <c r="AS74" s="23"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="22"/>
+      <c r="AV74" s="22"/>
+      <c r="AW74" s="22"/>
+      <c r="AX74" s="23"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="22"/>
+      <c r="BA74" s="22"/>
+      <c r="BB74" s="23"/>
+      <c r="BC74" s="21"/>
+      <c r="BD74" s="22"/>
+      <c r="BE74" s="22"/>
+      <c r="BF74" s="22"/>
+      <c r="BG74" s="22"/>
+      <c r="BH74" s="22"/>
+      <c r="BI74" s="22"/>
+      <c r="BJ74" s="22"/>
+      <c r="BK74" s="23"/>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="29">
+        <v>33.0</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="34"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="34"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="V75" s="17"/>
+      <c r="W75" s="18"/>
+      <c r="X75" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="18"/>
+      <c r="AD75" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
+      <c r="AG75" s="17"/>
+      <c r="AH75" s="18"/>
+      <c r="AI75" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+      <c r="AL75" s="17"/>
+      <c r="AM75" s="17"/>
+      <c r="AN75" s="17"/>
+      <c r="AO75" s="18"/>
+      <c r="AP75" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ75" s="17"/>
+      <c r="AR75" s="17"/>
+      <c r="AS75" s="18"/>
+      <c r="AT75" s="28"/>
+      <c r="AU75" s="17"/>
+      <c r="AV75" s="17"/>
+      <c r="AW75" s="17"/>
+      <c r="AX75" s="18"/>
+      <c r="AY75" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ75" s="17"/>
+      <c r="BA75" s="17"/>
+      <c r="BB75" s="18"/>
+      <c r="BC75" s="28"/>
+      <c r="BD75" s="17"/>
+      <c r="BE75" s="17"/>
+      <c r="BF75" s="17"/>
+      <c r="BG75" s="17"/>
+      <c r="BH75" s="17"/>
+      <c r="BI75" s="17"/>
+      <c r="BJ75" s="17"/>
+      <c r="BK75" s="18"/>
+    </row>
+    <row r="76" ht="23.25" customHeight="1">
+      <c r="A76" s="21"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="23"/>
+      <c r="X76" s="21"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="23"/>
+      <c r="AD76" s="21"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="22"/>
+      <c r="AG76" s="22"/>
+      <c r="AH76" s="23"/>
+      <c r="AI76" s="21"/>
+      <c r="AJ76" s="22"/>
+      <c r="AK76" s="22"/>
+      <c r="AL76" s="22"/>
+      <c r="AM76" s="22"/>
+      <c r="AN76" s="22"/>
+      <c r="AO76" s="23"/>
+      <c r="AP76" s="21"/>
+      <c r="AQ76" s="22"/>
+      <c r="AR76" s="22"/>
+      <c r="AS76" s="23"/>
+      <c r="AT76" s="21"/>
+      <c r="AU76" s="22"/>
+      <c r="AV76" s="22"/>
+      <c r="AW76" s="22"/>
+      <c r="AX76" s="23"/>
+      <c r="AY76" s="21"/>
+      <c r="AZ76" s="22"/>
+      <c r="BA76" s="22"/>
+      <c r="BB76" s="23"/>
+      <c r="BC76" s="21"/>
+      <c r="BD76" s="22"/>
+      <c r="BE76" s="22"/>
+      <c r="BF76" s="22"/>
+      <c r="BG76" s="22"/>
+      <c r="BH76" s="22"/>
+      <c r="BI76" s="22"/>
+      <c r="BJ76" s="22"/>
+      <c r="BK76" s="23"/>
+    </row>
     <row r="77" ht="15.75" customHeight="1"/>
     <row r="78" ht="15.75" customHeight="1"/>
     <row r="79" ht="15.75" customHeight="1"/>
@@ -7402,176 +8001,265 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="350">
-    <mergeCell ref="AT40:AX41"/>
-    <mergeCell ref="AY40:BB41"/>
-    <mergeCell ref="AT42:AX43"/>
-    <mergeCell ref="AY42:BB43"/>
-    <mergeCell ref="BC42:BK43"/>
-    <mergeCell ref="BC44:BK45"/>
-    <mergeCell ref="AI40:AO41"/>
-    <mergeCell ref="AI42:AO43"/>
-    <mergeCell ref="AP42:AS43"/>
-    <mergeCell ref="AI44:AO45"/>
-    <mergeCell ref="AP44:AS45"/>
-    <mergeCell ref="AT44:AX45"/>
-    <mergeCell ref="AY44:BB45"/>
+  <mergeCells count="385">
+    <mergeCell ref="X20:AC21"/>
+    <mergeCell ref="AD20:AH21"/>
+    <mergeCell ref="X22:AC23"/>
+    <mergeCell ref="AD22:AH23"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="AD24:AH24"/>
+    <mergeCell ref="AD26:AH27"/>
+    <mergeCell ref="X26:AC27"/>
+    <mergeCell ref="X28:AC29"/>
+    <mergeCell ref="AD28:AH29"/>
+    <mergeCell ref="X30:AC31"/>
+    <mergeCell ref="AD30:AH31"/>
+    <mergeCell ref="X32:AC33"/>
+    <mergeCell ref="AD32:AH33"/>
+    <mergeCell ref="L16:Q17"/>
+    <mergeCell ref="R16:W17"/>
+    <mergeCell ref="AD16:AH17"/>
+    <mergeCell ref="AI16:AO17"/>
+    <mergeCell ref="AP16:AS17"/>
+    <mergeCell ref="AT16:AX17"/>
+    <mergeCell ref="AY16:BB17"/>
+    <mergeCell ref="X16:AC17"/>
+    <mergeCell ref="X18:AC19"/>
+    <mergeCell ref="AD18:AH19"/>
+    <mergeCell ref="AI18:AO19"/>
+    <mergeCell ref="AP18:AS19"/>
+    <mergeCell ref="AT18:AX19"/>
+    <mergeCell ref="AY18:BB19"/>
+    <mergeCell ref="AT22:AX23"/>
+    <mergeCell ref="AY22:BB23"/>
+    <mergeCell ref="AT24:AX24"/>
+    <mergeCell ref="AY24:BB24"/>
+    <mergeCell ref="BC24:BK24"/>
+    <mergeCell ref="L25:BK25"/>
+    <mergeCell ref="AI20:AO21"/>
+    <mergeCell ref="AP20:AS21"/>
+    <mergeCell ref="AT20:AX21"/>
+    <mergeCell ref="AY20:BB21"/>
+    <mergeCell ref="BC20:BK21"/>
+    <mergeCell ref="AP22:AS23"/>
+    <mergeCell ref="BC22:BK23"/>
+    <mergeCell ref="AI22:AO23"/>
+    <mergeCell ref="AI24:AO24"/>
+    <mergeCell ref="AP24:AS24"/>
+    <mergeCell ref="AP26:AS27"/>
+    <mergeCell ref="AT26:AX27"/>
+    <mergeCell ref="AY26:BB27"/>
+    <mergeCell ref="BC26:BK27"/>
+    <mergeCell ref="AY30:BB31"/>
+    <mergeCell ref="BC30:BK31"/>
+    <mergeCell ref="BC32:BK33"/>
+    <mergeCell ref="AI26:AO27"/>
     <mergeCell ref="AI28:AO29"/>
     <mergeCell ref="AP28:AS29"/>
     <mergeCell ref="AT28:AX29"/>
     <mergeCell ref="AY28:BB29"/>
     <mergeCell ref="BC28:BK29"/>
-    <mergeCell ref="AI20:AO21"/>
-    <mergeCell ref="AP20:AS21"/>
-    <mergeCell ref="AI22:AO23"/>
-    <mergeCell ref="AP22:AS23"/>
-    <mergeCell ref="AI24:AO24"/>
-    <mergeCell ref="AP24:AS24"/>
-    <mergeCell ref="AI26:AO27"/>
+    <mergeCell ref="AI30:AO31"/>
+    <mergeCell ref="AP42:AS43"/>
+    <mergeCell ref="AT42:AX43"/>
+    <mergeCell ref="BC42:BK43"/>
+    <mergeCell ref="AI42:AO43"/>
+    <mergeCell ref="AI44:AO45"/>
+    <mergeCell ref="AP44:AS45"/>
+    <mergeCell ref="AT44:AX45"/>
+    <mergeCell ref="AY44:BB45"/>
+    <mergeCell ref="BC44:BK45"/>
+    <mergeCell ref="AI46:AO47"/>
+    <mergeCell ref="AP34:AS35"/>
+    <mergeCell ref="AT34:AX35"/>
+    <mergeCell ref="BC34:BK35"/>
+    <mergeCell ref="AP30:AS31"/>
+    <mergeCell ref="AT30:AX31"/>
+    <mergeCell ref="AI32:AO33"/>
+    <mergeCell ref="AP32:AS33"/>
     <mergeCell ref="AT32:AX33"/>
     <mergeCell ref="AY32:BB33"/>
-    <mergeCell ref="AT34:AX35"/>
     <mergeCell ref="AY34:BB35"/>
-    <mergeCell ref="BC34:BK35"/>
-    <mergeCell ref="BC36:BK37"/>
-    <mergeCell ref="AI30:AO31"/>
-    <mergeCell ref="AP30:AS31"/>
-    <mergeCell ref="AT30:AX31"/>
-    <mergeCell ref="AY30:BB31"/>
-    <mergeCell ref="BC30:BK31"/>
-    <mergeCell ref="AP32:AS33"/>
-    <mergeCell ref="BC32:BK33"/>
-    <mergeCell ref="AI32:AO33"/>
+    <mergeCell ref="AY38:BB39"/>
+    <mergeCell ref="BC38:BK39"/>
+    <mergeCell ref="BC40:BK41"/>
     <mergeCell ref="AI34:AO35"/>
-    <mergeCell ref="AP34:AS35"/>
     <mergeCell ref="AI36:AO37"/>
     <mergeCell ref="AP36:AS37"/>
     <mergeCell ref="AT36:AX37"/>
     <mergeCell ref="AY36:BB37"/>
+    <mergeCell ref="BC36:BK37"/>
     <mergeCell ref="AI38:AO39"/>
     <mergeCell ref="AP38:AS39"/>
     <mergeCell ref="AT38:AX39"/>
-    <mergeCell ref="AY38:BB39"/>
-    <mergeCell ref="BC38:BK39"/>
+    <mergeCell ref="AI40:AO41"/>
     <mergeCell ref="AP40:AS41"/>
-    <mergeCell ref="BC40:BK41"/>
-    <mergeCell ref="AI46:AO47"/>
+    <mergeCell ref="AT40:AX41"/>
+    <mergeCell ref="AY40:BB41"/>
+    <mergeCell ref="AY42:BB43"/>
     <mergeCell ref="AP46:AS47"/>
     <mergeCell ref="AT46:AX47"/>
     <mergeCell ref="AY46:BB47"/>
     <mergeCell ref="BC46:BK47"/>
-    <mergeCell ref="AI60:AO61"/>
-    <mergeCell ref="AP60:AS61"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:AB1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="D5:V6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="X48:AC49"/>
+    <mergeCell ref="AD48:AH49"/>
+    <mergeCell ref="X50:AC51"/>
+    <mergeCell ref="AD50:AH51"/>
+    <mergeCell ref="X52:AC53"/>
+    <mergeCell ref="AD52:AH53"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="F14:I24"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="L18:Q19"/>
+    <mergeCell ref="R18:W19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="L20:Q21"/>
+    <mergeCell ref="R20:W21"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="L22:Q23"/>
+    <mergeCell ref="R22:W23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="R26:W27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="L28:Q29"/>
+    <mergeCell ref="R28:W29"/>
+    <mergeCell ref="R30:W31"/>
+    <mergeCell ref="R32:W33"/>
+    <mergeCell ref="R34:W35"/>
+    <mergeCell ref="R36:W37"/>
+    <mergeCell ref="X56:AC57"/>
+    <mergeCell ref="AD56:AH57"/>
+    <mergeCell ref="AI56:AO57"/>
+    <mergeCell ref="AP56:AS57"/>
+    <mergeCell ref="AT56:AX57"/>
+    <mergeCell ref="AY56:BB57"/>
+    <mergeCell ref="BC56:BK57"/>
+    <mergeCell ref="X58:AC59"/>
     <mergeCell ref="AD58:AH59"/>
     <mergeCell ref="AI58:AO59"/>
     <mergeCell ref="AP58:AS59"/>
     <mergeCell ref="AT58:AX59"/>
     <mergeCell ref="AY58:BB59"/>
     <mergeCell ref="BC58:BK59"/>
-    <mergeCell ref="AD60:AH61"/>
-    <mergeCell ref="BC60:BK61"/>
-    <mergeCell ref="AI50:AO51"/>
-    <mergeCell ref="AP50:AS51"/>
+    <mergeCell ref="X34:AC35"/>
+    <mergeCell ref="AD34:AH35"/>
+    <mergeCell ref="X36:AC37"/>
+    <mergeCell ref="AD36:AH37"/>
+    <mergeCell ref="X38:AC39"/>
+    <mergeCell ref="AD38:AH39"/>
+    <mergeCell ref="AD40:AH41"/>
+    <mergeCell ref="X40:AC41"/>
+    <mergeCell ref="X42:AC43"/>
+    <mergeCell ref="AD42:AH43"/>
+    <mergeCell ref="X44:AC45"/>
+    <mergeCell ref="AD44:AH45"/>
+    <mergeCell ref="X46:AC47"/>
+    <mergeCell ref="AD46:AH47"/>
     <mergeCell ref="AT50:AX51"/>
     <mergeCell ref="AY50:BB51"/>
-    <mergeCell ref="BC50:BK51"/>
-    <mergeCell ref="AD46:AH47"/>
-    <mergeCell ref="AD48:AH49"/>
+    <mergeCell ref="AT52:AX53"/>
+    <mergeCell ref="AY52:BB53"/>
+    <mergeCell ref="BC52:BK53"/>
     <mergeCell ref="AI48:AO49"/>
     <mergeCell ref="AP48:AS49"/>
     <mergeCell ref="AT48:AX49"/>
     <mergeCell ref="AY48:BB49"/>
     <mergeCell ref="BC48:BK49"/>
-    <mergeCell ref="AI54:AO55"/>
-    <mergeCell ref="AP54:AS55"/>
+    <mergeCell ref="AP50:AS51"/>
+    <mergeCell ref="BC50:BK51"/>
     <mergeCell ref="AT54:AX55"/>
     <mergeCell ref="AY54:BB55"/>
     <mergeCell ref="BC54:BK55"/>
-    <mergeCell ref="AD50:AH51"/>
-    <mergeCell ref="AD52:AH53"/>
+    <mergeCell ref="AI50:AO51"/>
     <mergeCell ref="AI52:AO53"/>
     <mergeCell ref="AP52:AS53"/>
-    <mergeCell ref="AT52:AX53"/>
-    <mergeCell ref="AY52:BB53"/>
-    <mergeCell ref="BC52:BK53"/>
-    <mergeCell ref="AD32:AH33"/>
-    <mergeCell ref="AD34:AH35"/>
-    <mergeCell ref="AD36:AH37"/>
-    <mergeCell ref="AD38:AH39"/>
-    <mergeCell ref="AD40:AH41"/>
-    <mergeCell ref="AD42:AH43"/>
-    <mergeCell ref="AD44:AH45"/>
+    <mergeCell ref="X54:AC55"/>
     <mergeCell ref="AD54:AH55"/>
-    <mergeCell ref="AD56:AH57"/>
-    <mergeCell ref="AI56:AO57"/>
-    <mergeCell ref="AP56:AS57"/>
-    <mergeCell ref="AT56:AX57"/>
-    <mergeCell ref="AY56:BB57"/>
-    <mergeCell ref="BC56:BK57"/>
+    <mergeCell ref="AI54:AO55"/>
+    <mergeCell ref="AP54:AS55"/>
+    <mergeCell ref="X60:AC61"/>
+    <mergeCell ref="AD60:AH61"/>
+    <mergeCell ref="AI60:AO61"/>
+    <mergeCell ref="AP60:AS61"/>
     <mergeCell ref="AT60:AX61"/>
     <mergeCell ref="AY60:BB61"/>
+    <mergeCell ref="BC60:BK61"/>
+    <mergeCell ref="AI68:AO69"/>
+    <mergeCell ref="AI71:AO72"/>
+    <mergeCell ref="R38:W39"/>
+    <mergeCell ref="R40:W41"/>
+    <mergeCell ref="R42:W43"/>
+    <mergeCell ref="R44:W45"/>
+    <mergeCell ref="R46:W47"/>
+    <mergeCell ref="R48:W49"/>
+    <mergeCell ref="R50:W51"/>
+    <mergeCell ref="AT64:AX65"/>
+    <mergeCell ref="AY64:BB65"/>
+    <mergeCell ref="AT66:AX67"/>
+    <mergeCell ref="AY66:BB67"/>
+    <mergeCell ref="BC66:BK67"/>
+    <mergeCell ref="BC68:BK69"/>
+    <mergeCell ref="AD62:AH63"/>
+    <mergeCell ref="AI62:AO63"/>
+    <mergeCell ref="AP62:AS63"/>
+    <mergeCell ref="AT62:AX63"/>
+    <mergeCell ref="AY62:BB63"/>
+    <mergeCell ref="BC62:BK63"/>
+    <mergeCell ref="AD64:AH65"/>
+    <mergeCell ref="BC64:BK65"/>
     <mergeCell ref="X64:AC65"/>
-    <mergeCell ref="AD64:AH65"/>
-    <mergeCell ref="X52:AC53"/>
-    <mergeCell ref="X54:AC55"/>
-    <mergeCell ref="X56:AC57"/>
-    <mergeCell ref="X58:AC59"/>
-    <mergeCell ref="X60:AC61"/>
-    <mergeCell ref="X62:AC63"/>
-    <mergeCell ref="AD62:AH63"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="R16:W17"/>
-    <mergeCell ref="X16:AC17"/>
-    <mergeCell ref="R18:W19"/>
-    <mergeCell ref="X18:AC19"/>
-    <mergeCell ref="X20:AC21"/>
-    <mergeCell ref="X22:AC23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="R26:W27"/>
-    <mergeCell ref="X26:AC27"/>
-    <mergeCell ref="R28:W29"/>
-    <mergeCell ref="X28:AC29"/>
-    <mergeCell ref="R30:W31"/>
-    <mergeCell ref="X30:AC31"/>
-    <mergeCell ref="R32:W33"/>
-    <mergeCell ref="X32:AC33"/>
-    <mergeCell ref="R34:W35"/>
-    <mergeCell ref="X34:AC35"/>
-    <mergeCell ref="X36:AC37"/>
-    <mergeCell ref="R50:W51"/>
+    <mergeCell ref="X66:AC67"/>
+    <mergeCell ref="AD66:AH67"/>
+    <mergeCell ref="X68:AC69"/>
+    <mergeCell ref="AD68:AH69"/>
+    <mergeCell ref="AD71:AH72"/>
     <mergeCell ref="R52:W53"/>
     <mergeCell ref="R54:W55"/>
     <mergeCell ref="R56:W57"/>
     <mergeCell ref="R58:W59"/>
     <mergeCell ref="R60:W61"/>
     <mergeCell ref="R62:W63"/>
-    <mergeCell ref="R64:W65"/>
-    <mergeCell ref="R36:W37"/>
-    <mergeCell ref="R38:W39"/>
-    <mergeCell ref="R40:W41"/>
-    <mergeCell ref="R42:W43"/>
-    <mergeCell ref="R44:W45"/>
-    <mergeCell ref="R46:W47"/>
-    <mergeCell ref="R48:W49"/>
-    <mergeCell ref="X38:AC39"/>
-    <mergeCell ref="X40:AC41"/>
-    <mergeCell ref="X42:AC43"/>
-    <mergeCell ref="X44:AC45"/>
-    <mergeCell ref="X46:AC47"/>
-    <mergeCell ref="X48:AC49"/>
-    <mergeCell ref="X50:AC51"/>
-    <mergeCell ref="AT64:AX65"/>
-    <mergeCell ref="AY64:BB65"/>
-    <mergeCell ref="AI62:AO63"/>
-    <mergeCell ref="AP62:AS63"/>
-    <mergeCell ref="AT62:AX63"/>
-    <mergeCell ref="AY62:BB63"/>
-    <mergeCell ref="BC62:BK63"/>
+    <mergeCell ref="X62:AC63"/>
+    <mergeCell ref="L70:BK70"/>
+    <mergeCell ref="AP71:AS72"/>
+    <mergeCell ref="AT71:AX72"/>
+    <mergeCell ref="AY71:BB72"/>
+    <mergeCell ref="BC71:BK72"/>
     <mergeCell ref="AI64:AO65"/>
     <mergeCell ref="AP64:AS65"/>
-    <mergeCell ref="BC64:BK65"/>
+    <mergeCell ref="AI66:AO67"/>
+    <mergeCell ref="AP66:AS67"/>
+    <mergeCell ref="AP68:AS69"/>
+    <mergeCell ref="AT68:AX69"/>
+    <mergeCell ref="AY68:BB69"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:N4"/>
@@ -7601,158 +8289,104 @@
     <mergeCell ref="AP11:AS12"/>
     <mergeCell ref="AT11:AX12"/>
     <mergeCell ref="AY11:BB12"/>
+    <mergeCell ref="L11:Q12"/>
     <mergeCell ref="L14:Q15"/>
+    <mergeCell ref="R9:W10"/>
+    <mergeCell ref="X9:AC10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="J11:K12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="BC14:BK15"/>
+    <mergeCell ref="BC16:BK17"/>
+    <mergeCell ref="BC18:BK19"/>
     <mergeCell ref="R14:W15"/>
+    <mergeCell ref="X14:AC15"/>
     <mergeCell ref="AD14:AH15"/>
     <mergeCell ref="AI14:AO15"/>
     <mergeCell ref="AP14:AS15"/>
     <mergeCell ref="AT14:AX15"/>
     <mergeCell ref="AY14:BB15"/>
-    <mergeCell ref="BC14:BK15"/>
-    <mergeCell ref="R9:W10"/>
-    <mergeCell ref="X9:AC10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="J11:K12"/>
-    <mergeCell ref="L11:Q12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="X14:AC15"/>
-    <mergeCell ref="AD16:AH17"/>
-    <mergeCell ref="AI16:AO17"/>
-    <mergeCell ref="AP16:AS17"/>
-    <mergeCell ref="AT16:AX17"/>
-    <mergeCell ref="AY16:BB17"/>
-    <mergeCell ref="BC16:BK17"/>
-    <mergeCell ref="AD18:AH19"/>
-    <mergeCell ref="AI18:AO19"/>
-    <mergeCell ref="AP18:AS19"/>
-    <mergeCell ref="AT18:AX19"/>
-    <mergeCell ref="AY18:BB19"/>
-    <mergeCell ref="BC18:BK19"/>
-    <mergeCell ref="AD20:AH21"/>
-    <mergeCell ref="BC20:BK21"/>
-    <mergeCell ref="BC24:BK24"/>
-    <mergeCell ref="L25:BK25"/>
-    <mergeCell ref="AT20:AX21"/>
-    <mergeCell ref="AY20:BB21"/>
-    <mergeCell ref="AT22:AX23"/>
-    <mergeCell ref="AY22:BB23"/>
-    <mergeCell ref="BC22:BK23"/>
-    <mergeCell ref="AT24:AX24"/>
-    <mergeCell ref="AY24:BB24"/>
-    <mergeCell ref="AP26:AS27"/>
-    <mergeCell ref="AT26:AX27"/>
-    <mergeCell ref="AY26:BB27"/>
-    <mergeCell ref="BC26:BK27"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="L30:Q31"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="L32:Q33"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="L34:Q35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="L36:Q37"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="L38:Q39"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="L40:Q41"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="L42:Q43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="L44:Q45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="L46:Q47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="L48:Q49"/>
+    <mergeCell ref="A50:B51"/>
+    <mergeCell ref="L50:Q51"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="L52:Q53"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="L54:Q55"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="L56:Q57"/>
+    <mergeCell ref="A71:B72"/>
+    <mergeCell ref="A73:B74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="F26:I69"/>
+    <mergeCell ref="L71:Q72"/>
+    <mergeCell ref="L73:Q74"/>
+    <mergeCell ref="R75:W76"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:N3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="C14:E76"/>
+    <mergeCell ref="F71:I76"/>
+    <mergeCell ref="J14:K76"/>
+    <mergeCell ref="L75:Q76"/>
+    <mergeCell ref="X73:AC74"/>
+    <mergeCell ref="X75:AC76"/>
+    <mergeCell ref="AD75:AH76"/>
+    <mergeCell ref="AI75:AO76"/>
+    <mergeCell ref="AP75:AS76"/>
+    <mergeCell ref="AT75:AX76"/>
+    <mergeCell ref="AY75:BB76"/>
+    <mergeCell ref="BC75:BK76"/>
+    <mergeCell ref="R73:W74"/>
+    <mergeCell ref="AD73:AH74"/>
+    <mergeCell ref="AI73:AO74"/>
+    <mergeCell ref="AP73:AS74"/>
+    <mergeCell ref="AT73:AX74"/>
+    <mergeCell ref="AY73:BB74"/>
+    <mergeCell ref="BC73:BK74"/>
     <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="D5:V6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="R20:W21"/>
-    <mergeCell ref="R22:W23"/>
-    <mergeCell ref="AD22:AH23"/>
-    <mergeCell ref="AD24:AH24"/>
-    <mergeCell ref="AD26:AH27"/>
-    <mergeCell ref="AD28:AH29"/>
-    <mergeCell ref="AD30:AH31"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="L58:Q59"/>
     <mergeCell ref="A60:B61"/>
+    <mergeCell ref="L60:Q61"/>
     <mergeCell ref="A62:B63"/>
+    <mergeCell ref="L62:Q63"/>
     <mergeCell ref="A64:B65"/>
+    <mergeCell ref="L64:Q65"/>
+    <mergeCell ref="R64:W65"/>
     <mergeCell ref="A66:B67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="L22:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L28:Q29"/>
-    <mergeCell ref="L30:Q31"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="L32:Q33"/>
-    <mergeCell ref="L34:Q35"/>
-    <mergeCell ref="L36:Q37"/>
-    <mergeCell ref="L38:Q39"/>
-    <mergeCell ref="L40:Q41"/>
-    <mergeCell ref="L42:Q43"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="AT66:AX67"/>
-    <mergeCell ref="AY66:BB67"/>
-    <mergeCell ref="BC66:BK67"/>
-    <mergeCell ref="R68:W69"/>
-    <mergeCell ref="X68:AC69"/>
-    <mergeCell ref="AD68:AH69"/>
-    <mergeCell ref="AI68:AO69"/>
-    <mergeCell ref="AP68:AS69"/>
-    <mergeCell ref="AT68:AX69"/>
-    <mergeCell ref="AY68:BB69"/>
-    <mergeCell ref="BC68:BK69"/>
-    <mergeCell ref="L64:Q65"/>
     <mergeCell ref="L66:Q67"/>
     <mergeCell ref="R66:W67"/>
-    <mergeCell ref="X66:AC67"/>
-    <mergeCell ref="AD66:AH67"/>
-    <mergeCell ref="AI66:AO67"/>
-    <mergeCell ref="AP66:AS67"/>
-    <mergeCell ref="L20:Q21"/>
-    <mergeCell ref="L26:Q27"/>
-    <mergeCell ref="L44:Q45"/>
-    <mergeCell ref="L46:Q47"/>
-    <mergeCell ref="L48:Q49"/>
-    <mergeCell ref="L50:Q51"/>
-    <mergeCell ref="L52:Q53"/>
-    <mergeCell ref="L54:Q55"/>
-    <mergeCell ref="L56:Q57"/>
-    <mergeCell ref="L58:Q59"/>
-    <mergeCell ref="L60:Q61"/>
-    <mergeCell ref="L62:Q63"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="F14:I24"/>
-    <mergeCell ref="L16:Q17"/>
-    <mergeCell ref="L18:Q19"/>
-    <mergeCell ref="C14:E69"/>
-    <mergeCell ref="F26:I69"/>
-    <mergeCell ref="J14:K69"/>
+    <mergeCell ref="A68:B69"/>
     <mergeCell ref="L68:Q69"/>
+    <mergeCell ref="R68:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="R71:W72"/>
+    <mergeCell ref="X71:AC72"/>
   </mergeCells>
   <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -7774,28 +8408,28 @@
       <formula>"Out Of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Out Of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18 AY20 AY22 AY24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18 AY20 AY22 AY24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
       <formula1>"Passed,Failed,Not Executed,Out Of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7836,11 +8470,15 @@
     <hyperlink r:id="rId34" ref="AI64"/>
     <hyperlink r:id="rId35" ref="AI66"/>
     <hyperlink r:id="rId36" ref="AI68"/>
+    <hyperlink r:id="rId37" ref="AI71"/>
+    <hyperlink r:id="rId38" ref="AI73"/>
+    <hyperlink r:id="rId39" ref="AI75"/>
+    <hyperlink r:id="rId40" ref="AP75"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId37"/>
+  <drawing r:id="rId41"/>
 </worksheet>
 </file>
 

--- a/FabriLife_Test-Case-Report.xlsx
+++ b/FabriLife_Test-Case-Report.xlsx
@@ -11,14 +11,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="6R7yBYf0MXzUXdSKERxAz93J2Vqr8fXaaxWoyqTeHBM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="g/+Ft735lL3HKUdW/F51MjhfK6rZuRYBrcQ5UJOaIOg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="255">
   <si>
     <t>Product Name</t>
   </si>
@@ -1234,6 +1234,121 @@
     </r>
   </si>
   <si>
+    <t>Checking Register button clickable or not</t>
+  </si>
+  <si>
+    <t>Should be clickable and enable</t>
+  </si>
+  <si>
+    <t>Found as per expeactation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Fillup all the fields with proper value
+5.Click on the "Register" button to see is it work or not</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Sign In with facebook authentication</t>
+  </si>
+  <si>
+    <t>Should be allow to user to register with facebook credential</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Click on the "Sign In With Facebook" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing Correct data for every fields</t>
+  </si>
+  <si>
+    <t>Should be allow user to register and need to OTP code</t>
+  </si>
+  <si>
+    <t>It executed as per expectation</t>
+  </si>
+  <si>
+    <t>Muhammed Nayeem
+mohammednayeem808@gmail.com
+01878637196
+Fabri#123Life!
+Fabri#123Life!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Hover on the "Login" link and click on the "Register" link
+3. Fillup all the fields with correct data
+4. Click on the "Register" button
+5.Give the OTP code</t>
+    </r>
+  </si>
+  <si>
     <t>Usability Testing</t>
   </si>
   <si>
@@ -1352,6 +1467,597 @@
   </si>
   <si>
     <t>"Enter" button didn't work</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Checking the "Login" button is working</t>
+  </si>
+  <si>
+    <t>Login button should clickable and when click on it , it should navigate to login page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click on the "Login" button/link
+3. Navigating to login page</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking the same facebook authentication sign in credential</t>
+  </si>
+  <si>
+    <t>Should be allow to user lo login with the same facebook sign in credential</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click on the "facebook sign in" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by keep blank all the required login fields</t>
+  </si>
+  <si>
+    <t>Should not be allow user to login and display a warning message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://fabrilife.com/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>2. Keep blank all the login input fields
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by keep blank email field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Keep blank email input fields
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by incorrect email for login</t>
+  </si>
+  <si>
+    <t>Should not allow to login and display a warning message</t>
+  </si>
+  <si>
+    <t>mohammednayeem80@gmail.com
+Fabri#123Life!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Input incorrect email "mohammednayeem80@gmail.com"
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing incomplete registered email</t>
+  </si>
+  <si>
+    <t>Should not allow to login and show a warning message</t>
+  </si>
+  <si>
+    <t>mohammednayeem808@
+Fabri#123Life!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Input incomplete email "mohammednayeem80@"
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing wrong email which isn't already registered yet</t>
+  </si>
+  <si>
+    <t>mohammednayeem85@yahoo.com
+Fabri#123Life!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Input wrong email "mohammednayeem85@yahoo.com"
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by keep blank password input field</t>
+  </si>
+  <si>
+    <t>Found as per expectation with warning message</t>
+  </si>
+  <si>
+    <t>mohammednayeem808@gmail.com
+blank password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Keep blank password input field
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking by inputing wrong password</t>
+  </si>
+  <si>
+    <t>Shouldn't allow user to login and display a warning message</t>
+  </si>
+  <si>
+    <t>mohammednayeem808@gmail.com
+FabriLife123</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Inputing wron password "FabriLife123"
+2. Click on the "Login" button/link</t>
+    </r>
+  </si>
+  <si>
+    <t>In password input field checking Eye button is present</t>
+  </si>
+  <si>
+    <t>Not found as per expectation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Check password field for eye button</t>
+    </r>
+  </si>
+  <si>
+    <t>Eye Button Bug</t>
+  </si>
+  <si>
+    <t>Checking password is masked</t>
+  </si>
+  <si>
+    <t>Should be masked when type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Type password in password input field</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Remember Me checkbox is checked or not before login</t>
+  </si>
+  <si>
+    <t>Should be checked and display a warning message if not checked</t>
+  </si>
+  <si>
+    <t>Not Checked</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Check the checkbox field</t>
+    </r>
+  </si>
+  <si>
+    <t>Checkbox not checked Bug</t>
+  </si>
+  <si>
+    <t>Checking by inputing Registered valid Email and Password</t>
+  </si>
+  <si>
+    <t>Should be allow user to login</t>
+  </si>
+  <si>
+    <t>mohammednayeem808@gmail.com
+Fabri#123Life!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Input valid email and password
+3. Click on "Login" button</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Remember Me checkbox is checked by default</t>
+  </si>
+  <si>
+    <t>Shouldn't be checked</t>
+  </si>
+  <si>
+    <t>Founnd as per expectation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t xml:space="preserve">https://fabrilife.com/
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t>2. Check Remember Me checkbox</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking Forgot Password Link is worked</t>
+  </si>
+  <si>
+    <t>Should be worked and navigate to reset password page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click on the "Forgot Password" Link</t>
+    </r>
+  </si>
+  <si>
+    <t>Checking is sent a link for reset password through registered email</t>
+  </si>
+  <si>
+    <t>Should be sent a reset password link through registered email</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click on the "Forgot Password" Link
+3. Input already registered email
+4. Click on the "Send Password Reset Link"</t>
+    </r>
+  </si>
+  <si>
+    <t>Reset Password Link Bug</t>
+  </si>
+  <si>
+    <t>Checking "Registration" Link is work</t>
+  </si>
+  <si>
+    <t>Should be work and navigate to Registration page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Go to website url: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://fabrilife.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="PT Serif"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click on the "Registration" Link</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1622,7 +2328,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1749,6 +2455,9 @@
     <xf borderId="4" fillId="3" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3618,7 +4327,7 @@
       <c r="BJ26" s="17"/>
       <c r="BK26" s="18"/>
     </row>
-    <row r="27" ht="47.25" customHeight="1">
+    <row r="27" ht="27.75" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="23"/>
       <c r="C27" s="34"/>
@@ -3756,7 +4465,7 @@
       <c r="BJ28" s="17"/>
       <c r="BK28" s="18"/>
     </row>
-    <row r="29" ht="33.75" customHeight="1">
+    <row r="29" ht="24.75" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="23"/>
       <c r="C29" s="34"/>
@@ -3896,7 +4605,7 @@
       <c r="BJ30" s="17"/>
       <c r="BK30" s="18"/>
     </row>
-    <row r="31" ht="62.25" customHeight="1">
+    <row r="31" ht="27.0" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="23"/>
       <c r="C31" s="34"/>
@@ -6533,10 +7242,8 @@
       <c r="B69" s="23"/>
       <c r="C69" s="34"/>
       <c r="E69" s="35"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="23"/>
+      <c r="F69" s="34"/>
+      <c r="I69" s="35"/>
       <c r="J69" s="34"/>
       <c r="K69" s="35"/>
       <c r="L69" s="21"/>
@@ -6592,534 +7299,3333 @@
       <c r="BJ69" s="22"/>
       <c r="BK69" s="23"/>
     </row>
-    <row r="70" ht="8.25" customHeight="1">
-      <c r="A70" s="32"/>
-      <c r="B70" s="3"/>
+    <row r="70" ht="27.75" customHeight="1">
+      <c r="A70" s="27">
+        <v>31.0</v>
+      </c>
+      <c r="B70" s="18"/>
       <c r="C70" s="34"/>
       <c r="E70" s="35"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="F70" s="34"/>
+      <c r="I70" s="35"/>
       <c r="J70" s="34"/>
       <c r="K70" s="35"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-      <c r="AB70" s="2"/>
-      <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="2"/>
-      <c r="AG70" s="2"/>
-      <c r="AH70" s="2"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
-      <c r="AK70" s="2"/>
-      <c r="AL70" s="2"/>
-      <c r="AM70" s="2"/>
-      <c r="AN70" s="2"/>
-      <c r="AO70" s="2"/>
-      <c r="AP70" s="2"/>
-      <c r="AQ70" s="2"/>
-      <c r="AR70" s="2"/>
-      <c r="AS70" s="2"/>
-      <c r="AT70" s="2"/>
-      <c r="AU70" s="2"/>
-      <c r="AV70" s="2"/>
-      <c r="AW70" s="2"/>
-      <c r="AX70" s="2"/>
-      <c r="AY70" s="2"/>
-      <c r="AZ70" s="2"/>
-      <c r="BA70" s="2"/>
-      <c r="BB70" s="2"/>
-      <c r="BC70" s="2"/>
-      <c r="BD70" s="2"/>
-      <c r="BE70" s="2"/>
-      <c r="BF70" s="2"/>
-      <c r="BG70" s="2"/>
-      <c r="BH70" s="2"/>
-      <c r="BI70" s="2"/>
-      <c r="BJ70" s="2"/>
-      <c r="BK70" s="2"/>
+      <c r="L70" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="S70" s="17"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="17"/>
+      <c r="V70" s="17"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y70" s="17"/>
+      <c r="Z70" s="17"/>
+      <c r="AA70" s="17"/>
+      <c r="AB70" s="17"/>
+      <c r="AC70" s="18"/>
+      <c r="AD70" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE70" s="17"/>
+      <c r="AF70" s="17"/>
+      <c r="AG70" s="17"/>
+      <c r="AH70" s="18"/>
+      <c r="AI70" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+      <c r="AL70" s="17"/>
+      <c r="AM70" s="17"/>
+      <c r="AN70" s="17"/>
+      <c r="AO70" s="18"/>
+      <c r="AP70" s="50"/>
+      <c r="AQ70" s="17"/>
+      <c r="AR70" s="17"/>
+      <c r="AS70" s="18"/>
+      <c r="AT70" s="50"/>
+      <c r="AU70" s="17"/>
+      <c r="AV70" s="17"/>
+      <c r="AW70" s="17"/>
+      <c r="AX70" s="18"/>
+      <c r="AY70" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ70" s="17"/>
+      <c r="BA70" s="17"/>
+      <c r="BB70" s="18"/>
+      <c r="BC70" s="28"/>
+      <c r="BD70" s="17"/>
+      <c r="BE70" s="17"/>
+      <c r="BF70" s="17"/>
+      <c r="BG70" s="17"/>
+      <c r="BH70" s="17"/>
+      <c r="BI70" s="17"/>
+      <c r="BJ70" s="17"/>
+      <c r="BK70" s="18"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="27">
-        <v>31.0</v>
-      </c>
-      <c r="B71" s="18"/>
+    <row r="71" ht="12.0" customHeight="1">
+      <c r="A71" s="21"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="34"/>
       <c r="E71" s="35"/>
-      <c r="F71" s="27" t="s">
-        <v>166</v>
-      </c>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="18"/>
+      <c r="F71" s="34"/>
+      <c r="I71" s="35"/>
       <c r="J71" s="34"/>
       <c r="K71" s="35"/>
-      <c r="L71" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="S71" s="17"/>
-      <c r="T71" s="17"/>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
-      <c r="W71" s="18"/>
-      <c r="X71" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y71" s="17"/>
-      <c r="Z71" s="17"/>
-      <c r="AA71" s="17"/>
-      <c r="AB71" s="17"/>
-      <c r="AC71" s="18"/>
-      <c r="AD71" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE71" s="17"/>
-      <c r="AF71" s="17"/>
-      <c r="AG71" s="17"/>
-      <c r="AH71" s="18"/>
-      <c r="AI71" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ71" s="17"/>
-      <c r="AK71" s="17"/>
-      <c r="AL71" s="17"/>
-      <c r="AM71" s="17"/>
-      <c r="AN71" s="17"/>
-      <c r="AO71" s="18"/>
-      <c r="AP71" s="50"/>
-      <c r="AQ71" s="17"/>
-      <c r="AR71" s="17"/>
-      <c r="AS71" s="18"/>
-      <c r="AT71" s="50"/>
-      <c r="AU71" s="17"/>
-      <c r="AV71" s="17"/>
-      <c r="AW71" s="17"/>
-      <c r="AX71" s="18"/>
-      <c r="AY71" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ71" s="17"/>
-      <c r="BA71" s="17"/>
-      <c r="BB71" s="18"/>
-      <c r="BC71" s="51"/>
-      <c r="BD71" s="17"/>
-      <c r="BE71" s="17"/>
-      <c r="BF71" s="17"/>
-      <c r="BG71" s="17"/>
-      <c r="BH71" s="17"/>
-      <c r="BI71" s="17"/>
-      <c r="BJ71" s="17"/>
-      <c r="BK71" s="18"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
+      <c r="P71" s="22"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="22"/>
+      <c r="T71" s="22"/>
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="21"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="21"/>
+      <c r="AE71" s="22"/>
+      <c r="AF71" s="22"/>
+      <c r="AG71" s="22"/>
+      <c r="AH71" s="23"/>
+      <c r="AI71" s="21"/>
+      <c r="AJ71" s="22"/>
+      <c r="AK71" s="22"/>
+      <c r="AL71" s="22"/>
+      <c r="AM71" s="22"/>
+      <c r="AN71" s="22"/>
+      <c r="AO71" s="23"/>
+      <c r="AP71" s="21"/>
+      <c r="AQ71" s="22"/>
+      <c r="AR71" s="22"/>
+      <c r="AS71" s="23"/>
+      <c r="AT71" s="21"/>
+      <c r="AU71" s="22"/>
+      <c r="AV71" s="22"/>
+      <c r="AW71" s="22"/>
+      <c r="AX71" s="23"/>
+      <c r="AY71" s="21"/>
+      <c r="AZ71" s="22"/>
+      <c r="BA71" s="22"/>
+      <c r="BB71" s="23"/>
+      <c r="BC71" s="21"/>
+      <c r="BD71" s="22"/>
+      <c r="BE71" s="22"/>
+      <c r="BF71" s="22"/>
+      <c r="BG71" s="22"/>
+      <c r="BH71" s="22"/>
+      <c r="BI71" s="22"/>
+      <c r="BJ71" s="22"/>
+      <c r="BK71" s="23"/>
     </row>
-    <row r="72" ht="27.0" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="23"/>
+    <row r="72" ht="27.75" customHeight="1">
+      <c r="A72" s="27">
+        <v>32.0</v>
+      </c>
+      <c r="B72" s="18"/>
       <c r="C72" s="34"/>
       <c r="E72" s="35"/>
       <c r="F72" s="34"/>
       <c r="I72" s="35"/>
       <c r="J72" s="34"/>
       <c r="K72" s="35"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="21"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="22"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="23"/>
-      <c r="AD72" s="21"/>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="22"/>
-      <c r="AG72" s="22"/>
-      <c r="AH72" s="23"/>
-      <c r="AI72" s="21"/>
-      <c r="AJ72" s="22"/>
-      <c r="AK72" s="22"/>
-      <c r="AL72" s="22"/>
-      <c r="AM72" s="22"/>
-      <c r="AN72" s="22"/>
-      <c r="AO72" s="23"/>
-      <c r="AP72" s="21"/>
-      <c r="AQ72" s="22"/>
-      <c r="AR72" s="22"/>
-      <c r="AS72" s="23"/>
-      <c r="AT72" s="21"/>
-      <c r="AU72" s="22"/>
-      <c r="AV72" s="22"/>
-      <c r="AW72" s="22"/>
-      <c r="AX72" s="23"/>
-      <c r="AY72" s="21"/>
-      <c r="AZ72" s="22"/>
-      <c r="BA72" s="22"/>
-      <c r="BB72" s="23"/>
-      <c r="BC72" s="21"/>
-      <c r="BD72" s="22"/>
-      <c r="BE72" s="22"/>
-      <c r="BF72" s="22"/>
-      <c r="BG72" s="22"/>
-      <c r="BH72" s="22"/>
-      <c r="BI72" s="22"/>
-      <c r="BJ72" s="22"/>
-      <c r="BK72" s="23"/>
+      <c r="L72" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="S72" s="17"/>
+      <c r="T72" s="17"/>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
+      <c r="W72" s="18"/>
+      <c r="X72" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y72" s="17"/>
+      <c r="Z72" s="17"/>
+      <c r="AA72" s="17"/>
+      <c r="AB72" s="17"/>
+      <c r="AC72" s="18"/>
+      <c r="AD72" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE72" s="17"/>
+      <c r="AF72" s="17"/>
+      <c r="AG72" s="17"/>
+      <c r="AH72" s="18"/>
+      <c r="AI72" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+      <c r="AL72" s="17"/>
+      <c r="AM72" s="17"/>
+      <c r="AN72" s="17"/>
+      <c r="AO72" s="18"/>
+      <c r="AP72" s="50"/>
+      <c r="AQ72" s="17"/>
+      <c r="AR72" s="17"/>
+      <c r="AS72" s="18"/>
+      <c r="AT72" s="50"/>
+      <c r="AU72" s="17"/>
+      <c r="AV72" s="17"/>
+      <c r="AW72" s="17"/>
+      <c r="AX72" s="18"/>
+      <c r="AY72" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ72" s="17"/>
+      <c r="BA72" s="17"/>
+      <c r="BB72" s="18"/>
+      <c r="BC72" s="28"/>
+      <c r="BD72" s="17"/>
+      <c r="BE72" s="17"/>
+      <c r="BF72" s="17"/>
+      <c r="BG72" s="17"/>
+      <c r="BH72" s="17"/>
+      <c r="BI72" s="17"/>
+      <c r="BJ72" s="17"/>
+      <c r="BK72" s="18"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="27">
-        <v>32.0</v>
-      </c>
-      <c r="B73" s="18"/>
+    <row r="73" ht="9.75" customHeight="1">
+      <c r="A73" s="21"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="34"/>
       <c r="E73" s="35"/>
       <c r="F73" s="34"/>
       <c r="I73" s="35"/>
       <c r="J73" s="34"/>
       <c r="K73" s="35"/>
-      <c r="L73" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="S73" s="17"/>
-      <c r="T73" s="17"/>
-      <c r="U73" s="17"/>
-      <c r="V73" s="17"/>
-      <c r="W73" s="18"/>
-      <c r="X73" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y73" s="17"/>
-      <c r="Z73" s="17"/>
-      <c r="AA73" s="17"/>
-      <c r="AB73" s="17"/>
-      <c r="AC73" s="18"/>
-      <c r="AD73" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE73" s="17"/>
-      <c r="AF73" s="17"/>
-      <c r="AG73" s="17"/>
-      <c r="AH73" s="18"/>
-      <c r="AI73" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ73" s="17"/>
-      <c r="AK73" s="17"/>
-      <c r="AL73" s="17"/>
-      <c r="AM73" s="17"/>
-      <c r="AN73" s="17"/>
-      <c r="AO73" s="18"/>
-      <c r="AP73" s="28"/>
-      <c r="AQ73" s="17"/>
-      <c r="AR73" s="17"/>
-      <c r="AS73" s="18"/>
-      <c r="AT73" s="28"/>
-      <c r="AU73" s="17"/>
-      <c r="AV73" s="17"/>
-      <c r="AW73" s="17"/>
-      <c r="AX73" s="18"/>
-      <c r="AY73" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="AZ73" s="17"/>
-      <c r="BA73" s="17"/>
-      <c r="BB73" s="18"/>
-      <c r="BC73" s="28"/>
-      <c r="BD73" s="17"/>
-      <c r="BE73" s="17"/>
-      <c r="BF73" s="17"/>
-      <c r="BG73" s="17"/>
-      <c r="BH73" s="17"/>
-      <c r="BI73" s="17"/>
-      <c r="BJ73" s="17"/>
-      <c r="BK73" s="18"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="22"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="22"/>
+      <c r="T73" s="22"/>
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="22"/>
+      <c r="Z73" s="22"/>
+      <c r="AA73" s="22"/>
+      <c r="AB73" s="22"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="22"/>
+      <c r="AF73" s="22"/>
+      <c r="AG73" s="22"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="22"/>
+      <c r="AK73" s="22"/>
+      <c r="AL73" s="22"/>
+      <c r="AM73" s="22"/>
+      <c r="AN73" s="22"/>
+      <c r="AO73" s="23"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="22"/>
+      <c r="AR73" s="22"/>
+      <c r="AS73" s="23"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="22"/>
+      <c r="AV73" s="22"/>
+      <c r="AW73" s="22"/>
+      <c r="AX73" s="23"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="22"/>
+      <c r="BA73" s="22"/>
+      <c r="BB73" s="23"/>
+      <c r="BC73" s="21"/>
+      <c r="BD73" s="22"/>
+      <c r="BE73" s="22"/>
+      <c r="BF73" s="22"/>
+      <c r="BG73" s="22"/>
+      <c r="BH73" s="22"/>
+      <c r="BI73" s="22"/>
+      <c r="BJ73" s="22"/>
+      <c r="BK73" s="23"/>
     </row>
-    <row r="74" ht="26.25" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="23"/>
+    <row r="74" ht="27.75" customHeight="1">
+      <c r="A74" s="27">
+        <v>33.0</v>
+      </c>
+      <c r="B74" s="18"/>
       <c r="C74" s="34"/>
       <c r="E74" s="35"/>
       <c r="F74" s="34"/>
       <c r="I74" s="35"/>
       <c r="J74" s="34"/>
       <c r="K74" s="35"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="23"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="23"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="23"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
-      <c r="AM74" s="22"/>
-      <c r="AN74" s="22"/>
-      <c r="AO74" s="23"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="22"/>
-      <c r="AR74" s="22"/>
-      <c r="AS74" s="23"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="22"/>
-      <c r="AV74" s="22"/>
-      <c r="AW74" s="22"/>
-      <c r="AX74" s="23"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="22"/>
-      <c r="BA74" s="22"/>
-      <c r="BB74" s="23"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="22"/>
-      <c r="BE74" s="22"/>
-      <c r="BF74" s="22"/>
-      <c r="BG74" s="22"/>
-      <c r="BH74" s="22"/>
-      <c r="BI74" s="22"/>
-      <c r="BJ74" s="22"/>
-      <c r="BK74" s="23"/>
+      <c r="L74" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="17"/>
+      <c r="W74" s="18"/>
+      <c r="X74" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="18"/>
+      <c r="AD74" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
+      <c r="AG74" s="17"/>
+      <c r="AH74" s="18"/>
+      <c r="AI74" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+      <c r="AL74" s="17"/>
+      <c r="AM74" s="17"/>
+      <c r="AN74" s="17"/>
+      <c r="AO74" s="18"/>
+      <c r="AP74" s="50"/>
+      <c r="AQ74" s="17"/>
+      <c r="AR74" s="17"/>
+      <c r="AS74" s="18"/>
+      <c r="AT74" s="50"/>
+      <c r="AU74" s="17"/>
+      <c r="AV74" s="17"/>
+      <c r="AW74" s="17"/>
+      <c r="AX74" s="18"/>
+      <c r="AY74" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ74" s="17"/>
+      <c r="BA74" s="17"/>
+      <c r="BB74" s="18"/>
+      <c r="BC74" s="28"/>
+      <c r="BD74" s="17"/>
+      <c r="BE74" s="17"/>
+      <c r="BF74" s="17"/>
+      <c r="BG74" s="17"/>
+      <c r="BH74" s="17"/>
+      <c r="BI74" s="17"/>
+      <c r="BJ74" s="17"/>
+      <c r="BK74" s="18"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="29">
-        <v>33.0</v>
-      </c>
-      <c r="B75" s="18"/>
+    <row r="75" ht="10.5" customHeight="1">
+      <c r="A75" s="21"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="34"/>
       <c r="E75" s="35"/>
-      <c r="F75" s="34"/>
-      <c r="I75" s="35"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
       <c r="J75" s="34"/>
       <c r="K75" s="35"/>
-      <c r="L75" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
-      <c r="V75" s="17"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="29" t="s">
+      <c r="L75" s="21"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="23"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="23"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="22"/>
+      <c r="AF75" s="22"/>
+      <c r="AG75" s="22"/>
+      <c r="AH75" s="23"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="22"/>
+      <c r="AK75" s="22"/>
+      <c r="AL75" s="22"/>
+      <c r="AM75" s="22"/>
+      <c r="AN75" s="22"/>
+      <c r="AO75" s="23"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="22"/>
+      <c r="AR75" s="22"/>
+      <c r="AS75" s="23"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="22"/>
+      <c r="AV75" s="22"/>
+      <c r="AW75" s="22"/>
+      <c r="AX75" s="23"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="22"/>
+      <c r="BA75" s="22"/>
+      <c r="BB75" s="23"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="22"/>
+      <c r="BE75" s="22"/>
+      <c r="BF75" s="22"/>
+      <c r="BG75" s="22"/>
+      <c r="BH75" s="22"/>
+      <c r="BI75" s="22"/>
+      <c r="BJ75" s="22"/>
+      <c r="BK75" s="23"/>
+    </row>
+    <row r="76" ht="8.25" customHeight="1">
+      <c r="A76" s="32"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="34"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="35"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AM76" s="2"/>
+      <c r="AN76" s="2"/>
+      <c r="AO76" s="2"/>
+      <c r="AP76" s="2"/>
+      <c r="AQ76" s="2"/>
+      <c r="AR76" s="2"/>
+      <c r="AS76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AU76" s="2"/>
+      <c r="AV76" s="2"/>
+      <c r="AW76" s="2"/>
+      <c r="AX76" s="2"/>
+      <c r="AY76" s="2"/>
+      <c r="AZ76" s="2"/>
+      <c r="BA76" s="2"/>
+      <c r="BB76" s="2"/>
+      <c r="BC76" s="2"/>
+      <c r="BD76" s="2"/>
+      <c r="BE76" s="2"/>
+      <c r="BF76" s="2"/>
+      <c r="BG76" s="2"/>
+      <c r="BH76" s="2"/>
+      <c r="BI76" s="2"/>
+      <c r="BJ76" s="2"/>
+      <c r="BK76" s="2"/>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="27">
+        <v>34.0</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="34"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="18"/>
-      <c r="AD75" s="27" t="s">
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="34"/>
+      <c r="K77" s="35"/>
+      <c r="L77" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
-      <c r="AG75" s="17"/>
-      <c r="AH75" s="18"/>
-      <c r="AI75" s="49" t="s">
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="AJ75" s="17"/>
-      <c r="AK75" s="17"/>
-      <c r="AL75" s="17"/>
-      <c r="AM75" s="17"/>
-      <c r="AN75" s="17"/>
-      <c r="AO75" s="18"/>
-      <c r="AP75" s="47" t="s">
+      <c r="S77" s="17"/>
+      <c r="T77" s="17"/>
+      <c r="U77" s="17"/>
+      <c r="V77" s="17"/>
+      <c r="W77" s="18"/>
+      <c r="X77" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="AQ75" s="17"/>
-      <c r="AR75" s="17"/>
-      <c r="AS75" s="18"/>
-      <c r="AT75" s="28"/>
-      <c r="AU75" s="17"/>
-      <c r="AV75" s="17"/>
-      <c r="AW75" s="17"/>
-      <c r="AX75" s="18"/>
-      <c r="AY75" s="30" t="s">
+      <c r="Y77" s="17"/>
+      <c r="Z77" s="17"/>
+      <c r="AA77" s="17"/>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="18"/>
+      <c r="AD77" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE77" s="17"/>
+      <c r="AF77" s="17"/>
+      <c r="AG77" s="17"/>
+      <c r="AH77" s="18"/>
+      <c r="AI77" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="17"/>
+      <c r="AL77" s="17"/>
+      <c r="AM77" s="17"/>
+      <c r="AN77" s="17"/>
+      <c r="AO77" s="18"/>
+      <c r="AP77" s="50"/>
+      <c r="AQ77" s="17"/>
+      <c r="AR77" s="17"/>
+      <c r="AS77" s="18"/>
+      <c r="AT77" s="50"/>
+      <c r="AU77" s="17"/>
+      <c r="AV77" s="17"/>
+      <c r="AW77" s="17"/>
+      <c r="AX77" s="18"/>
+      <c r="AY77" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ77" s="17"/>
+      <c r="BA77" s="17"/>
+      <c r="BB77" s="18"/>
+      <c r="BC77" s="51"/>
+      <c r="BD77" s="17"/>
+      <c r="BE77" s="17"/>
+      <c r="BF77" s="17"/>
+      <c r="BG77" s="17"/>
+      <c r="BH77" s="17"/>
+      <c r="BI77" s="17"/>
+      <c r="BJ77" s="17"/>
+      <c r="BK77" s="18"/>
+    </row>
+    <row r="78" ht="27.0" customHeight="1">
+      <c r="A78" s="21"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="34"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="34"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="35"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="21"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="23"/>
+      <c r="X78" s="21"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="23"/>
+      <c r="AD78" s="21"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="23"/>
+      <c r="AI78" s="21"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="22"/>
+      <c r="AM78" s="22"/>
+      <c r="AN78" s="22"/>
+      <c r="AO78" s="23"/>
+      <c r="AP78" s="21"/>
+      <c r="AQ78" s="22"/>
+      <c r="AR78" s="22"/>
+      <c r="AS78" s="23"/>
+      <c r="AT78" s="21"/>
+      <c r="AU78" s="22"/>
+      <c r="AV78" s="22"/>
+      <c r="AW78" s="22"/>
+      <c r="AX78" s="23"/>
+      <c r="AY78" s="21"/>
+      <c r="AZ78" s="22"/>
+      <c r="BA78" s="22"/>
+      <c r="BB78" s="23"/>
+      <c r="BC78" s="21"/>
+      <c r="BD78" s="22"/>
+      <c r="BE78" s="22"/>
+      <c r="BF78" s="22"/>
+      <c r="BG78" s="22"/>
+      <c r="BH78" s="22"/>
+      <c r="BI78" s="22"/>
+      <c r="BJ78" s="22"/>
+      <c r="BK78" s="23"/>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="27">
+        <v>35.0</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="34"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="34"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="34"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="S79" s="17"/>
+      <c r="T79" s="17"/>
+      <c r="U79" s="17"/>
+      <c r="V79" s="17"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y79" s="17"/>
+      <c r="Z79" s="17"/>
+      <c r="AA79" s="17"/>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="18"/>
+      <c r="AD79" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE79" s="17"/>
+      <c r="AF79" s="17"/>
+      <c r="AG79" s="17"/>
+      <c r="AH79" s="18"/>
+      <c r="AI79" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+      <c r="AL79" s="17"/>
+      <c r="AM79" s="17"/>
+      <c r="AN79" s="17"/>
+      <c r="AO79" s="18"/>
+      <c r="AP79" s="28"/>
+      <c r="AQ79" s="17"/>
+      <c r="AR79" s="17"/>
+      <c r="AS79" s="18"/>
+      <c r="AT79" s="28"/>
+      <c r="AU79" s="17"/>
+      <c r="AV79" s="17"/>
+      <c r="AW79" s="17"/>
+      <c r="AX79" s="18"/>
+      <c r="AY79" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ79" s="17"/>
+      <c r="BA79" s="17"/>
+      <c r="BB79" s="18"/>
+      <c r="BC79" s="28"/>
+      <c r="BD79" s="17"/>
+      <c r="BE79" s="17"/>
+      <c r="BF79" s="17"/>
+      <c r="BG79" s="17"/>
+      <c r="BH79" s="17"/>
+      <c r="BI79" s="17"/>
+      <c r="BJ79" s="17"/>
+      <c r="BK79" s="18"/>
+    </row>
+    <row r="80" ht="26.25" customHeight="1">
+      <c r="A80" s="21"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="34"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="34"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="22"/>
+      <c r="P80" s="22"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="21"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="21"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="21"/>
+      <c r="AE80" s="22"/>
+      <c r="AF80" s="22"/>
+      <c r="AG80" s="22"/>
+      <c r="AH80" s="23"/>
+      <c r="AI80" s="21"/>
+      <c r="AJ80" s="22"/>
+      <c r="AK80" s="22"/>
+      <c r="AL80" s="22"/>
+      <c r="AM80" s="22"/>
+      <c r="AN80" s="22"/>
+      <c r="AO80" s="23"/>
+      <c r="AP80" s="21"/>
+      <c r="AQ80" s="22"/>
+      <c r="AR80" s="22"/>
+      <c r="AS80" s="23"/>
+      <c r="AT80" s="21"/>
+      <c r="AU80" s="22"/>
+      <c r="AV80" s="22"/>
+      <c r="AW80" s="22"/>
+      <c r="AX80" s="23"/>
+      <c r="AY80" s="21"/>
+      <c r="AZ80" s="22"/>
+      <c r="BA80" s="22"/>
+      <c r="BB80" s="23"/>
+      <c r="BC80" s="21"/>
+      <c r="BD80" s="22"/>
+      <c r="BE80" s="22"/>
+      <c r="BF80" s="22"/>
+      <c r="BG80" s="22"/>
+      <c r="BH80" s="22"/>
+      <c r="BI80" s="22"/>
+      <c r="BJ80" s="22"/>
+      <c r="BK80" s="23"/>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="29">
+        <v>36.0</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="34"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="34"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="V81" s="17"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+      <c r="AB81" s="17"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE81" s="17"/>
+      <c r="AF81" s="17"/>
+      <c r="AG81" s="17"/>
+      <c r="AH81" s="18"/>
+      <c r="AI81" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+      <c r="AL81" s="17"/>
+      <c r="AM81" s="17"/>
+      <c r="AN81" s="17"/>
+      <c r="AO81" s="18"/>
+      <c r="AP81" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ81" s="17"/>
+      <c r="AR81" s="17"/>
+      <c r="AS81" s="18"/>
+      <c r="AT81" s="28"/>
+      <c r="AU81" s="17"/>
+      <c r="AV81" s="17"/>
+      <c r="AW81" s="17"/>
+      <c r="AX81" s="18"/>
+      <c r="AY81" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="AZ75" s="17"/>
-      <c r="BA75" s="17"/>
-      <c r="BB75" s="18"/>
-      <c r="BC75" s="28"/>
-      <c r="BD75" s="17"/>
-      <c r="BE75" s="17"/>
-      <c r="BF75" s="17"/>
-      <c r="BG75" s="17"/>
-      <c r="BH75" s="17"/>
-      <c r="BI75" s="17"/>
-      <c r="BJ75" s="17"/>
-      <c r="BK75" s="18"/>
+      <c r="AZ81" s="17"/>
+      <c r="BA81" s="17"/>
+      <c r="BB81" s="18"/>
+      <c r="BC81" s="28"/>
+      <c r="BD81" s="17"/>
+      <c r="BE81" s="17"/>
+      <c r="BF81" s="17"/>
+      <c r="BG81" s="17"/>
+      <c r="BH81" s="17"/>
+      <c r="BI81" s="17"/>
+      <c r="BJ81" s="17"/>
+      <c r="BK81" s="18"/>
     </row>
-    <row r="76" ht="23.25" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="23"/>
-      <c r="R76" s="21"/>
-      <c r="S76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
-      <c r="V76" s="22"/>
-      <c r="W76" s="23"/>
-      <c r="X76" s="21"/>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22"/>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="23"/>
-      <c r="AD76" s="21"/>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
-      <c r="AG76" s="22"/>
-      <c r="AH76" s="23"/>
-      <c r="AI76" s="21"/>
-      <c r="AJ76" s="22"/>
-      <c r="AK76" s="22"/>
-      <c r="AL76" s="22"/>
-      <c r="AM76" s="22"/>
-      <c r="AN76" s="22"/>
-      <c r="AO76" s="23"/>
-      <c r="AP76" s="21"/>
-      <c r="AQ76" s="22"/>
-      <c r="AR76" s="22"/>
-      <c r="AS76" s="23"/>
-      <c r="AT76" s="21"/>
-      <c r="AU76" s="22"/>
-      <c r="AV76" s="22"/>
-      <c r="AW76" s="22"/>
-      <c r="AX76" s="23"/>
-      <c r="AY76" s="21"/>
-      <c r="AZ76" s="22"/>
-      <c r="BA76" s="22"/>
-      <c r="BB76" s="23"/>
-      <c r="BC76" s="21"/>
-      <c r="BD76" s="22"/>
-      <c r="BE76" s="22"/>
-      <c r="BF76" s="22"/>
-      <c r="BG76" s="22"/>
-      <c r="BH76" s="22"/>
-      <c r="BI76" s="22"/>
-      <c r="BJ76" s="22"/>
-      <c r="BK76" s="23"/>
+    <row r="82" ht="23.25" customHeight="1">
+      <c r="A82" s="21"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="34"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="22"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="21"/>
+      <c r="S82" s="22"/>
+      <c r="T82" s="22"/>
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="21"/>
+      <c r="Y82" s="22"/>
+      <c r="Z82" s="22"/>
+      <c r="AA82" s="22"/>
+      <c r="AB82" s="22"/>
+      <c r="AC82" s="23"/>
+      <c r="AD82" s="21"/>
+      <c r="AE82" s="22"/>
+      <c r="AF82" s="22"/>
+      <c r="AG82" s="22"/>
+      <c r="AH82" s="23"/>
+      <c r="AI82" s="21"/>
+      <c r="AJ82" s="22"/>
+      <c r="AK82" s="22"/>
+      <c r="AL82" s="22"/>
+      <c r="AM82" s="22"/>
+      <c r="AN82" s="22"/>
+      <c r="AO82" s="23"/>
+      <c r="AP82" s="21"/>
+      <c r="AQ82" s="22"/>
+      <c r="AR82" s="22"/>
+      <c r="AS82" s="23"/>
+      <c r="AT82" s="21"/>
+      <c r="AU82" s="22"/>
+      <c r="AV82" s="22"/>
+      <c r="AW82" s="22"/>
+      <c r="AX82" s="23"/>
+      <c r="AY82" s="21"/>
+      <c r="AZ82" s="22"/>
+      <c r="BA82" s="22"/>
+      <c r="BB82" s="23"/>
+      <c r="BC82" s="21"/>
+      <c r="BD82" s="22"/>
+      <c r="BE82" s="22"/>
+      <c r="BF82" s="22"/>
+      <c r="BG82" s="22"/>
+      <c r="BH82" s="22"/>
+      <c r="BI82" s="22"/>
+      <c r="BJ82" s="22"/>
+      <c r="BK82" s="23"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="83" ht="8.25" customHeight="1">
+      <c r="A83" s="32"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="34"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="2"/>
+      <c r="AN83" s="2"/>
+      <c r="AO83" s="2"/>
+      <c r="AP83" s="2"/>
+      <c r="AQ83" s="2"/>
+      <c r="AR83" s="2"/>
+      <c r="AS83" s="2"/>
+      <c r="AT83" s="2"/>
+      <c r="AU83" s="2"/>
+      <c r="AV83" s="2"/>
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+      <c r="BA83" s="2"/>
+      <c r="BB83" s="2"/>
+      <c r="BC83" s="2"/>
+      <c r="BD83" s="2"/>
+      <c r="BE83" s="2"/>
+      <c r="BF83" s="2"/>
+      <c r="BG83" s="2"/>
+      <c r="BH83" s="2"/>
+      <c r="BI83" s="2"/>
+      <c r="BJ83" s="2"/>
+      <c r="BK83" s="3"/>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="27">
+        <v>37.0</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="34"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="K84" s="18"/>
+      <c r="L84" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
+      <c r="V84" s="17"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="18"/>
+      <c r="AD84" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
+      <c r="AG84" s="17"/>
+      <c r="AH84" s="18"/>
+      <c r="AI84" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AJ84" s="17"/>
+      <c r="AK84" s="17"/>
+      <c r="AL84" s="17"/>
+      <c r="AM84" s="17"/>
+      <c r="AN84" s="17"/>
+      <c r="AO84" s="18"/>
+      <c r="AP84" s="28"/>
+      <c r="AQ84" s="17"/>
+      <c r="AR84" s="17"/>
+      <c r="AS84" s="18"/>
+      <c r="AT84" s="28"/>
+      <c r="AU84" s="17"/>
+      <c r="AV84" s="17"/>
+      <c r="AW84" s="17"/>
+      <c r="AX84" s="18"/>
+      <c r="AY84" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ84" s="17"/>
+      <c r="BA84" s="17"/>
+      <c r="BB84" s="18"/>
+      <c r="BC84" s="28"/>
+      <c r="BD84" s="17"/>
+      <c r="BE84" s="17"/>
+      <c r="BF84" s="17"/>
+      <c r="BG84" s="17"/>
+      <c r="BH84" s="17"/>
+      <c r="BI84" s="17"/>
+      <c r="BJ84" s="17"/>
+      <c r="BK84" s="18"/>
+    </row>
+    <row r="85" ht="27.75" customHeight="1">
+      <c r="A85" s="21"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="34"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="34"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="35"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="22"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="23"/>
+      <c r="X85" s="21"/>
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22"/>
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="23"/>
+      <c r="AD85" s="21"/>
+      <c r="AE85" s="22"/>
+      <c r="AF85" s="22"/>
+      <c r="AG85" s="22"/>
+      <c r="AH85" s="23"/>
+      <c r="AI85" s="21"/>
+      <c r="AJ85" s="22"/>
+      <c r="AK85" s="22"/>
+      <c r="AL85" s="22"/>
+      <c r="AM85" s="22"/>
+      <c r="AN85" s="22"/>
+      <c r="AO85" s="23"/>
+      <c r="AP85" s="21"/>
+      <c r="AQ85" s="22"/>
+      <c r="AR85" s="22"/>
+      <c r="AS85" s="23"/>
+      <c r="AT85" s="21"/>
+      <c r="AU85" s="22"/>
+      <c r="AV85" s="22"/>
+      <c r="AW85" s="22"/>
+      <c r="AX85" s="23"/>
+      <c r="AY85" s="21"/>
+      <c r="AZ85" s="22"/>
+      <c r="BA85" s="22"/>
+      <c r="BB85" s="23"/>
+      <c r="BC85" s="21"/>
+      <c r="BD85" s="22"/>
+      <c r="BE85" s="22"/>
+      <c r="BF85" s="22"/>
+      <c r="BG85" s="22"/>
+      <c r="BH85" s="22"/>
+      <c r="BI85" s="22"/>
+      <c r="BJ85" s="22"/>
+      <c r="BK85" s="23"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="27">
+        <v>38.0</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="34"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="34"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="18"/>
+      <c r="X86" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="18"/>
+      <c r="AD86" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+      <c r="AG86" s="17"/>
+      <c r="AH86" s="18"/>
+      <c r="AI86" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ86" s="17"/>
+      <c r="AK86" s="17"/>
+      <c r="AL86" s="17"/>
+      <c r="AM86" s="17"/>
+      <c r="AN86" s="17"/>
+      <c r="AO86" s="18"/>
+      <c r="AP86" s="28"/>
+      <c r="AQ86" s="17"/>
+      <c r="AR86" s="17"/>
+      <c r="AS86" s="18"/>
+      <c r="AT86" s="28"/>
+      <c r="AU86" s="17"/>
+      <c r="AV86" s="17"/>
+      <c r="AW86" s="17"/>
+      <c r="AX86" s="18"/>
+      <c r="AY86" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ86" s="17"/>
+      <c r="BA86" s="17"/>
+      <c r="BB86" s="18"/>
+      <c r="BC86" s="28"/>
+      <c r="BD86" s="17"/>
+      <c r="BE86" s="17"/>
+      <c r="BF86" s="17"/>
+      <c r="BG86" s="17"/>
+      <c r="BH86" s="17"/>
+      <c r="BI86" s="17"/>
+      <c r="BJ86" s="17"/>
+      <c r="BK86" s="18"/>
+    </row>
+    <row r="87" ht="29.25" customHeight="1">
+      <c r="A87" s="21"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="34"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="34"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="23"/>
+      <c r="X87" s="21"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="23"/>
+      <c r="AD87" s="21"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="23"/>
+      <c r="AI87" s="21"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="22"/>
+      <c r="AM87" s="22"/>
+      <c r="AN87" s="22"/>
+      <c r="AO87" s="23"/>
+      <c r="AP87" s="21"/>
+      <c r="AQ87" s="22"/>
+      <c r="AR87" s="22"/>
+      <c r="AS87" s="23"/>
+      <c r="AT87" s="21"/>
+      <c r="AU87" s="22"/>
+      <c r="AV87" s="22"/>
+      <c r="AW87" s="22"/>
+      <c r="AX87" s="23"/>
+      <c r="AY87" s="21"/>
+      <c r="AZ87" s="22"/>
+      <c r="BA87" s="22"/>
+      <c r="BB87" s="23"/>
+      <c r="BC87" s="21"/>
+      <c r="BD87" s="22"/>
+      <c r="BE87" s="22"/>
+      <c r="BF87" s="22"/>
+      <c r="BG87" s="22"/>
+      <c r="BH87" s="22"/>
+      <c r="BI87" s="22"/>
+      <c r="BJ87" s="22"/>
+      <c r="BK87" s="23"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="27">
+        <v>39.0</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="34"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="34"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="17"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y88" s="17"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="17"/>
+      <c r="AB88" s="17"/>
+      <c r="AC88" s="18"/>
+      <c r="AD88" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE88" s="17"/>
+      <c r="AF88" s="17"/>
+      <c r="AG88" s="17"/>
+      <c r="AH88" s="18"/>
+      <c r="AI88" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+      <c r="AL88" s="17"/>
+      <c r="AM88" s="17"/>
+      <c r="AN88" s="17"/>
+      <c r="AO88" s="18"/>
+      <c r="AP88" s="28"/>
+      <c r="AQ88" s="17"/>
+      <c r="AR88" s="17"/>
+      <c r="AS88" s="18"/>
+      <c r="AT88" s="28"/>
+      <c r="AU88" s="17"/>
+      <c r="AV88" s="17"/>
+      <c r="AW88" s="17"/>
+      <c r="AX88" s="18"/>
+      <c r="AY88" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ88" s="17"/>
+      <c r="BA88" s="17"/>
+      <c r="BB88" s="18"/>
+      <c r="BC88" s="28"/>
+      <c r="BD88" s="17"/>
+      <c r="BE88" s="17"/>
+      <c r="BF88" s="17"/>
+      <c r="BG88" s="17"/>
+      <c r="BH88" s="17"/>
+      <c r="BI88" s="17"/>
+      <c r="BJ88" s="17"/>
+      <c r="BK88" s="18"/>
+    </row>
+    <row r="89" ht="28.5" customHeight="1">
+      <c r="A89" s="21"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="34"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="34"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="22"/>
+      <c r="P89" s="22"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="22"/>
+      <c r="T89" s="22"/>
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="23"/>
+      <c r="X89" s="21"/>
+      <c r="Y89" s="22"/>
+      <c r="Z89" s="22"/>
+      <c r="AA89" s="22"/>
+      <c r="AB89" s="22"/>
+      <c r="AC89" s="23"/>
+      <c r="AD89" s="21"/>
+      <c r="AE89" s="22"/>
+      <c r="AF89" s="22"/>
+      <c r="AG89" s="22"/>
+      <c r="AH89" s="23"/>
+      <c r="AI89" s="21"/>
+      <c r="AJ89" s="22"/>
+      <c r="AK89" s="22"/>
+      <c r="AL89" s="22"/>
+      <c r="AM89" s="22"/>
+      <c r="AN89" s="22"/>
+      <c r="AO89" s="23"/>
+      <c r="AP89" s="21"/>
+      <c r="AQ89" s="22"/>
+      <c r="AR89" s="22"/>
+      <c r="AS89" s="23"/>
+      <c r="AT89" s="21"/>
+      <c r="AU89" s="22"/>
+      <c r="AV89" s="22"/>
+      <c r="AW89" s="22"/>
+      <c r="AX89" s="23"/>
+      <c r="AY89" s="21"/>
+      <c r="AZ89" s="22"/>
+      <c r="BA89" s="22"/>
+      <c r="BB89" s="23"/>
+      <c r="BC89" s="21"/>
+      <c r="BD89" s="22"/>
+      <c r="BE89" s="22"/>
+      <c r="BF89" s="22"/>
+      <c r="BG89" s="22"/>
+      <c r="BH89" s="22"/>
+      <c r="BI89" s="22"/>
+      <c r="BJ89" s="22"/>
+      <c r="BK89" s="23"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="27">
+        <v>40.0</v>
+      </c>
+      <c r="B90" s="18"/>
+      <c r="C90" s="34"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="34"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="S90" s="17"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="17"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y90" s="17"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="17"/>
+      <c r="AB90" s="17"/>
+      <c r="AC90" s="18"/>
+      <c r="AD90" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE90" s="17"/>
+      <c r="AF90" s="17"/>
+      <c r="AG90" s="17"/>
+      <c r="AH90" s="18"/>
+      <c r="AI90" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="17"/>
+      <c r="AL90" s="17"/>
+      <c r="AM90" s="17"/>
+      <c r="AN90" s="17"/>
+      <c r="AO90" s="18"/>
+      <c r="AP90" s="28"/>
+      <c r="AQ90" s="17"/>
+      <c r="AR90" s="17"/>
+      <c r="AS90" s="18"/>
+      <c r="AT90" s="28"/>
+      <c r="AU90" s="17"/>
+      <c r="AV90" s="17"/>
+      <c r="AW90" s="17"/>
+      <c r="AX90" s="18"/>
+      <c r="AY90" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ90" s="17"/>
+      <c r="BA90" s="17"/>
+      <c r="BB90" s="18"/>
+      <c r="BC90" s="28"/>
+      <c r="BD90" s="17"/>
+      <c r="BE90" s="17"/>
+      <c r="BF90" s="17"/>
+      <c r="BG90" s="17"/>
+      <c r="BH90" s="17"/>
+      <c r="BI90" s="17"/>
+      <c r="BJ90" s="17"/>
+      <c r="BK90" s="18"/>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" s="21"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="34"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="34"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="22"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="22"/>
+      <c r="T91" s="22"/>
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="23"/>
+      <c r="X91" s="21"/>
+      <c r="Y91" s="22"/>
+      <c r="Z91" s="22"/>
+      <c r="AA91" s="22"/>
+      <c r="AB91" s="22"/>
+      <c r="AC91" s="23"/>
+      <c r="AD91" s="21"/>
+      <c r="AE91" s="22"/>
+      <c r="AF91" s="22"/>
+      <c r="AG91" s="22"/>
+      <c r="AH91" s="23"/>
+      <c r="AI91" s="21"/>
+      <c r="AJ91" s="22"/>
+      <c r="AK91" s="22"/>
+      <c r="AL91" s="22"/>
+      <c r="AM91" s="22"/>
+      <c r="AN91" s="22"/>
+      <c r="AO91" s="23"/>
+      <c r="AP91" s="21"/>
+      <c r="AQ91" s="22"/>
+      <c r="AR91" s="22"/>
+      <c r="AS91" s="23"/>
+      <c r="AT91" s="21"/>
+      <c r="AU91" s="22"/>
+      <c r="AV91" s="22"/>
+      <c r="AW91" s="22"/>
+      <c r="AX91" s="23"/>
+      <c r="AY91" s="21"/>
+      <c r="AZ91" s="22"/>
+      <c r="BA91" s="22"/>
+      <c r="BB91" s="23"/>
+      <c r="BC91" s="21"/>
+      <c r="BD91" s="22"/>
+      <c r="BE91" s="22"/>
+      <c r="BF91" s="22"/>
+      <c r="BG91" s="22"/>
+      <c r="BH91" s="22"/>
+      <c r="BI91" s="22"/>
+      <c r="BJ91" s="22"/>
+      <c r="BK91" s="23"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="27">
+        <v>41.0</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="34"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="S92" s="17"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="17"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y92" s="17"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="17"/>
+      <c r="AB92" s="17"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE92" s="17"/>
+      <c r="AF92" s="17"/>
+      <c r="AG92" s="17"/>
+      <c r="AH92" s="18"/>
+      <c r="AI92" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+      <c r="AL92" s="17"/>
+      <c r="AM92" s="17"/>
+      <c r="AN92" s="17"/>
+      <c r="AO92" s="18"/>
+      <c r="AP92" s="28"/>
+      <c r="AQ92" s="17"/>
+      <c r="AR92" s="17"/>
+      <c r="AS92" s="18"/>
+      <c r="AT92" s="28"/>
+      <c r="AU92" s="17"/>
+      <c r="AV92" s="17"/>
+      <c r="AW92" s="17"/>
+      <c r="AX92" s="18"/>
+      <c r="AY92" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ92" s="17"/>
+      <c r="BA92" s="17"/>
+      <c r="BB92" s="18"/>
+      <c r="BC92" s="28"/>
+      <c r="BD92" s="17"/>
+      <c r="BE92" s="17"/>
+      <c r="BF92" s="17"/>
+      <c r="BG92" s="17"/>
+      <c r="BH92" s="17"/>
+      <c r="BI92" s="17"/>
+      <c r="BJ92" s="17"/>
+      <c r="BK92" s="18"/>
+    </row>
+    <row r="93" ht="26.25" customHeight="1">
+      <c r="A93" s="21"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="34"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="22"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="22"/>
+      <c r="P93" s="22"/>
+      <c r="Q93" s="23"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="22"/>
+      <c r="T93" s="22"/>
+      <c r="U93" s="22"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="23"/>
+      <c r="X93" s="21"/>
+      <c r="Y93" s="22"/>
+      <c r="Z93" s="22"/>
+      <c r="AA93" s="22"/>
+      <c r="AB93" s="22"/>
+      <c r="AC93" s="23"/>
+      <c r="AD93" s="21"/>
+      <c r="AE93" s="22"/>
+      <c r="AF93" s="22"/>
+      <c r="AG93" s="22"/>
+      <c r="AH93" s="23"/>
+      <c r="AI93" s="21"/>
+      <c r="AJ93" s="22"/>
+      <c r="AK93" s="22"/>
+      <c r="AL93" s="22"/>
+      <c r="AM93" s="22"/>
+      <c r="AN93" s="22"/>
+      <c r="AO93" s="23"/>
+      <c r="AP93" s="21"/>
+      <c r="AQ93" s="22"/>
+      <c r="AR93" s="22"/>
+      <c r="AS93" s="23"/>
+      <c r="AT93" s="21"/>
+      <c r="AU93" s="22"/>
+      <c r="AV93" s="22"/>
+      <c r="AW93" s="22"/>
+      <c r="AX93" s="23"/>
+      <c r="AY93" s="21"/>
+      <c r="AZ93" s="22"/>
+      <c r="BA93" s="22"/>
+      <c r="BB93" s="23"/>
+      <c r="BC93" s="21"/>
+      <c r="BD93" s="22"/>
+      <c r="BE93" s="22"/>
+      <c r="BF93" s="22"/>
+      <c r="BG93" s="22"/>
+      <c r="BH93" s="22"/>
+      <c r="BI93" s="22"/>
+      <c r="BJ93" s="22"/>
+      <c r="BK93" s="23"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="27">
+        <v>42.0</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="34"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="34"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="S94" s="17"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="17"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y94" s="17"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="17"/>
+      <c r="AB94" s="17"/>
+      <c r="AC94" s="18"/>
+      <c r="AD94" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE94" s="17"/>
+      <c r="AF94" s="17"/>
+      <c r="AG94" s="17"/>
+      <c r="AH94" s="18"/>
+      <c r="AI94" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+      <c r="AL94" s="17"/>
+      <c r="AM94" s="17"/>
+      <c r="AN94" s="17"/>
+      <c r="AO94" s="18"/>
+      <c r="AP94" s="28"/>
+      <c r="AQ94" s="17"/>
+      <c r="AR94" s="17"/>
+      <c r="AS94" s="18"/>
+      <c r="AT94" s="28"/>
+      <c r="AU94" s="17"/>
+      <c r="AV94" s="17"/>
+      <c r="AW94" s="17"/>
+      <c r="AX94" s="18"/>
+      <c r="AY94" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ94" s="17"/>
+      <c r="BA94" s="17"/>
+      <c r="BB94" s="18"/>
+      <c r="BC94" s="28"/>
+      <c r="BD94" s="17"/>
+      <c r="BE94" s="17"/>
+      <c r="BF94" s="17"/>
+      <c r="BG94" s="17"/>
+      <c r="BH94" s="17"/>
+      <c r="BI94" s="17"/>
+      <c r="BJ94" s="17"/>
+      <c r="BK94" s="18"/>
+    </row>
+    <row r="95" ht="21.75" customHeight="1">
+      <c r="A95" s="21"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="34"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="34"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="22"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="22"/>
+      <c r="T95" s="22"/>
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="23"/>
+      <c r="X95" s="21"/>
+      <c r="Y95" s="22"/>
+      <c r="Z95" s="22"/>
+      <c r="AA95" s="22"/>
+      <c r="AB95" s="22"/>
+      <c r="AC95" s="23"/>
+      <c r="AD95" s="21"/>
+      <c r="AE95" s="22"/>
+      <c r="AF95" s="22"/>
+      <c r="AG95" s="22"/>
+      <c r="AH95" s="23"/>
+      <c r="AI95" s="21"/>
+      <c r="AJ95" s="22"/>
+      <c r="AK95" s="22"/>
+      <c r="AL95" s="22"/>
+      <c r="AM95" s="22"/>
+      <c r="AN95" s="22"/>
+      <c r="AO95" s="23"/>
+      <c r="AP95" s="21"/>
+      <c r="AQ95" s="22"/>
+      <c r="AR95" s="22"/>
+      <c r="AS95" s="23"/>
+      <c r="AT95" s="21"/>
+      <c r="AU95" s="22"/>
+      <c r="AV95" s="22"/>
+      <c r="AW95" s="22"/>
+      <c r="AX95" s="23"/>
+      <c r="AY95" s="21"/>
+      <c r="AZ95" s="22"/>
+      <c r="BA95" s="22"/>
+      <c r="BB95" s="23"/>
+      <c r="BC95" s="21"/>
+      <c r="BD95" s="22"/>
+      <c r="BE95" s="22"/>
+      <c r="BF95" s="22"/>
+      <c r="BG95" s="22"/>
+      <c r="BH95" s="22"/>
+      <c r="BI95" s="22"/>
+      <c r="BJ95" s="22"/>
+      <c r="BK95" s="23"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="27">
+        <v>43.0</v>
+      </c>
+      <c r="B96" s="18"/>
+      <c r="C96" s="34"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="34"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="S96" s="17"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="17"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="18"/>
+      <c r="X96" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y96" s="17"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="17"/>
+      <c r="AB96" s="17"/>
+      <c r="AC96" s="18"/>
+      <c r="AD96" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE96" s="17"/>
+      <c r="AF96" s="17"/>
+      <c r="AG96" s="17"/>
+      <c r="AH96" s="18"/>
+      <c r="AI96" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ96" s="17"/>
+      <c r="AK96" s="17"/>
+      <c r="AL96" s="17"/>
+      <c r="AM96" s="17"/>
+      <c r="AN96" s="17"/>
+      <c r="AO96" s="18"/>
+      <c r="AP96" s="28"/>
+      <c r="AQ96" s="17"/>
+      <c r="AR96" s="17"/>
+      <c r="AS96" s="18"/>
+      <c r="AT96" s="28"/>
+      <c r="AU96" s="17"/>
+      <c r="AV96" s="17"/>
+      <c r="AW96" s="17"/>
+      <c r="AX96" s="18"/>
+      <c r="AY96" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ96" s="17"/>
+      <c r="BA96" s="17"/>
+      <c r="BB96" s="18"/>
+      <c r="BC96" s="28"/>
+      <c r="BD96" s="17"/>
+      <c r="BE96" s="17"/>
+      <c r="BF96" s="17"/>
+      <c r="BG96" s="17"/>
+      <c r="BH96" s="17"/>
+      <c r="BI96" s="17"/>
+      <c r="BJ96" s="17"/>
+      <c r="BK96" s="18"/>
+    </row>
+    <row r="97" ht="24.75" customHeight="1">
+      <c r="A97" s="21"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="34"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="34"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="35"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="22"/>
+      <c r="T97" s="22"/>
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="23"/>
+      <c r="X97" s="21"/>
+      <c r="Y97" s="22"/>
+      <c r="Z97" s="22"/>
+      <c r="AA97" s="22"/>
+      <c r="AB97" s="22"/>
+      <c r="AC97" s="23"/>
+      <c r="AD97" s="21"/>
+      <c r="AE97" s="22"/>
+      <c r="AF97" s="22"/>
+      <c r="AG97" s="22"/>
+      <c r="AH97" s="23"/>
+      <c r="AI97" s="21"/>
+      <c r="AJ97" s="22"/>
+      <c r="AK97" s="22"/>
+      <c r="AL97" s="22"/>
+      <c r="AM97" s="22"/>
+      <c r="AN97" s="22"/>
+      <c r="AO97" s="23"/>
+      <c r="AP97" s="21"/>
+      <c r="AQ97" s="22"/>
+      <c r="AR97" s="22"/>
+      <c r="AS97" s="23"/>
+      <c r="AT97" s="21"/>
+      <c r="AU97" s="22"/>
+      <c r="AV97" s="22"/>
+      <c r="AW97" s="22"/>
+      <c r="AX97" s="23"/>
+      <c r="AY97" s="21"/>
+      <c r="AZ97" s="22"/>
+      <c r="BA97" s="22"/>
+      <c r="BB97" s="23"/>
+      <c r="BC97" s="21"/>
+      <c r="BD97" s="22"/>
+      <c r="BE97" s="22"/>
+      <c r="BF97" s="22"/>
+      <c r="BG97" s="22"/>
+      <c r="BH97" s="22"/>
+      <c r="BI97" s="22"/>
+      <c r="BJ97" s="22"/>
+      <c r="BK97" s="23"/>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="27">
+        <v>44.0</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="34"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="34"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="35"/>
+      <c r="L98" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="S98" s="17"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="17"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="18"/>
+      <c r="X98" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y98" s="17"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="17"/>
+      <c r="AB98" s="17"/>
+      <c r="AC98" s="18"/>
+      <c r="AD98" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE98" s="17"/>
+      <c r="AF98" s="17"/>
+      <c r="AG98" s="17"/>
+      <c r="AH98" s="18"/>
+      <c r="AI98" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+      <c r="AL98" s="17"/>
+      <c r="AM98" s="17"/>
+      <c r="AN98" s="17"/>
+      <c r="AO98" s="18"/>
+      <c r="AP98" s="28"/>
+      <c r="AQ98" s="17"/>
+      <c r="AR98" s="17"/>
+      <c r="AS98" s="18"/>
+      <c r="AT98" s="28"/>
+      <c r="AU98" s="17"/>
+      <c r="AV98" s="17"/>
+      <c r="AW98" s="17"/>
+      <c r="AX98" s="18"/>
+      <c r="AY98" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ98" s="17"/>
+      <c r="BA98" s="17"/>
+      <c r="BB98" s="18"/>
+      <c r="BC98" s="28"/>
+      <c r="BD98" s="17"/>
+      <c r="BE98" s="17"/>
+      <c r="BF98" s="17"/>
+      <c r="BG98" s="17"/>
+      <c r="BH98" s="17"/>
+      <c r="BI98" s="17"/>
+      <c r="BJ98" s="17"/>
+      <c r="BK98" s="18"/>
+    </row>
+    <row r="99" ht="23.25" customHeight="1">
+      <c r="A99" s="21"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="34"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="34"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="35"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="23"/>
+      <c r="X99" s="21"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="23"/>
+      <c r="AD99" s="21"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
+      <c r="AG99" s="22"/>
+      <c r="AH99" s="23"/>
+      <c r="AI99" s="21"/>
+      <c r="AJ99" s="22"/>
+      <c r="AK99" s="22"/>
+      <c r="AL99" s="22"/>
+      <c r="AM99" s="22"/>
+      <c r="AN99" s="22"/>
+      <c r="AO99" s="23"/>
+      <c r="AP99" s="21"/>
+      <c r="AQ99" s="22"/>
+      <c r="AR99" s="22"/>
+      <c r="AS99" s="23"/>
+      <c r="AT99" s="21"/>
+      <c r="AU99" s="22"/>
+      <c r="AV99" s="22"/>
+      <c r="AW99" s="22"/>
+      <c r="AX99" s="23"/>
+      <c r="AY99" s="21"/>
+      <c r="AZ99" s="22"/>
+      <c r="BA99" s="22"/>
+      <c r="BB99" s="23"/>
+      <c r="BC99" s="21"/>
+      <c r="BD99" s="22"/>
+      <c r="BE99" s="22"/>
+      <c r="BF99" s="22"/>
+      <c r="BG99" s="22"/>
+      <c r="BH99" s="22"/>
+      <c r="BI99" s="22"/>
+      <c r="BJ99" s="22"/>
+      <c r="BK99" s="23"/>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="27">
+        <v>45.0</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="34"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="34"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="34"/>
+      <c r="K100" s="35"/>
+      <c r="L100" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="18"/>
+      <c r="X100" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="17"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="18"/>
+      <c r="AD100" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
+      <c r="AG100" s="17"/>
+      <c r="AH100" s="18"/>
+      <c r="AI100" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="AJ100" s="17"/>
+      <c r="AK100" s="17"/>
+      <c r="AL100" s="17"/>
+      <c r="AM100" s="17"/>
+      <c r="AN100" s="17"/>
+      <c r="AO100" s="18"/>
+      <c r="AP100" s="28"/>
+      <c r="AQ100" s="17"/>
+      <c r="AR100" s="17"/>
+      <c r="AS100" s="18"/>
+      <c r="AT100" s="28"/>
+      <c r="AU100" s="17"/>
+      <c r="AV100" s="17"/>
+      <c r="AW100" s="17"/>
+      <c r="AX100" s="18"/>
+      <c r="AY100" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ100" s="17"/>
+      <c r="BA100" s="17"/>
+      <c r="BB100" s="18"/>
+      <c r="BC100" s="28"/>
+      <c r="BD100" s="17"/>
+      <c r="BE100" s="17"/>
+      <c r="BF100" s="17"/>
+      <c r="BG100" s="17"/>
+      <c r="BH100" s="17"/>
+      <c r="BI100" s="17"/>
+      <c r="BJ100" s="17"/>
+      <c r="BK100" s="18"/>
+    </row>
+    <row r="101" ht="23.25" customHeight="1">
+      <c r="A101" s="21"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="34"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="34"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="22"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="22"/>
+      <c r="P101" s="22"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="22"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
+      <c r="V101" s="22"/>
+      <c r="W101" s="23"/>
+      <c r="X101" s="21"/>
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="22"/>
+      <c r="AB101" s="22"/>
+      <c r="AC101" s="23"/>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="22"/>
+      <c r="AF101" s="22"/>
+      <c r="AG101" s="22"/>
+      <c r="AH101" s="23"/>
+      <c r="AI101" s="21"/>
+      <c r="AJ101" s="22"/>
+      <c r="AK101" s="22"/>
+      <c r="AL101" s="22"/>
+      <c r="AM101" s="22"/>
+      <c r="AN101" s="22"/>
+      <c r="AO101" s="23"/>
+      <c r="AP101" s="21"/>
+      <c r="AQ101" s="22"/>
+      <c r="AR101" s="22"/>
+      <c r="AS101" s="23"/>
+      <c r="AT101" s="21"/>
+      <c r="AU101" s="22"/>
+      <c r="AV101" s="22"/>
+      <c r="AW101" s="22"/>
+      <c r="AX101" s="23"/>
+      <c r="AY101" s="21"/>
+      <c r="AZ101" s="22"/>
+      <c r="BA101" s="22"/>
+      <c r="BB101" s="23"/>
+      <c r="BC101" s="21"/>
+      <c r="BD101" s="22"/>
+      <c r="BE101" s="22"/>
+      <c r="BF101" s="22"/>
+      <c r="BG101" s="22"/>
+      <c r="BH101" s="22"/>
+      <c r="BI101" s="22"/>
+      <c r="BJ101" s="22"/>
+      <c r="BK101" s="23"/>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="27">
+        <v>46.0</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="34"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="34"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="34"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="S102" s="17"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="17"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="18"/>
+      <c r="X102" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y102" s="17"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="17"/>
+      <c r="AB102" s="17"/>
+      <c r="AC102" s="18"/>
+      <c r="AD102" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE102" s="17"/>
+      <c r="AF102" s="17"/>
+      <c r="AG102" s="17"/>
+      <c r="AH102" s="18"/>
+      <c r="AI102" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="AJ102" s="17"/>
+      <c r="AK102" s="17"/>
+      <c r="AL102" s="17"/>
+      <c r="AM102" s="17"/>
+      <c r="AN102" s="17"/>
+      <c r="AO102" s="18"/>
+      <c r="AP102" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ102" s="17"/>
+      <c r="AR102" s="17"/>
+      <c r="AS102" s="18"/>
+      <c r="AT102" s="28"/>
+      <c r="AU102" s="17"/>
+      <c r="AV102" s="17"/>
+      <c r="AW102" s="17"/>
+      <c r="AX102" s="18"/>
+      <c r="AY102" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ102" s="17"/>
+      <c r="BA102" s="17"/>
+      <c r="BB102" s="18"/>
+      <c r="BC102" s="28"/>
+      <c r="BD102" s="17"/>
+      <c r="BE102" s="17"/>
+      <c r="BF102" s="17"/>
+      <c r="BG102" s="17"/>
+      <c r="BH102" s="17"/>
+      <c r="BI102" s="17"/>
+      <c r="BJ102" s="17"/>
+      <c r="BK102" s="18"/>
+    </row>
+    <row r="103" ht="24.0" customHeight="1">
+      <c r="A103" s="21"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="34"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="34"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="23"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="22"/>
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="21"/>
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="23"/>
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="22"/>
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="21"/>
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="21"/>
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="23"/>
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="23"/>
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="22"/>
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="22"/>
+      <c r="BK103" s="23"/>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="27">
+        <v>47.0</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="34"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="34"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="34"/>
+      <c r="K104" s="35"/>
+      <c r="L104" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="S104" s="17"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="18"/>
+      <c r="X104" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y104" s="17"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="17"/>
+      <c r="AB104" s="17"/>
+      <c r="AC104" s="18"/>
+      <c r="AD104" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE104" s="17"/>
+      <c r="AF104" s="17"/>
+      <c r="AG104" s="17"/>
+      <c r="AH104" s="18"/>
+      <c r="AI104" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ104" s="17"/>
+      <c r="AK104" s="17"/>
+      <c r="AL104" s="17"/>
+      <c r="AM104" s="17"/>
+      <c r="AN104" s="17"/>
+      <c r="AO104" s="18"/>
+      <c r="AP104" s="28"/>
+      <c r="AQ104" s="17"/>
+      <c r="AR104" s="17"/>
+      <c r="AS104" s="18"/>
+      <c r="AT104" s="28"/>
+      <c r="AU104" s="17"/>
+      <c r="AV104" s="17"/>
+      <c r="AW104" s="17"/>
+      <c r="AX104" s="18"/>
+      <c r="AY104" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ104" s="17"/>
+      <c r="BA104" s="17"/>
+      <c r="BB104" s="18"/>
+      <c r="BC104" s="28"/>
+      <c r="BD104" s="17"/>
+      <c r="BE104" s="17"/>
+      <c r="BF104" s="17"/>
+      <c r="BG104" s="17"/>
+      <c r="BH104" s="17"/>
+      <c r="BI104" s="17"/>
+      <c r="BJ104" s="17"/>
+      <c r="BK104" s="18"/>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="21"/>
+      <c r="B105" s="23"/>
+      <c r="C105" s="34"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="34"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="35"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="22"/>
+      <c r="T105" s="22"/>
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="23"/>
+      <c r="X105" s="21"/>
+      <c r="Y105" s="22"/>
+      <c r="Z105" s="22"/>
+      <c r="AA105" s="22"/>
+      <c r="AB105" s="22"/>
+      <c r="AC105" s="23"/>
+      <c r="AD105" s="21"/>
+      <c r="AE105" s="22"/>
+      <c r="AF105" s="22"/>
+      <c r="AG105" s="22"/>
+      <c r="AH105" s="23"/>
+      <c r="AI105" s="21"/>
+      <c r="AJ105" s="22"/>
+      <c r="AK105" s="22"/>
+      <c r="AL105" s="22"/>
+      <c r="AM105" s="22"/>
+      <c r="AN105" s="22"/>
+      <c r="AO105" s="23"/>
+      <c r="AP105" s="21"/>
+      <c r="AQ105" s="22"/>
+      <c r="AR105" s="22"/>
+      <c r="AS105" s="23"/>
+      <c r="AT105" s="21"/>
+      <c r="AU105" s="22"/>
+      <c r="AV105" s="22"/>
+      <c r="AW105" s="22"/>
+      <c r="AX105" s="23"/>
+      <c r="AY105" s="21"/>
+      <c r="AZ105" s="22"/>
+      <c r="BA105" s="22"/>
+      <c r="BB105" s="23"/>
+      <c r="BC105" s="21"/>
+      <c r="BD105" s="22"/>
+      <c r="BE105" s="22"/>
+      <c r="BF105" s="22"/>
+      <c r="BG105" s="22"/>
+      <c r="BH105" s="22"/>
+      <c r="BI105" s="22"/>
+      <c r="BJ105" s="22"/>
+      <c r="BK105" s="23"/>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="27">
+        <v>48.0</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="34"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="34"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="35"/>
+      <c r="L106" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="18"/>
+      <c r="R106" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="S106" s="17"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="17"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="18"/>
+      <c r="X106" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y106" s="17"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="17"/>
+      <c r="AB106" s="17"/>
+      <c r="AC106" s="18"/>
+      <c r="AD106" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE106" s="17"/>
+      <c r="AF106" s="17"/>
+      <c r="AG106" s="17"/>
+      <c r="AH106" s="18"/>
+      <c r="AI106" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ106" s="17"/>
+      <c r="AK106" s="17"/>
+      <c r="AL106" s="17"/>
+      <c r="AM106" s="17"/>
+      <c r="AN106" s="17"/>
+      <c r="AO106" s="18"/>
+      <c r="AP106" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ106" s="17"/>
+      <c r="AR106" s="17"/>
+      <c r="AS106" s="18"/>
+      <c r="AT106" s="28"/>
+      <c r="AU106" s="17"/>
+      <c r="AV106" s="17"/>
+      <c r="AW106" s="17"/>
+      <c r="AX106" s="18"/>
+      <c r="AY106" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ106" s="17"/>
+      <c r="BA106" s="17"/>
+      <c r="BB106" s="18"/>
+      <c r="BC106" s="28"/>
+      <c r="BD106" s="17"/>
+      <c r="BE106" s="17"/>
+      <c r="BF106" s="17"/>
+      <c r="BG106" s="17"/>
+      <c r="BH106" s="17"/>
+      <c r="BI106" s="17"/>
+      <c r="BJ106" s="17"/>
+      <c r="BK106" s="18"/>
+    </row>
+    <row r="107" ht="26.25" customHeight="1">
+      <c r="A107" s="21"/>
+      <c r="B107" s="23"/>
+      <c r="C107" s="34"/>
+      <c r="E107" s="35"/>
+      <c r="F107" s="34"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="35"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="22"/>
+      <c r="V107" s="22"/>
+      <c r="W107" s="23"/>
+      <c r="X107" s="21"/>
+      <c r="Y107" s="22"/>
+      <c r="Z107" s="22"/>
+      <c r="AA107" s="22"/>
+      <c r="AB107" s="22"/>
+      <c r="AC107" s="23"/>
+      <c r="AD107" s="21"/>
+      <c r="AE107" s="22"/>
+      <c r="AF107" s="22"/>
+      <c r="AG107" s="22"/>
+      <c r="AH107" s="23"/>
+      <c r="AI107" s="21"/>
+      <c r="AJ107" s="22"/>
+      <c r="AK107" s="22"/>
+      <c r="AL107" s="22"/>
+      <c r="AM107" s="22"/>
+      <c r="AN107" s="22"/>
+      <c r="AO107" s="23"/>
+      <c r="AP107" s="21"/>
+      <c r="AQ107" s="22"/>
+      <c r="AR107" s="22"/>
+      <c r="AS107" s="23"/>
+      <c r="AT107" s="21"/>
+      <c r="AU107" s="22"/>
+      <c r="AV107" s="22"/>
+      <c r="AW107" s="22"/>
+      <c r="AX107" s="23"/>
+      <c r="AY107" s="21"/>
+      <c r="AZ107" s="22"/>
+      <c r="BA107" s="22"/>
+      <c r="BB107" s="23"/>
+      <c r="BC107" s="21"/>
+      <c r="BD107" s="22"/>
+      <c r="BE107" s="22"/>
+      <c r="BF107" s="22"/>
+      <c r="BG107" s="22"/>
+      <c r="BH107" s="22"/>
+      <c r="BI107" s="22"/>
+      <c r="BJ107" s="22"/>
+      <c r="BK107" s="23"/>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="27">
+        <v>49.0</v>
+      </c>
+      <c r="B108" s="18"/>
+      <c r="C108" s="34"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="34"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="35"/>
+      <c r="L108" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="18"/>
+      <c r="R108" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="17"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="18"/>
+      <c r="X108" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y108" s="17"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="17"/>
+      <c r="AB108" s="17"/>
+      <c r="AC108" s="18"/>
+      <c r="AD108" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="AE108" s="17"/>
+      <c r="AF108" s="17"/>
+      <c r="AG108" s="17"/>
+      <c r="AH108" s="18"/>
+      <c r="AI108" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ108" s="17"/>
+      <c r="AK108" s="17"/>
+      <c r="AL108" s="17"/>
+      <c r="AM108" s="17"/>
+      <c r="AN108" s="17"/>
+      <c r="AO108" s="18"/>
+      <c r="AP108" s="53"/>
+      <c r="AQ108" s="17"/>
+      <c r="AR108" s="17"/>
+      <c r="AS108" s="18"/>
+      <c r="AT108" s="28"/>
+      <c r="AU108" s="17"/>
+      <c r="AV108" s="17"/>
+      <c r="AW108" s="17"/>
+      <c r="AX108" s="18"/>
+      <c r="AY108" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ108" s="17"/>
+      <c r="BA108" s="17"/>
+      <c r="BB108" s="18"/>
+      <c r="BC108" s="28"/>
+      <c r="BD108" s="17"/>
+      <c r="BE108" s="17"/>
+      <c r="BF108" s="17"/>
+      <c r="BG108" s="17"/>
+      <c r="BH108" s="17"/>
+      <c r="BI108" s="17"/>
+      <c r="BJ108" s="17"/>
+      <c r="BK108" s="18"/>
+    </row>
+    <row r="109" ht="21.0" customHeight="1">
+      <c r="A109" s="21"/>
+      <c r="B109" s="23"/>
+      <c r="C109" s="34"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="34"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="35"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="23"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="23"/>
+      <c r="X109" s="21"/>
+      <c r="Y109" s="22"/>
+      <c r="Z109" s="22"/>
+      <c r="AA109" s="22"/>
+      <c r="AB109" s="22"/>
+      <c r="AC109" s="23"/>
+      <c r="AD109" s="21"/>
+      <c r="AE109" s="22"/>
+      <c r="AF109" s="22"/>
+      <c r="AG109" s="22"/>
+      <c r="AH109" s="23"/>
+      <c r="AI109" s="21"/>
+      <c r="AJ109" s="22"/>
+      <c r="AK109" s="22"/>
+      <c r="AL109" s="22"/>
+      <c r="AM109" s="22"/>
+      <c r="AN109" s="22"/>
+      <c r="AO109" s="23"/>
+      <c r="AP109" s="21"/>
+      <c r="AQ109" s="22"/>
+      <c r="AR109" s="22"/>
+      <c r="AS109" s="23"/>
+      <c r="AT109" s="21"/>
+      <c r="AU109" s="22"/>
+      <c r="AV109" s="22"/>
+      <c r="AW109" s="22"/>
+      <c r="AX109" s="23"/>
+      <c r="AY109" s="21"/>
+      <c r="AZ109" s="22"/>
+      <c r="BA109" s="22"/>
+      <c r="BB109" s="23"/>
+      <c r="BC109" s="21"/>
+      <c r="BD109" s="22"/>
+      <c r="BE109" s="22"/>
+      <c r="BF109" s="22"/>
+      <c r="BG109" s="22"/>
+      <c r="BH109" s="22"/>
+      <c r="BI109" s="22"/>
+      <c r="BJ109" s="22"/>
+      <c r="BK109" s="23"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="27">
+        <v>50.0</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="34"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="34"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="35"/>
+      <c r="L110" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="18"/>
+      <c r="R110" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="S110" s="17"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="17"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="18"/>
+      <c r="X110" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="17"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="18"/>
+      <c r="AD110" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="18"/>
+      <c r="AI110" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="17"/>
+      <c r="AN110" s="17"/>
+      <c r="AO110" s="18"/>
+      <c r="AP110" s="28"/>
+      <c r="AQ110" s="17"/>
+      <c r="AR110" s="17"/>
+      <c r="AS110" s="18"/>
+      <c r="AT110" s="28"/>
+      <c r="AU110" s="17"/>
+      <c r="AV110" s="17"/>
+      <c r="AW110" s="17"/>
+      <c r="AX110" s="18"/>
+      <c r="AY110" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ110" s="17"/>
+      <c r="BA110" s="17"/>
+      <c r="BB110" s="18"/>
+      <c r="BC110" s="28"/>
+      <c r="BD110" s="17"/>
+      <c r="BE110" s="17"/>
+      <c r="BF110" s="17"/>
+      <c r="BG110" s="17"/>
+      <c r="BH110" s="17"/>
+      <c r="BI110" s="17"/>
+      <c r="BJ110" s="17"/>
+      <c r="BK110" s="18"/>
+    </row>
+    <row r="111" ht="19.5" customHeight="1">
+      <c r="A111" s="21"/>
+      <c r="B111" s="23"/>
+      <c r="C111" s="34"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="34"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="35"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="23"/>
+      <c r="X111" s="21"/>
+      <c r="Y111" s="22"/>
+      <c r="Z111" s="22"/>
+      <c r="AA111" s="22"/>
+      <c r="AB111" s="22"/>
+      <c r="AC111" s="23"/>
+      <c r="AD111" s="21"/>
+      <c r="AE111" s="22"/>
+      <c r="AF111" s="22"/>
+      <c r="AG111" s="22"/>
+      <c r="AH111" s="23"/>
+      <c r="AI111" s="21"/>
+      <c r="AJ111" s="22"/>
+      <c r="AK111" s="22"/>
+      <c r="AL111" s="22"/>
+      <c r="AM111" s="22"/>
+      <c r="AN111" s="22"/>
+      <c r="AO111" s="23"/>
+      <c r="AP111" s="21"/>
+      <c r="AQ111" s="22"/>
+      <c r="AR111" s="22"/>
+      <c r="AS111" s="23"/>
+      <c r="AT111" s="21"/>
+      <c r="AU111" s="22"/>
+      <c r="AV111" s="22"/>
+      <c r="AW111" s="22"/>
+      <c r="AX111" s="23"/>
+      <c r="AY111" s="21"/>
+      <c r="AZ111" s="22"/>
+      <c r="BA111" s="22"/>
+      <c r="BB111" s="23"/>
+      <c r="BC111" s="21"/>
+      <c r="BD111" s="22"/>
+      <c r="BE111" s="22"/>
+      <c r="BF111" s="22"/>
+      <c r="BG111" s="22"/>
+      <c r="BH111" s="22"/>
+      <c r="BI111" s="22"/>
+      <c r="BJ111" s="22"/>
+      <c r="BK111" s="23"/>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="27">
+        <v>51.0</v>
+      </c>
+      <c r="B112" s="18"/>
+      <c r="C112" s="34"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="34"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="18"/>
+      <c r="R112" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="S112" s="17"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="17"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="18"/>
+      <c r="X112" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="17"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="18"/>
+      <c r="AD112" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="18"/>
+      <c r="AI112" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="17"/>
+      <c r="AN112" s="17"/>
+      <c r="AO112" s="18"/>
+      <c r="AP112" s="51"/>
+      <c r="AQ112" s="17"/>
+      <c r="AR112" s="17"/>
+      <c r="AS112" s="18"/>
+      <c r="AT112" s="28"/>
+      <c r="AU112" s="17"/>
+      <c r="AV112" s="17"/>
+      <c r="AW112" s="17"/>
+      <c r="AX112" s="18"/>
+      <c r="AY112" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ112" s="17"/>
+      <c r="BA112" s="17"/>
+      <c r="BB112" s="18"/>
+      <c r="BC112" s="28"/>
+      <c r="BD112" s="17"/>
+      <c r="BE112" s="17"/>
+      <c r="BF112" s="17"/>
+      <c r="BG112" s="17"/>
+      <c r="BH112" s="17"/>
+      <c r="BI112" s="17"/>
+      <c r="BJ112" s="17"/>
+      <c r="BK112" s="18"/>
+    </row>
+    <row r="113" ht="23.25" customHeight="1">
+      <c r="A113" s="21"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="34"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="34"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="23"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="23"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="22"/>
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="23"/>
+      <c r="AD113" s="21"/>
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="23"/>
+      <c r="AI113" s="21"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="22"/>
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="23"/>
+      <c r="AP113" s="21"/>
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="23"/>
+      <c r="AT113" s="21"/>
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="23"/>
+      <c r="AY113" s="21"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="23"/>
+      <c r="BC113" s="21"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="22"/>
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="22"/>
+      <c r="BK113" s="23"/>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="27">
+        <v>52.0</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="34"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="34"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="18"/>
+      <c r="R114" s="29" t="s">
+        <v>249</v>
+      </c>
+      <c r="S114" s="17"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="17"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="18"/>
+      <c r="X114" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="17"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="18"/>
+      <c r="AD114" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="18"/>
+      <c r="AI114" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+      <c r="AL114" s="17"/>
+      <c r="AM114" s="17"/>
+      <c r="AN114" s="17"/>
+      <c r="AO114" s="18"/>
+      <c r="AP114" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="AQ114" s="17"/>
+      <c r="AR114" s="17"/>
+      <c r="AS114" s="18"/>
+      <c r="AT114" s="28"/>
+      <c r="AU114" s="17"/>
+      <c r="AV114" s="17"/>
+      <c r="AW114" s="17"/>
+      <c r="AX114" s="18"/>
+      <c r="AY114" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AZ114" s="17"/>
+      <c r="BA114" s="17"/>
+      <c r="BB114" s="18"/>
+      <c r="BC114" s="28"/>
+      <c r="BD114" s="17"/>
+      <c r="BE114" s="17"/>
+      <c r="BF114" s="17"/>
+      <c r="BG114" s="17"/>
+      <c r="BH114" s="17"/>
+      <c r="BI114" s="17"/>
+      <c r="BJ114" s="17"/>
+      <c r="BK114" s="18"/>
+    </row>
+    <row r="115" ht="22.5" customHeight="1">
+      <c r="A115" s="21"/>
+      <c r="B115" s="23"/>
+      <c r="C115" s="34"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="34"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="21"/>
+      <c r="S115" s="22"/>
+      <c r="T115" s="22"/>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="23"/>
+      <c r="X115" s="21"/>
+      <c r="Y115" s="22"/>
+      <c r="Z115" s="22"/>
+      <c r="AA115" s="22"/>
+      <c r="AB115" s="22"/>
+      <c r="AC115" s="23"/>
+      <c r="AD115" s="21"/>
+      <c r="AE115" s="22"/>
+      <c r="AF115" s="22"/>
+      <c r="AG115" s="22"/>
+      <c r="AH115" s="23"/>
+      <c r="AI115" s="21"/>
+      <c r="AJ115" s="22"/>
+      <c r="AK115" s="22"/>
+      <c r="AL115" s="22"/>
+      <c r="AM115" s="22"/>
+      <c r="AN115" s="22"/>
+      <c r="AO115" s="23"/>
+      <c r="AP115" s="21"/>
+      <c r="AQ115" s="22"/>
+      <c r="AR115" s="22"/>
+      <c r="AS115" s="23"/>
+      <c r="AT115" s="21"/>
+      <c r="AU115" s="22"/>
+      <c r="AV115" s="22"/>
+      <c r="AW115" s="22"/>
+      <c r="AX115" s="23"/>
+      <c r="AY115" s="21"/>
+      <c r="AZ115" s="22"/>
+      <c r="BA115" s="22"/>
+      <c r="BB115" s="23"/>
+      <c r="BC115" s="21"/>
+      <c r="BD115" s="22"/>
+      <c r="BE115" s="22"/>
+      <c r="BF115" s="22"/>
+      <c r="BG115" s="22"/>
+      <c r="BH115" s="22"/>
+      <c r="BI115" s="22"/>
+      <c r="BJ115" s="22"/>
+      <c r="BK115" s="23"/>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="27">
+        <v>53.0</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="34"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="34"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="35"/>
+      <c r="L116" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="18"/>
+      <c r="R116" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="S116" s="17"/>
+      <c r="T116" s="17"/>
+      <c r="U116" s="17"/>
+      <c r="V116" s="17"/>
+      <c r="W116" s="18"/>
+      <c r="X116" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="17"/>
+      <c r="AA116" s="17"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="18"/>
+      <c r="AD116" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="18"/>
+      <c r="AI116" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ116" s="17"/>
+      <c r="AK116" s="17"/>
+      <c r="AL116" s="17"/>
+      <c r="AM116" s="17"/>
+      <c r="AN116" s="17"/>
+      <c r="AO116" s="18"/>
+      <c r="AP116" s="28"/>
+      <c r="AQ116" s="17"/>
+      <c r="AR116" s="17"/>
+      <c r="AS116" s="18"/>
+      <c r="AT116" s="28"/>
+      <c r="AU116" s="17"/>
+      <c r="AV116" s="17"/>
+      <c r="AW116" s="17"/>
+      <c r="AX116" s="18"/>
+      <c r="AY116" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ116" s="17"/>
+      <c r="BA116" s="17"/>
+      <c r="BB116" s="18"/>
+      <c r="BC116" s="28"/>
+      <c r="BD116" s="17"/>
+      <c r="BE116" s="17"/>
+      <c r="BF116" s="17"/>
+      <c r="BG116" s="17"/>
+      <c r="BH116" s="17"/>
+      <c r="BI116" s="17"/>
+      <c r="BJ116" s="17"/>
+      <c r="BK116" s="18"/>
+    </row>
+    <row r="117" ht="24.0" customHeight="1">
+      <c r="A117" s="21"/>
+      <c r="B117" s="23"/>
+      <c r="C117" s="21"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="23"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="23"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="22"/>
+      <c r="U117" s="22"/>
+      <c r="V117" s="22"/>
+      <c r="W117" s="23"/>
+      <c r="X117" s="21"/>
+      <c r="Y117" s="22"/>
+      <c r="Z117" s="22"/>
+      <c r="AA117" s="22"/>
+      <c r="AB117" s="22"/>
+      <c r="AC117" s="23"/>
+      <c r="AD117" s="21"/>
+      <c r="AE117" s="22"/>
+      <c r="AF117" s="22"/>
+      <c r="AG117" s="22"/>
+      <c r="AH117" s="23"/>
+      <c r="AI117" s="21"/>
+      <c r="AJ117" s="22"/>
+      <c r="AK117" s="22"/>
+      <c r="AL117" s="22"/>
+      <c r="AM117" s="22"/>
+      <c r="AN117" s="22"/>
+      <c r="AO117" s="23"/>
+      <c r="AP117" s="21"/>
+      <c r="AQ117" s="22"/>
+      <c r="AR117" s="22"/>
+      <c r="AS117" s="23"/>
+      <c r="AT117" s="21"/>
+      <c r="AU117" s="22"/>
+      <c r="AV117" s="22"/>
+      <c r="AW117" s="22"/>
+      <c r="AX117" s="23"/>
+      <c r="AY117" s="21"/>
+      <c r="AZ117" s="22"/>
+      <c r="BA117" s="22"/>
+      <c r="BB117" s="23"/>
+      <c r="BC117" s="21"/>
+      <c r="BD117" s="22"/>
+      <c r="BE117" s="22"/>
+      <c r="BF117" s="22"/>
+      <c r="BG117" s="22"/>
+      <c r="BH117" s="22"/>
+      <c r="BI117" s="22"/>
+      <c r="BJ117" s="22"/>
+      <c r="BK117" s="23"/>
+    </row>
     <row r="118" ht="15.75" customHeight="1"/>
     <row r="119" ht="15.75" customHeight="1"/>
     <row r="120" ht="15.75" customHeight="1"/>
@@ -8000,8 +11506,14 @@
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="385">
+  <mergeCells count="589">
     <mergeCell ref="X20:AC21"/>
     <mergeCell ref="AD20:AH21"/>
     <mergeCell ref="X22:AC23"/>
@@ -8124,13 +11636,10 @@
     <mergeCell ref="Z6:AB6"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A16:B17"/>
-    <mergeCell ref="F25:I25"/>
     <mergeCell ref="X48:AC49"/>
     <mergeCell ref="AD48:AH49"/>
     <mergeCell ref="X50:AC51"/>
     <mergeCell ref="AD50:AH51"/>
-    <mergeCell ref="X52:AC53"/>
-    <mergeCell ref="AD52:AH53"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="F14:I24"/>
     <mergeCell ref="A18:B19"/>
@@ -8145,16 +11654,15 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="L24:Q24"/>
     <mergeCell ref="R24:W24"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="A28:B29"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="R26:W27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="L28:Q29"/>
     <mergeCell ref="R28:W29"/>
     <mergeCell ref="R30:W31"/>
     <mergeCell ref="R32:W33"/>
     <mergeCell ref="R34:W35"/>
-    <mergeCell ref="R36:W37"/>
     <mergeCell ref="X56:AC57"/>
     <mergeCell ref="AD56:AH57"/>
     <mergeCell ref="AI56:AO57"/>
@@ -8176,6 +11684,16 @@
     <mergeCell ref="X38:AC39"/>
     <mergeCell ref="AD38:AH39"/>
     <mergeCell ref="AD40:AH41"/>
+    <mergeCell ref="AT50:AX51"/>
+    <mergeCell ref="AY50:BB51"/>
+    <mergeCell ref="AI48:AO49"/>
+    <mergeCell ref="AP48:AS49"/>
+    <mergeCell ref="AT48:AX49"/>
+    <mergeCell ref="AY48:BB49"/>
+    <mergeCell ref="BC48:BK49"/>
+    <mergeCell ref="AI50:AO51"/>
+    <mergeCell ref="AP50:AS51"/>
+    <mergeCell ref="BC50:BK51"/>
     <mergeCell ref="X40:AC41"/>
     <mergeCell ref="X42:AC43"/>
     <mergeCell ref="AD42:AH43"/>
@@ -8183,28 +11701,20 @@
     <mergeCell ref="AD44:AH45"/>
     <mergeCell ref="X46:AC47"/>
     <mergeCell ref="AD46:AH47"/>
-    <mergeCell ref="AT50:AX51"/>
-    <mergeCell ref="AY50:BB51"/>
+    <mergeCell ref="X52:AC53"/>
+    <mergeCell ref="AD52:AH53"/>
+    <mergeCell ref="AI52:AO53"/>
+    <mergeCell ref="AP52:AS53"/>
     <mergeCell ref="AT52:AX53"/>
     <mergeCell ref="AY52:BB53"/>
     <mergeCell ref="BC52:BK53"/>
-    <mergeCell ref="AI48:AO49"/>
-    <mergeCell ref="AP48:AS49"/>
-    <mergeCell ref="AT48:AX49"/>
-    <mergeCell ref="AY48:BB49"/>
-    <mergeCell ref="BC48:BK49"/>
-    <mergeCell ref="AP50:AS51"/>
-    <mergeCell ref="BC50:BK51"/>
-    <mergeCell ref="AT54:AX55"/>
-    <mergeCell ref="AY54:BB55"/>
-    <mergeCell ref="BC54:BK55"/>
-    <mergeCell ref="AI50:AO51"/>
-    <mergeCell ref="AI52:AO53"/>
-    <mergeCell ref="AP52:AS53"/>
     <mergeCell ref="X54:AC55"/>
     <mergeCell ref="AD54:AH55"/>
     <mergeCell ref="AI54:AO55"/>
     <mergeCell ref="AP54:AS55"/>
+    <mergeCell ref="AT54:AX55"/>
+    <mergeCell ref="AY54:BB55"/>
+    <mergeCell ref="BC54:BK55"/>
     <mergeCell ref="X60:AC61"/>
     <mergeCell ref="AD60:AH61"/>
     <mergeCell ref="AI60:AO61"/>
@@ -8212,54 +11722,277 @@
     <mergeCell ref="AT60:AX61"/>
     <mergeCell ref="AY60:BB61"/>
     <mergeCell ref="BC60:BK61"/>
-    <mergeCell ref="AI68:AO69"/>
-    <mergeCell ref="AI71:AO72"/>
+    <mergeCell ref="AT72:AX73"/>
+    <mergeCell ref="AY72:BB73"/>
+    <mergeCell ref="AI70:AO71"/>
+    <mergeCell ref="AP70:AS71"/>
+    <mergeCell ref="AT70:AX71"/>
+    <mergeCell ref="AY70:BB71"/>
+    <mergeCell ref="BC70:BK71"/>
+    <mergeCell ref="AI72:AO73"/>
+    <mergeCell ref="AP72:AS73"/>
+    <mergeCell ref="BC72:BK73"/>
+    <mergeCell ref="R36:W37"/>
     <mergeCell ref="R38:W39"/>
     <mergeCell ref="R40:W41"/>
     <mergeCell ref="R42:W43"/>
     <mergeCell ref="R44:W45"/>
     <mergeCell ref="R46:W47"/>
     <mergeCell ref="R48:W49"/>
-    <mergeCell ref="R50:W51"/>
+    <mergeCell ref="X64:AC65"/>
+    <mergeCell ref="AD64:AH65"/>
+    <mergeCell ref="AI64:AO65"/>
+    <mergeCell ref="AP64:AS65"/>
     <mergeCell ref="AT64:AX65"/>
     <mergeCell ref="AY64:BB65"/>
-    <mergeCell ref="AT66:AX67"/>
-    <mergeCell ref="AY66:BB67"/>
-    <mergeCell ref="BC66:BK67"/>
-    <mergeCell ref="BC68:BK69"/>
+    <mergeCell ref="BC64:BK65"/>
+    <mergeCell ref="X62:AC63"/>
     <mergeCell ref="AD62:AH63"/>
     <mergeCell ref="AI62:AO63"/>
     <mergeCell ref="AP62:AS63"/>
     <mergeCell ref="AT62:AX63"/>
     <mergeCell ref="AY62:BB63"/>
     <mergeCell ref="BC62:BK63"/>
-    <mergeCell ref="AD64:AH65"/>
-    <mergeCell ref="BC64:BK65"/>
-    <mergeCell ref="X64:AC65"/>
-    <mergeCell ref="X66:AC67"/>
-    <mergeCell ref="AD66:AH67"/>
-    <mergeCell ref="X68:AC69"/>
-    <mergeCell ref="AD68:AH69"/>
-    <mergeCell ref="AD71:AH72"/>
+    <mergeCell ref="R50:W51"/>
     <mergeCell ref="R52:W53"/>
     <mergeCell ref="R54:W55"/>
     <mergeCell ref="R56:W57"/>
     <mergeCell ref="R58:W59"/>
     <mergeCell ref="R60:W61"/>
     <mergeCell ref="R62:W63"/>
-    <mergeCell ref="X62:AC63"/>
-    <mergeCell ref="L70:BK70"/>
-    <mergeCell ref="AP71:AS72"/>
-    <mergeCell ref="AT71:AX72"/>
-    <mergeCell ref="AY71:BB72"/>
-    <mergeCell ref="BC71:BK72"/>
-    <mergeCell ref="AI64:AO65"/>
-    <mergeCell ref="AP64:AS65"/>
+    <mergeCell ref="R68:W69"/>
+    <mergeCell ref="AY66:BB67"/>
+    <mergeCell ref="BC66:BK67"/>
+    <mergeCell ref="R64:W65"/>
+    <mergeCell ref="R66:W67"/>
+    <mergeCell ref="X66:AC67"/>
+    <mergeCell ref="AD66:AH67"/>
     <mergeCell ref="AI66:AO67"/>
     <mergeCell ref="AP66:AS67"/>
+    <mergeCell ref="AT66:AX67"/>
+    <mergeCell ref="X68:AC69"/>
+    <mergeCell ref="AD68:AH69"/>
+    <mergeCell ref="AI68:AO69"/>
     <mergeCell ref="AP68:AS69"/>
     <mergeCell ref="AT68:AX69"/>
     <mergeCell ref="AY68:BB69"/>
+    <mergeCell ref="BC68:BK69"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="L72:Q73"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="L74:Q75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B78"/>
+    <mergeCell ref="R77:W78"/>
+    <mergeCell ref="L77:Q78"/>
+    <mergeCell ref="A79:B80"/>
+    <mergeCell ref="L79:Q80"/>
+    <mergeCell ref="R79:W80"/>
+    <mergeCell ref="A81:B82"/>
+    <mergeCell ref="L81:Q82"/>
+    <mergeCell ref="R81:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="R84:W85"/>
+    <mergeCell ref="R86:W87"/>
+    <mergeCell ref="R88:W89"/>
+    <mergeCell ref="R90:W91"/>
+    <mergeCell ref="R92:W93"/>
+    <mergeCell ref="R108:W109"/>
+    <mergeCell ref="R110:W111"/>
+    <mergeCell ref="R112:W113"/>
+    <mergeCell ref="R114:W115"/>
+    <mergeCell ref="R116:W117"/>
+    <mergeCell ref="R94:W95"/>
+    <mergeCell ref="R96:W97"/>
+    <mergeCell ref="R98:W99"/>
+    <mergeCell ref="R100:W101"/>
+    <mergeCell ref="R102:W103"/>
+    <mergeCell ref="R104:W105"/>
+    <mergeCell ref="R106:W107"/>
+    <mergeCell ref="J14:K82"/>
+    <mergeCell ref="F26:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I82"/>
+    <mergeCell ref="L100:Q101"/>
+    <mergeCell ref="L102:Q103"/>
+    <mergeCell ref="L104:Q105"/>
+    <mergeCell ref="L106:Q107"/>
+    <mergeCell ref="L108:Q109"/>
+    <mergeCell ref="L110:Q111"/>
+    <mergeCell ref="L112:Q113"/>
+    <mergeCell ref="L114:Q115"/>
+    <mergeCell ref="F84:I117"/>
+    <mergeCell ref="J84:K117"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="L26:Q27"/>
+    <mergeCell ref="C14:E117"/>
+    <mergeCell ref="L116:Q117"/>
+    <mergeCell ref="L84:Q85"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="L86:Q87"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="L88:Q89"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="L90:Q91"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="L92:Q93"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="L94:Q95"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="L96:Q97"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="A98:B99"/>
+    <mergeCell ref="L98:Q99"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="X88:AC89"/>
+    <mergeCell ref="AD90:AH91"/>
+    <mergeCell ref="AI90:AO91"/>
+    <mergeCell ref="AP90:AS91"/>
+    <mergeCell ref="AT90:AX91"/>
+    <mergeCell ref="AY90:BB91"/>
+    <mergeCell ref="BC90:BK91"/>
+    <mergeCell ref="X90:AC91"/>
+    <mergeCell ref="AD92:AH93"/>
+    <mergeCell ref="AI92:AO93"/>
+    <mergeCell ref="AP92:AS93"/>
+    <mergeCell ref="AT92:AX93"/>
+    <mergeCell ref="AY92:BB93"/>
+    <mergeCell ref="BC92:BK93"/>
+    <mergeCell ref="X92:AC93"/>
+    <mergeCell ref="AD94:AH95"/>
+    <mergeCell ref="AI94:AO95"/>
+    <mergeCell ref="AP94:AS95"/>
+    <mergeCell ref="AT94:AX95"/>
+    <mergeCell ref="AY94:BB95"/>
+    <mergeCell ref="BC94:BK95"/>
+    <mergeCell ref="X94:AC95"/>
+    <mergeCell ref="AD96:AH97"/>
+    <mergeCell ref="AI96:AO97"/>
+    <mergeCell ref="AP96:AS97"/>
+    <mergeCell ref="AT96:AX97"/>
+    <mergeCell ref="AY96:BB97"/>
+    <mergeCell ref="BC96:BK97"/>
+    <mergeCell ref="X96:AC97"/>
+    <mergeCell ref="AD98:AH99"/>
+    <mergeCell ref="AI98:AO99"/>
+    <mergeCell ref="AP98:AS99"/>
+    <mergeCell ref="AT98:AX99"/>
+    <mergeCell ref="AY98:BB99"/>
+    <mergeCell ref="BC98:BK99"/>
+    <mergeCell ref="X98:AC99"/>
+    <mergeCell ref="AD100:AH101"/>
+    <mergeCell ref="AI100:AO101"/>
+    <mergeCell ref="AP100:AS101"/>
+    <mergeCell ref="AT100:AX101"/>
+    <mergeCell ref="AY100:BB101"/>
+    <mergeCell ref="BC100:BK101"/>
+    <mergeCell ref="X100:AC101"/>
+    <mergeCell ref="AD102:AH103"/>
+    <mergeCell ref="AI102:AO103"/>
+    <mergeCell ref="AP102:AS103"/>
+    <mergeCell ref="AT102:AX103"/>
+    <mergeCell ref="AY102:BB103"/>
+    <mergeCell ref="BC102:BK103"/>
+    <mergeCell ref="X102:AC103"/>
+    <mergeCell ref="AD104:AH105"/>
+    <mergeCell ref="AI104:AO105"/>
+    <mergeCell ref="AP104:AS105"/>
+    <mergeCell ref="AT104:AX105"/>
+    <mergeCell ref="AY104:BB105"/>
+    <mergeCell ref="BC104:BK105"/>
+    <mergeCell ref="X104:AC105"/>
+    <mergeCell ref="AD106:AH107"/>
+    <mergeCell ref="AI106:AO107"/>
+    <mergeCell ref="AP106:AS107"/>
+    <mergeCell ref="AT106:AX107"/>
+    <mergeCell ref="AY106:BB107"/>
+    <mergeCell ref="BC106:BK107"/>
+    <mergeCell ref="X106:AC107"/>
+    <mergeCell ref="AD108:AH109"/>
+    <mergeCell ref="AI108:AO109"/>
+    <mergeCell ref="AP108:AS109"/>
+    <mergeCell ref="AT108:AX109"/>
+    <mergeCell ref="AY108:BB109"/>
+    <mergeCell ref="BC108:BK109"/>
+    <mergeCell ref="X108:AC109"/>
+    <mergeCell ref="AD110:AH111"/>
+    <mergeCell ref="AI110:AO111"/>
+    <mergeCell ref="AP110:AS111"/>
+    <mergeCell ref="AT110:AX111"/>
+    <mergeCell ref="AY110:BB111"/>
+    <mergeCell ref="BC110:BK111"/>
+    <mergeCell ref="X110:AC111"/>
+    <mergeCell ref="AD112:AH113"/>
+    <mergeCell ref="AI112:AO113"/>
+    <mergeCell ref="AP112:AS113"/>
+    <mergeCell ref="AT112:AX113"/>
+    <mergeCell ref="AY112:BB113"/>
+    <mergeCell ref="BC112:BK113"/>
+    <mergeCell ref="AY74:BB75"/>
+    <mergeCell ref="BC74:BK75"/>
+    <mergeCell ref="BC77:BK78"/>
+    <mergeCell ref="R72:W73"/>
+    <mergeCell ref="R74:W75"/>
+    <mergeCell ref="AD74:AH75"/>
+    <mergeCell ref="AI74:AO75"/>
+    <mergeCell ref="AP74:AS75"/>
+    <mergeCell ref="AT74:AX75"/>
+    <mergeCell ref="L76:BK76"/>
+    <mergeCell ref="X74:AC75"/>
+    <mergeCell ref="X77:AC78"/>
+    <mergeCell ref="AD77:AH78"/>
+    <mergeCell ref="AI77:AO78"/>
+    <mergeCell ref="AP77:AS78"/>
+    <mergeCell ref="AT77:AX78"/>
+    <mergeCell ref="AY77:BB78"/>
+    <mergeCell ref="X79:AC80"/>
+    <mergeCell ref="AD79:AH80"/>
+    <mergeCell ref="AI79:AO80"/>
+    <mergeCell ref="AP79:AS80"/>
+    <mergeCell ref="AT79:AX80"/>
+    <mergeCell ref="AY79:BB80"/>
+    <mergeCell ref="BC79:BK80"/>
+    <mergeCell ref="AD81:AH82"/>
+    <mergeCell ref="AI81:AO82"/>
+    <mergeCell ref="AP81:AS82"/>
+    <mergeCell ref="AT81:AX82"/>
+    <mergeCell ref="AY81:BB82"/>
+    <mergeCell ref="BC81:BK82"/>
+    <mergeCell ref="F83:BK83"/>
+    <mergeCell ref="X81:AC82"/>
+    <mergeCell ref="AD84:AH85"/>
+    <mergeCell ref="AI84:AO85"/>
+    <mergeCell ref="AP84:AS85"/>
+    <mergeCell ref="AT84:AX85"/>
+    <mergeCell ref="AY84:BB85"/>
+    <mergeCell ref="BC84:BK85"/>
+    <mergeCell ref="X114:AC115"/>
+    <mergeCell ref="X116:AC117"/>
+    <mergeCell ref="AD116:AH117"/>
+    <mergeCell ref="AI116:AO117"/>
+    <mergeCell ref="AP116:AS117"/>
+    <mergeCell ref="AT116:AX117"/>
+    <mergeCell ref="AY116:BB117"/>
+    <mergeCell ref="BC116:BK117"/>
+    <mergeCell ref="X112:AC113"/>
+    <mergeCell ref="AD114:AH115"/>
+    <mergeCell ref="AI114:AO115"/>
+    <mergeCell ref="AP114:AS115"/>
+    <mergeCell ref="AT114:AX115"/>
+    <mergeCell ref="AY114:BB115"/>
+    <mergeCell ref="BC114:BK115"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:N4"/>
@@ -8308,6 +12041,7 @@
     <mergeCell ref="AP14:AS15"/>
     <mergeCell ref="AT14:AX15"/>
     <mergeCell ref="AY14:BB15"/>
+    <mergeCell ref="L28:Q29"/>
     <mergeCell ref="A30:B31"/>
     <mergeCell ref="L30:Q31"/>
     <mergeCell ref="A32:B33"/>
@@ -8336,38 +12070,6 @@
     <mergeCell ref="L54:Q55"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="L56:Q57"/>
-    <mergeCell ref="A71:B72"/>
-    <mergeCell ref="A73:B74"/>
-    <mergeCell ref="A75:B76"/>
-    <mergeCell ref="F26:I69"/>
-    <mergeCell ref="L71:Q72"/>
-    <mergeCell ref="L73:Q74"/>
-    <mergeCell ref="R75:W76"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="C14:E76"/>
-    <mergeCell ref="F71:I76"/>
-    <mergeCell ref="J14:K76"/>
-    <mergeCell ref="L75:Q76"/>
-    <mergeCell ref="X73:AC74"/>
-    <mergeCell ref="X75:AC76"/>
-    <mergeCell ref="AD75:AH76"/>
-    <mergeCell ref="AI75:AO76"/>
-    <mergeCell ref="AP75:AS76"/>
-    <mergeCell ref="AT75:AX76"/>
-    <mergeCell ref="AY75:BB76"/>
-    <mergeCell ref="BC75:BK76"/>
-    <mergeCell ref="R73:W74"/>
-    <mergeCell ref="AD73:AH74"/>
-    <mergeCell ref="AI73:AO74"/>
-    <mergeCell ref="AP73:AS74"/>
-    <mergeCell ref="AT73:AX74"/>
-    <mergeCell ref="AY73:BB74"/>
-    <mergeCell ref="BC73:BK74"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="L26:Q27"/>
     <mergeCell ref="A58:B59"/>
     <mergeCell ref="L58:Q59"/>
     <mergeCell ref="A60:B61"/>
@@ -8376,17 +12078,31 @@
     <mergeCell ref="L62:Q63"/>
     <mergeCell ref="A64:B65"/>
     <mergeCell ref="L64:Q65"/>
-    <mergeCell ref="R64:W65"/>
     <mergeCell ref="A66:B67"/>
     <mergeCell ref="L66:Q67"/>
-    <mergeCell ref="R66:W67"/>
     <mergeCell ref="A68:B69"/>
     <mergeCell ref="L68:Q69"/>
-    <mergeCell ref="R68:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="R71:W72"/>
-    <mergeCell ref="X71:AC72"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="L70:Q71"/>
+    <mergeCell ref="R70:W71"/>
+    <mergeCell ref="X70:AC71"/>
+    <mergeCell ref="AD70:AH71"/>
+    <mergeCell ref="X72:AC73"/>
+    <mergeCell ref="AD72:AH73"/>
+    <mergeCell ref="X84:AC85"/>
+    <mergeCell ref="AD86:AH87"/>
+    <mergeCell ref="AI86:AO87"/>
+    <mergeCell ref="AP86:AS87"/>
+    <mergeCell ref="AT86:AX87"/>
+    <mergeCell ref="AY86:BB87"/>
+    <mergeCell ref="BC86:BK87"/>
+    <mergeCell ref="X86:AC87"/>
+    <mergeCell ref="AD88:AH89"/>
+    <mergeCell ref="AI88:AO89"/>
+    <mergeCell ref="AP88:AS89"/>
+    <mergeCell ref="AT88:AX89"/>
+    <mergeCell ref="AY88:BB89"/>
+    <mergeCell ref="BC88:BK89"/>
   </mergeCells>
   <conditionalFormatting sqref="AY11:BB12 AY14 AY16 AY18 AY20 AY22">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -8408,28 +12124,28 @@
       <formula>"Out Of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY70 AY72:AY74 AY77 AY79 AY81 AY84 AY86 AY88 AY90 AY92 AY94 AY96 AY98 AY100 AY102 AY104 AY106 AY108 AY110 AY112 AY114 AY116">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY70 AY72:AY74 AY77 AY79 AY81 AY84 AY86 AY88 AY90 AY92 AY94 AY96 AY98 AY100 AY102 AY104 AY106 AY108 AY110 AY112 AY114 AY116">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY70 AY72:AY74 AY77 AY79 AY81 AY84 AY86 AY88 AY90 AY92 AY94 AY96 AY98 AY100 AY102 AY104 AY106 AY108 AY110 AY112 AY114 AY116">
     <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Not Executed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
+  <conditionalFormatting sqref="AY24:BB24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY70 AY72:AY74 AY77 AY79 AY81 AY84 AY86 AY88 AY90 AY92 AY94 AY96 AY98 AY100 AY102 AY104 AY106 AY108 AY110 AY112 AY114 AY116">
     <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
       <formula>"Out Of Scope"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18 AY20 AY22 AY24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY71 AY73 AY75">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="AY11 AY14 AY16 AY18 AY20 AY22 AY24 AY26 AY28 AY30 AY32 AY34 AY36 AY38 AY40 AY42 AY44 AY46 AY48 AY50 AY52 AY54 AY56 AY58 AY60 AY62 AY64 AY66 AY68 AY70 AY72 AY74 AY77 AY79 AY81 AY84 AY86 AY88 AY90 AY92 AY94 AY96 AY98 AY100 AY102 AY104 AY106 AY108 AY110 AY112 AY114 AY116">
       <formula1>"Passed,Failed,Not Executed,Out Of Scope"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8470,15 +12186,38 @@
     <hyperlink r:id="rId34" ref="AI64"/>
     <hyperlink r:id="rId35" ref="AI66"/>
     <hyperlink r:id="rId36" ref="AI68"/>
-    <hyperlink r:id="rId37" ref="AI71"/>
-    <hyperlink r:id="rId38" ref="AI73"/>
-    <hyperlink r:id="rId39" ref="AI75"/>
-    <hyperlink r:id="rId40" ref="AP75"/>
+    <hyperlink r:id="rId37" ref="AI70"/>
+    <hyperlink r:id="rId38" ref="AI72"/>
+    <hyperlink r:id="rId39" ref="AI74"/>
+    <hyperlink r:id="rId40" ref="AI77"/>
+    <hyperlink r:id="rId41" ref="AI79"/>
+    <hyperlink r:id="rId42" ref="AI81"/>
+    <hyperlink r:id="rId43" ref="AP81"/>
+    <hyperlink r:id="rId44" ref="AI84"/>
+    <hyperlink r:id="rId45" ref="AI86"/>
+    <hyperlink r:id="rId46" ref="AI88"/>
+    <hyperlink r:id="rId47" ref="AI90"/>
+    <hyperlink r:id="rId48" ref="AI92"/>
+    <hyperlink r:id="rId49" ref="AI94"/>
+    <hyperlink r:id="rId50" ref="AI96"/>
+    <hyperlink r:id="rId51" ref="AI98"/>
+    <hyperlink r:id="rId52" ref="AI100"/>
+    <hyperlink r:id="rId53" ref="AI102"/>
+    <hyperlink r:id="rId54" ref="AP102"/>
+    <hyperlink r:id="rId55" ref="AI104"/>
+    <hyperlink r:id="rId56" ref="AI106"/>
+    <hyperlink r:id="rId57" ref="AP106"/>
+    <hyperlink r:id="rId58" ref="AI108"/>
+    <hyperlink r:id="rId59" ref="AI110"/>
+    <hyperlink r:id="rId60" ref="AI112"/>
+    <hyperlink r:id="rId61" ref="AI114"/>
+    <hyperlink r:id="rId62" ref="AP114"/>
+    <hyperlink r:id="rId63" ref="AI116"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId41"/>
+  <drawing r:id="rId64"/>
 </worksheet>
 </file>
 

--- a/FabriLife_Test-Case-Report.xlsx
+++ b/FabriLife_Test-Case-Report.xlsx
@@ -2818,7 +2818,9 @@
       </c>
       <c r="X2" s="2"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="10"/>
+      <c r="Z2" s="8">
+        <v>42.0</v>
+      </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="3"/>
     </row>
@@ -2860,7 +2862,9 @@
       </c>
       <c r="X3" s="2"/>
       <c r="Y3" s="3"/>
-      <c r="Z3" s="10"/>
+      <c r="Z3" s="8">
+        <v>11.0</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="3"/>
     </row>
@@ -2900,7 +2904,9 @@
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="10"/>
+      <c r="Z4" s="8">
+        <v>0.0</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="3"/>
     </row>
@@ -2936,7 +2942,9 @@
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="8">
+        <v>0.0</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="3"/>
     </row>
@@ -2968,7 +2976,9 @@
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="8">
+        <v>53.0</v>
+      </c>
       <c r="AA6" s="2"/>
       <c r="AB6" s="3"/>
     </row>
@@ -3274,7 +3284,7 @@
       <c r="BJ11" s="17"/>
       <c r="BK11" s="18"/>
     </row>
-    <row r="12" ht="39.75" customHeight="1">
+    <row r="12" ht="30.75" customHeight="1">
       <c r="A12" s="21"/>
       <c r="B12" s="23"/>
       <c r="C12" s="21"/>
@@ -3489,7 +3499,7 @@
       <c r="BJ14" s="17"/>
       <c r="BK14" s="18"/>
     </row>
-    <row r="15" ht="51.75" customHeight="1">
+    <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="21"/>
       <c r="B15" s="23"/>
       <c r="C15" s="34"/>
@@ -3627,7 +3637,7 @@
       <c r="BJ16" s="17"/>
       <c r="BK16" s="18"/>
     </row>
-    <row r="17" ht="42.0" customHeight="1">
+    <row r="17" ht="24.0" customHeight="1">
       <c r="A17" s="21"/>
       <c r="B17" s="23"/>
       <c r="C17" s="34"/>
@@ -3765,7 +3775,7 @@
       <c r="BJ18" s="17"/>
       <c r="BK18" s="18"/>
     </row>
-    <row r="19" ht="35.25" customHeight="1">
+    <row r="19" ht="21.75" customHeight="1">
       <c r="A19" s="21"/>
       <c r="B19" s="23"/>
       <c r="C19" s="34"/>
@@ -3903,7 +3913,7 @@
       <c r="BJ20" s="17"/>
       <c r="BK20" s="18"/>
     </row>
-    <row r="21" ht="30.0" customHeight="1">
+    <row r="21" ht="21.0" customHeight="1">
       <c r="A21" s="21"/>
       <c r="B21" s="23"/>
       <c r="C21" s="34"/>
@@ -4041,7 +4051,7 @@
       <c r="BJ22" s="17"/>
       <c r="BK22" s="18"/>
     </row>
-    <row r="23" ht="36.75" customHeight="1">
+    <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="21"/>
       <c r="B23" s="23"/>
       <c r="C23" s="34"/>
@@ -4103,7 +4113,7 @@
       <c r="BJ23" s="22"/>
       <c r="BK23" s="23"/>
     </row>
-    <row r="24" ht="46.5" customHeight="1">
+    <row r="24" ht="36.0" customHeight="1">
       <c r="A24" s="8">
         <v>7.0</v>
       </c>
@@ -4327,7 +4337,7 @@
       <c r="BJ26" s="17"/>
       <c r="BK26" s="18"/>
     </row>
-    <row r="27" ht="27.75" customHeight="1">
+    <row r="27" ht="26.25" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="23"/>
       <c r="C27" s="34"/>
@@ -4465,7 +4475,7 @@
       <c r="BJ28" s="17"/>
       <c r="BK28" s="18"/>
     </row>
-    <row r="29" ht="24.75" customHeight="1">
+    <row r="29" ht="23.25" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="23"/>
       <c r="C29" s="34"/>
@@ -4605,7 +4615,7 @@
       <c r="BJ30" s="17"/>
       <c r="BK30" s="18"/>
     </row>
-    <row r="31" ht="27.0" customHeight="1">
+    <row r="31" ht="32.25" customHeight="1">
       <c r="A31" s="21"/>
       <c r="B31" s="23"/>
       <c r="C31" s="34"/>
@@ -5441,7 +5451,7 @@
       <c r="BJ42" s="17"/>
       <c r="BK42" s="18"/>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
+    <row r="43" ht="30.75" customHeight="1">
       <c r="A43" s="21"/>
       <c r="B43" s="23"/>
       <c r="C43" s="34"/>
@@ -5579,7 +5589,7 @@
       <c r="BJ44" s="17"/>
       <c r="BK44" s="18"/>
     </row>
-    <row r="45" ht="24.75" customHeight="1">
+    <row r="45" ht="30.0" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="23"/>
       <c r="C45" s="34"/>
@@ -9313,7 +9323,7 @@
       <c r="BJ98" s="17"/>
       <c r="BK98" s="18"/>
     </row>
-    <row r="99" ht="23.25" customHeight="1">
+    <row r="99" ht="27.75" customHeight="1">
       <c r="A99" s="21"/>
       <c r="B99" s="23"/>
       <c r="C99" s="34"/>
@@ -10145,7 +10155,7 @@
       <c r="BJ110" s="17"/>
       <c r="BK110" s="18"/>
     </row>
-    <row r="111" ht="19.5" customHeight="1">
+    <row r="111" ht="25.5" customHeight="1">
       <c r="A111" s="21"/>
       <c r="B111" s="23"/>
       <c r="C111" s="34"/>
@@ -10283,7 +10293,7 @@
       <c r="BJ112" s="17"/>
       <c r="BK112" s="18"/>
     </row>
-    <row r="113" ht="23.25" customHeight="1">
+    <row r="113" ht="33.0" customHeight="1">
       <c r="A113" s="21"/>
       <c r="B113" s="23"/>
       <c r="C113" s="34"/>
@@ -10423,7 +10433,7 @@
       <c r="BJ114" s="17"/>
       <c r="BK114" s="18"/>
     </row>
-    <row r="115" ht="22.5" customHeight="1">
+    <row r="115" ht="29.25" customHeight="1">
       <c r="A115" s="21"/>
       <c r="B115" s="23"/>
       <c r="C115" s="34"/>
@@ -10561,7 +10571,7 @@
       <c r="BJ116" s="17"/>
       <c r="BK116" s="18"/>
     </row>
-    <row r="117" ht="24.0" customHeight="1">
+    <row r="117" ht="33.75" customHeight="1">
       <c r="A117" s="21"/>
       <c r="B117" s="23"/>
       <c r="C117" s="21"/>
